--- a/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
+++ b/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\VB課題資料\課題３(共同)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2C86A-FFF4-4B78-936E-421EB7057116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE7799-37AA-4E11-84BB-C094C227B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題5" sheetId="5" r:id="rId1"/>
@@ -5196,7 +5196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5519,11 +5519,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5540,25 +5561,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7447,8 +7457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E20C55-54EF-495E-B2C0-1D67D38AE4AA}">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7501,18 +7511,18 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="77"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="120"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
       <c r="K4" s="71"/>
       <c r="L4" s="71"/>
       <c r="M4" s="78"/>
@@ -7520,18 +7530,18 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="77"/>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="123" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
       <c r="K5" s="71"/>
       <c r="L5" s="71"/>
       <c r="M5" s="78"/>
@@ -7556,19 +7566,19 @@
       <c r="C7" s="121" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="128" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123" t="s">
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="123"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="121" t="s">
         <v>297</v>
       </c>
@@ -8008,8 +8018,8 @@
       <c r="L24" s="85"/>
       <c r="M24" s="87"/>
     </row>
-    <row r="25" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -8025,36 +8035,36 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="77"/>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="77"/>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="123" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118" t="s">
-        <v>353</v>
-      </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127"/>
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
       <c r="M28" s="78"/>
@@ -8078,19 +8088,19 @@
       <c r="C30" s="121" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="128" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123" t="s">
+      <c r="E30" s="128"/>
+      <c r="F30" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123" t="s">
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="J30" s="123"/>
+      <c r="J30" s="128"/>
       <c r="K30" s="121" t="s">
         <v>297</v>
       </c>
@@ -8132,1041 +8142,1070 @@
       <c r="C32" s="80">
         <v>1</v>
       </c>
-      <c r="D32" s="81" t="s">
-        <v>264</v>
+      <c r="D32" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="I32" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="J32" s="79"/>
+        <v>346</v>
+      </c>
+      <c r="F32" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I32" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J32" s="79">
+        <v>3</v>
+      </c>
       <c r="K32" s="81"/>
-      <c r="L32" s="89" t="s">
-        <v>350</v>
+      <c r="L32" s="81" t="s">
+        <v>351</v>
       </c>
       <c r="M32" s="78"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="77"/>
       <c r="C33" s="80">
         <v>2</v>
       </c>
-      <c r="D33" s="81" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="81" t="s">
-        <v>342</v>
+      <c r="D33" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>364</v>
       </c>
       <c r="F33" s="79"/>
       <c r="G33" s="79"/>
-      <c r="H33" s="38" t="s">
-        <v>332</v>
+      <c r="H33" s="79" t="s">
+        <v>331</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="J33" s="79"/>
+        <v>335</v>
+      </c>
+      <c r="J33" s="79">
+        <v>10</v>
+      </c>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
       <c r="M33" s="78"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="77"/>
       <c r="C34" s="80">
         <v>3</v>
       </c>
-      <c r="D34" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="88" t="s">
-        <v>318</v>
-      </c>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="79"/>
-      <c r="G34" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="J34" s="79">
-        <v>5</v>
-      </c>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="79"/>
       <c r="K34" s="81"/>
-      <c r="L34" s="88" t="s">
-        <v>352</v>
-      </c>
+      <c r="L34" s="81"/>
       <c r="M34" s="78"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="77"/>
       <c r="C35" s="80">
         <v>4</v>
       </c>
-      <c r="D35" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="E35" s="88" t="s">
-        <v>356</v>
-      </c>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="79"/>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="78"/>
+    </row>
+    <row r="36" spans="2:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="87"/>
+    </row>
+    <row r="37" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="76"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" s="77"/>
+      <c r="C39" s="123" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="124"/>
+      <c r="E39" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="78"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40" s="77"/>
+      <c r="C40" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="124"/>
+      <c r="E40" s="125" t="s">
+        <v>963</v>
+      </c>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="78"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" s="77"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="78"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" s="77"/>
+      <c r="C42" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" s="128"/>
+      <c r="K42" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" s="78"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="77"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="114" t="s">
+        <v>299</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="114" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="78"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B44" s="77"/>
+      <c r="C44" s="80">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>964</v>
+      </c>
+      <c r="F44" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="H35" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="I35" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="J35" s="79">
-        <v>5</v>
-      </c>
-      <c r="K35" s="81"/>
-      <c r="L35" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="M35" s="78"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="77"/>
-      <c r="C36" s="80">
-        <v>5</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>309</v>
-      </c>
-      <c r="E36" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="F36" s="79"/>
-      <c r="H36" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="78"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="77"/>
-      <c r="C37" s="80">
-        <v>6</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="81" t="s">
-        <v>344</v>
-      </c>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="J37" s="79"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="78"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="77"/>
-      <c r="C38" s="80">
-        <v>7</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="E38" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="I38" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="J38" s="79">
+      <c r="G44" s="131"/>
+      <c r="H44" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" s="114">
+        <v>2</v>
+      </c>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" s="78"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B45" s="77"/>
+      <c r="C45" s="80">
+        <v>2</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="I45" s="88" t="s">
+        <v>962</v>
+      </c>
+      <c r="J45" s="114">
+        <v>10</v>
+      </c>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="78"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B46" s="77"/>
+      <c r="C46" s="80">
         <v>3</v>
       </c>
-      <c r="K38" s="81"/>
-      <c r="L38" s="88" t="s">
-        <v>351</v>
-      </c>
-      <c r="M38" s="78"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B39" s="77"/>
-      <c r="C39" s="80">
-        <v>8</v>
-      </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="78"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B40" s="77"/>
-      <c r="C40" s="80">
-        <v>9</v>
-      </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="78"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B41" s="77"/>
-      <c r="C41" s="80">
-        <v>10</v>
-      </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="78"/>
-    </row>
-    <row r="42" spans="2:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="87"/>
-    </row>
-    <row r="43" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="76"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="77"/>
-      <c r="C45" s="116" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="117"/>
-      <c r="E45" s="118" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="78"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B46" s="77"/>
-      <c r="C46" s="116" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="118" t="s">
-        <v>354</v>
-      </c>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
       <c r="M46" s="78"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B47" s="77"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
+      <c r="C47" s="80">
+        <v>4</v>
+      </c>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
       <c r="M47" s="78"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B48" s="77"/>
-      <c r="C48" s="121" t="s">
-        <v>293</v>
-      </c>
-      <c r="D48" s="123" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123" t="s">
-        <v>295</v>
-      </c>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="J48" s="123"/>
-      <c r="K48" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="L48" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="M48" s="78"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B49" s="77"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="79" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="G49" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="H49" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="I49" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="J49" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B50" s="77"/>
-      <c r="C50" s="80">
-        <v>1</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="F50" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I50" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="J50" s="79">
-        <v>5</v>
-      </c>
-      <c r="K50" s="81"/>
-      <c r="L50" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="M50" s="78"/>
-      <c r="N50" s="1"/>
+    </row>
+    <row r="48" spans="2:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="87"/>
+    </row>
+    <row r="49" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+    </row>
+    <row r="50" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="76"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="77"/>
-      <c r="C51" s="80">
-        <v>2</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="E51" s="88" t="s">
-        <v>964</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="H51" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I51" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="J51" s="79">
-        <v>2</v>
-      </c>
-      <c r="K51" s="81"/>
-      <c r="L51" s="88" t="s">
-        <v>362</v>
-      </c>
+      <c r="C51" s="123" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="124"/>
+      <c r="E51" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
       <c r="M51" s="78"/>
-      <c r="N51" s="1"/>
-      <c r="P51" s="3"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="77"/>
-      <c r="C52" s="80">
-        <v>3</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I52" s="88" t="s">
-        <v>962</v>
-      </c>
-      <c r="J52" s="79">
-        <v>10</v>
-      </c>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
+      <c r="C52" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="124"/>
+      <c r="E52" s="125" t="s">
+        <v>354</v>
+      </c>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
       <c r="M52" s="78"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="77"/>
-      <c r="C53" s="80">
-        <v>4</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="81" t="s">
-        <v>359</v>
-      </c>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" s="88" t="s">
-        <v>962</v>
-      </c>
-      <c r="J53" s="79">
-        <v>10</v>
-      </c>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
       <c r="M53" s="78"/>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="77"/>
-      <c r="C54" s="80">
-        <v>5</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I54" s="88" t="s">
-        <v>965</v>
-      </c>
-      <c r="J54" s="79"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
+      <c r="C54" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128" t="s">
+        <v>296</v>
+      </c>
+      <c r="J54" s="128"/>
+      <c r="K54" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="L54" s="121" t="s">
+        <v>298</v>
+      </c>
       <c r="M54" s="78"/>
+      <c r="N54" s="1"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="77"/>
-      <c r="C55" s="80">
-        <v>6</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>361</v>
-      </c>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>302</v>
+      </c>
       <c r="H55" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I55" s="88" t="s">
-        <v>965</v>
-      </c>
-      <c r="J55" s="79"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
+        <v>303</v>
+      </c>
+      <c r="I55" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="J55" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
       <c r="M55" s="78"/>
+      <c r="N55" s="1"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="77"/>
       <c r="C56" s="80">
-        <v>7</v>
-      </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="79"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>331</v>
+      </c>
       <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="79"/>
+      <c r="H56" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J56" s="79">
+        <v>5</v>
+      </c>
       <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
+      <c r="L56" s="88" t="s">
+        <v>363</v>
+      </c>
       <c r="M56" s="78"/>
+      <c r="N56" s="1"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" s="77"/>
       <c r="C57" s="80">
-        <v>8</v>
-      </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>964</v>
+      </c>
       <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="79"/>
+      <c r="G57" s="111" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I57" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" s="79">
+        <v>2</v>
+      </c>
       <c r="K57" s="81"/>
-      <c r="L57" s="82"/>
+      <c r="L57" s="88" t="s">
+        <v>362</v>
+      </c>
       <c r="M57" s="78"/>
+      <c r="N57" s="1"/>
+      <c r="P57" s="3"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B58" s="77"/>
       <c r="C58" s="80">
-        <v>9</v>
-      </c>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+        <v>3</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>358</v>
+      </c>
       <c r="F58" s="79"/>
       <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="79"/>
+      <c r="H58" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I58" s="88" t="s">
+        <v>962</v>
+      </c>
+      <c r="J58" s="79">
+        <v>10</v>
+      </c>
       <c r="K58" s="81"/>
-      <c r="L58" s="83"/>
+      <c r="L58" s="81"/>
       <c r="M58" s="78"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B59" s="77"/>
       <c r="C59" s="80">
-        <v>10</v>
-      </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>359</v>
+      </c>
       <c r="F59" s="79"/>
       <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="79"/>
+      <c r="H59" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I59" s="88" t="s">
+        <v>962</v>
+      </c>
+      <c r="J59" s="79">
+        <v>10</v>
+      </c>
       <c r="K59" s="81"/>
       <c r="L59" s="81"/>
       <c r="M59" s="78"/>
     </row>
-    <row r="60" spans="2:16" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="87"/>
-    </row>
-    <row r="61" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="62" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="76"/>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B60" s="77"/>
+      <c r="C60" s="80">
+        <v>5</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I60" s="88" t="s">
+        <v>965</v>
+      </c>
+      <c r="J60" s="79"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="78"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B61" s="77"/>
+      <c r="C61" s="80">
+        <v>6</v>
+      </c>
+      <c r="D61" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I61" s="88" t="s">
+        <v>965</v>
+      </c>
+      <c r="J61" s="79"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="78"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B62" s="77"/>
+      <c r="C62" s="80">
+        <v>7</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="78"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B63" s="77"/>
-      <c r="C63" s="116" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" s="117"/>
-      <c r="E63" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
+      <c r="C63" s="80">
+        <v>8</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="82"/>
       <c r="M63" s="78"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B64" s="77"/>
-      <c r="C64" s="116" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" s="117"/>
-      <c r="E64" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="F64" s="119"/>
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="120"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
+      <c r="C64" s="80">
+        <v>9</v>
+      </c>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="83"/>
       <c r="M64" s="78"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B65" s="77"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
+      <c r="C65" s="80">
+        <v>10</v>
+      </c>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
       <c r="M65" s="78"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B66" s="77"/>
-      <c r="C66" s="121" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" s="123" t="s">
-        <v>294</v>
-      </c>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123" t="s">
-        <v>295</v>
-      </c>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="J66" s="123"/>
-      <c r="K66" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="L66" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="M66" s="78"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B67" s="77"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="79" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="G67" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="H67" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="I67" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="J67" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="K67" s="122"/>
-      <c r="L67" s="122"/>
-      <c r="M67" s="78"/>
+    <row r="66" spans="2:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="84"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="87"/>
+    </row>
+    <row r="67" spans="2:13" s="131" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
+      <c r="G67" s="129"/>
+      <c r="H67" s="129"/>
+      <c r="I67" s="129"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="129"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="129"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B68" s="77"/>
-      <c r="C68" s="80">
-        <v>1</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E68" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="F68" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H68" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I68" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="J68" s="79">
-        <v>3</v>
-      </c>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81" t="s">
-        <v>351</v>
-      </c>
-      <c r="M68" s="78"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="76"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B69" s="77"/>
-      <c r="C69" s="80">
-        <v>2</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="E69" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="I69" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="J69" s="79">
-        <v>10</v>
-      </c>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
+      <c r="C69" s="123" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="124"/>
+      <c r="E69" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="129"/>
+      <c r="L69" s="129"/>
       <c r="M69" s="78"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B70" s="77"/>
-      <c r="C70" s="80">
-        <v>3</v>
-      </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
+      <c r="C70" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="D70" s="124"/>
+      <c r="E70" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="129"/>
+      <c r="L70" s="129"/>
       <c r="M70" s="78"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B71" s="77"/>
-      <c r="C71" s="80">
-        <v>4</v>
-      </c>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="129"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="129"/>
+      <c r="L71" s="129"/>
       <c r="M71" s="78"/>
     </row>
-    <row r="72" spans="2:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="84"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="86"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="87"/>
-    </row>
-    <row r="73" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="73"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="76"/>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B72" s="77"/>
+      <c r="C72" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="128" t="s">
+        <v>296</v>
+      </c>
+      <c r="J72" s="128"/>
+      <c r="K72" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="L72" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="M72" s="78"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B73" s="77"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="114" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="G73" s="114" t="s">
+        <v>302</v>
+      </c>
+      <c r="H73" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="I73" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="J73" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
+      <c r="M73" s="78"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B74" s="77"/>
+      <c r="C74" s="80">
+        <v>1</v>
+      </c>
+      <c r="D74" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74" s="114"/>
+      <c r="H74" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I74" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="J74" s="114"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="M74" s="78"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B75" s="77"/>
-      <c r="C75" s="116" t="s">
-        <v>291</v>
-      </c>
-      <c r="D75" s="117"/>
-      <c r="E75" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="119"/>
-      <c r="J75" s="120"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
+      <c r="C75" s="80">
+        <v>2</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I75" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="J75" s="114"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="81"/>
       <c r="M75" s="78"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B76" s="77"/>
-      <c r="C76" s="116" t="s">
-        <v>292</v>
-      </c>
-      <c r="D76" s="117"/>
-      <c r="E76" s="118" t="s">
-        <v>963</v>
-      </c>
-      <c r="F76" s="119"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="120"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
+      <c r="C76" s="80">
+        <v>3</v>
+      </c>
+      <c r="D76" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="F76" s="114"/>
+      <c r="G76" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I76" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="J76" s="114">
+        <v>5</v>
+      </c>
+      <c r="K76" s="81"/>
+      <c r="L76" s="88" t="s">
+        <v>352</v>
+      </c>
       <c r="M76" s="78"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B77" s="77"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
+      <c r="C77" s="80">
+        <v>4</v>
+      </c>
+      <c r="D77" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" s="88" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="114"/>
+      <c r="G77" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I77" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="J77" s="114">
+        <v>5</v>
+      </c>
+      <c r="K77" s="81"/>
+      <c r="L77" s="88" t="s">
+        <v>363</v>
+      </c>
       <c r="M77" s="78"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B78" s="77"/>
-      <c r="C78" s="121" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" s="123" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="123"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="J78" s="123"/>
-      <c r="K78" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="L78" s="121" t="s">
-        <v>298</v>
-      </c>
+      <c r="C78" s="80">
+        <v>5</v>
+      </c>
+      <c r="D78" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="F78" s="114"/>
+      <c r="G78" s="131"/>
+      <c r="H78" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I78" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="J78" s="114"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="81"/>
       <c r="M78" s="78"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B79" s="77"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="111" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="F79" s="111" t="s">
-        <v>301</v>
-      </c>
-      <c r="G79" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="H79" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="I79" s="111" t="s">
-        <v>304</v>
-      </c>
-      <c r="J79" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="K79" s="122"/>
-      <c r="L79" s="122"/>
+      <c r="C79" s="80">
+        <v>6</v>
+      </c>
+      <c r="D79" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="81" t="s">
+        <v>344</v>
+      </c>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I79" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="J79" s="114"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="81"/>
       <c r="M79" s="78"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B80" s="77"/>
       <c r="C80" s="80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>959</v>
+        <v>7</v>
+      </c>
+      <c r="D80" s="81" t="s">
+        <v>268</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>964</v>
-      </c>
-      <c r="F80" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="H80" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="I80" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="J80" s="111">
-        <v>2</v>
+        <v>346</v>
+      </c>
+      <c r="F80" s="114"/>
+      <c r="G80" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I80" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="J80" s="114">
+        <v>3</v>
       </c>
       <c r="K80" s="81"/>
-      <c r="L80" s="81" t="s">
-        <v>362</v>
+      <c r="L80" s="88" t="s">
+        <v>351</v>
       </c>
       <c r="M80" s="78"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B81" s="77"/>
       <c r="C81" s="80">
-        <v>2</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="F81" s="111"/>
-      <c r="G81" s="111"/>
-      <c r="H81" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="I81" s="88" t="s">
-        <v>962</v>
-      </c>
-      <c r="J81" s="111">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D81" s="88"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="114"/>
       <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
+      <c r="L81" s="82"/>
       <c r="M81" s="78"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B82" s="77"/>
       <c r="C82" s="80">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D82" s="81"/>
       <c r="E82" s="81"/>
-      <c r="F82" s="111"/>
-      <c r="G82" s="111"/>
-      <c r="H82" s="111"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
       <c r="I82" s="81"/>
-      <c r="J82" s="111"/>
+      <c r="J82" s="114"/>
       <c r="K82" s="81"/>
-      <c r="L82" s="81"/>
+      <c r="L82" s="83"/>
       <c r="M82" s="78"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B83" s="77"/>
       <c r="C83" s="80">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D83" s="81"/>
       <c r="E83" s="81"/>
-      <c r="F83" s="111"/>
-      <c r="G83" s="111"/>
-      <c r="H83" s="111"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
       <c r="I83" s="81"/>
-      <c r="J83" s="111"/>
+      <c r="J83" s="114"/>
       <c r="K83" s="81"/>
       <c r="L83" s="81"/>
       <c r="M83" s="78"/>
     </row>
-    <row r="84" spans="2:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B84" s="84"/>
       <c r="C84" s="85"/>
       <c r="D84" s="85"/>
@@ -9182,39 +9221,37 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L72:L73"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="C28:D28"/>
@@ -9224,14 +9261,16 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9243,8 +9282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2AA5EF-E9D7-46ED-AD7B-B086BE7AB8F6}">
   <dimension ref="B2:AH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9436,7 +9475,7 @@
       <c r="P4" s="13">
         <v>1</v>
       </c>
-      <c r="Q4" s="127">
+      <c r="Q4" s="118">
         <v>45575</v>
       </c>
       <c r="R4" s="13">
@@ -9469,7 +9508,7 @@
       <c r="AB4" s="13">
         <v>1540</v>
       </c>
-      <c r="AD4" s="126" t="s">
+      <c r="AD4" s="117" t="s">
         <v>1046</v>
       </c>
       <c r="AE4" s="13" t="s">
@@ -9525,7 +9564,7 @@
       <c r="P5" s="13">
         <v>2</v>
       </c>
-      <c r="Q5" s="127">
+      <c r="Q5" s="118">
         <v>45576</v>
       </c>
       <c r="R5" s="13">
@@ -9558,7 +9597,7 @@
       <c r="AB5" s="13">
         <v>1200</v>
       </c>
-      <c r="AD5" s="126" t="s">
+      <c r="AD5" s="117" t="s">
         <v>1047</v>
       </c>
       <c r="AE5" s="13" t="s">
@@ -9614,7 +9653,7 @@
       <c r="P6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="127">
+      <c r="Q6" s="118">
         <v>45577</v>
       </c>
       <c r="R6" s="13">
@@ -9647,7 +9686,7 @@
       <c r="AB6" s="13">
         <v>1300</v>
       </c>
-      <c r="AD6" s="126" t="s">
+      <c r="AD6" s="117" t="s">
         <v>1048</v>
       </c>
       <c r="AE6" s="13" t="s">
@@ -9703,7 +9742,7 @@
       <c r="P7" s="13">
         <v>4</v>
       </c>
-      <c r="Q7" s="127">
+      <c r="Q7" s="118">
         <v>45578</v>
       </c>
       <c r="R7" s="13">
@@ -9736,7 +9775,7 @@
       <c r="AB7" s="13">
         <v>900</v>
       </c>
-      <c r="AD7" s="125"/>
+      <c r="AD7" s="116"/>
       <c r="AG7" s="13">
         <v>15</v>
       </c>
@@ -9787,7 +9826,7 @@
       <c r="P8" s="13">
         <v>5</v>
       </c>
-      <c r="Q8" s="127">
+      <c r="Q8" s="118">
         <v>45579</v>
       </c>
       <c r="R8" s="13">
@@ -9820,7 +9859,7 @@
       <c r="AB8" s="13">
         <v>400</v>
       </c>
-      <c r="AD8" s="125"/>
+      <c r="AD8" s="116"/>
       <c r="AG8" s="13">
         <v>20</v>
       </c>
@@ -9871,7 +9910,7 @@
       <c r="P9" s="13">
         <v>6</v>
       </c>
-      <c r="Q9" s="127">
+      <c r="Q9" s="118">
         <v>45580</v>
       </c>
       <c r="R9" s="13">
@@ -9904,7 +9943,7 @@
       <c r="AB9" s="13">
         <v>500</v>
       </c>
-      <c r="AD9" s="125"/>
+      <c r="AD9" s="116"/>
       <c r="AG9" s="13">
         <v>21</v>
       </c>
@@ -9955,7 +9994,7 @@
       <c r="P10" s="13">
         <v>7</v>
       </c>
-      <c r="Q10" s="127">
+      <c r="Q10" s="118">
         <v>45581</v>
       </c>
       <c r="R10" s="13">
@@ -9988,7 +10027,7 @@
       <c r="AB10" s="13">
         <v>2500</v>
       </c>
-      <c r="AD10" s="125"/>
+      <c r="AD10" s="116"/>
       <c r="AG10" s="13">
         <v>22</v>
       </c>
@@ -10039,7 +10078,7 @@
       <c r="P11" s="13">
         <v>8</v>
       </c>
-      <c r="Q11" s="127">
+      <c r="Q11" s="118">
         <v>45582</v>
       </c>
       <c r="R11" s="13">
@@ -10072,7 +10111,7 @@
       <c r="AB11" s="13">
         <v>300</v>
       </c>
-      <c r="AD11" s="125"/>
+      <c r="AD11" s="116"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B12" s="100" t="s">
@@ -10117,7 +10156,7 @@
       <c r="P12" s="13">
         <v>9</v>
       </c>
-      <c r="Q12" s="127">
+      <c r="Q12" s="118">
         <v>45583</v>
       </c>
       <c r="R12" s="13">
@@ -10150,7 +10189,7 @@
       <c r="AB12" s="13">
         <v>1100</v>
       </c>
-      <c r="AD12" s="125"/>
+      <c r="AD12" s="116"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B13" s="100" t="s">
@@ -10195,7 +10234,7 @@
       <c r="P13" s="13">
         <v>10</v>
       </c>
-      <c r="Q13" s="127">
+      <c r="Q13" s="118">
         <v>45584</v>
       </c>
       <c r="R13" s="13">
@@ -10228,7 +10267,7 @@
       <c r="AB13" s="13">
         <v>150</v>
       </c>
-      <c r="AD13" s="125"/>
+      <c r="AD13" s="116"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B14" s="100" t="s">
@@ -10273,7 +10312,7 @@
       <c r="P14" s="13">
         <v>11</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="118">
         <v>45585</v>
       </c>
       <c r="R14" s="13">
@@ -10306,7 +10345,7 @@
       <c r="AB14" s="13">
         <v>1800</v>
       </c>
-      <c r="AD14" s="125"/>
+      <c r="AD14" s="116"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B15" s="100" t="s">
@@ -10351,7 +10390,7 @@
       <c r="P15" s="13">
         <v>12</v>
       </c>
-      <c r="Q15" s="127">
+      <c r="Q15" s="118">
         <v>45586</v>
       </c>
       <c r="R15" s="13">
@@ -10384,7 +10423,7 @@
       <c r="AB15" s="13">
         <v>2000</v>
       </c>
-      <c r="AD15" s="125"/>
+      <c r="AD15" s="116"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B16" s="100" t="s">
@@ -10429,7 +10468,7 @@
       <c r="P16" s="13">
         <v>13</v>
       </c>
-      <c r="Q16" s="127">
+      <c r="Q16" s="118">
         <v>45587</v>
       </c>
       <c r="R16" s="13">
@@ -10462,7 +10501,7 @@
       <c r="AB16" s="13">
         <v>1500</v>
       </c>
-      <c r="AD16" s="125"/>
+      <c r="AD16" s="116"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B17" s="100" t="s">
@@ -10507,7 +10546,7 @@
       <c r="P17" s="13">
         <v>14</v>
       </c>
-      <c r="Q17" s="127">
+      <c r="Q17" s="118">
         <v>45588</v>
       </c>
       <c r="R17" s="13">
@@ -10540,7 +10579,7 @@
       <c r="AB17" s="13">
         <v>600</v>
       </c>
-      <c r="AD17" s="125"/>
+      <c r="AD17" s="116"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B18" s="100" t="s">
@@ -10585,7 +10624,7 @@
       <c r="P18" s="13">
         <v>15</v>
       </c>
-      <c r="Q18" s="127">
+      <c r="Q18" s="118">
         <v>45589</v>
       </c>
       <c r="R18" s="13">
@@ -10618,7 +10657,7 @@
       <c r="AB18" s="13">
         <v>450</v>
       </c>
-      <c r="AD18" s="125"/>
+      <c r="AD18" s="116"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B19" s="100" t="s">
@@ -10663,7 +10702,7 @@
       <c r="P19" s="13">
         <v>16</v>
       </c>
-      <c r="Q19" s="127">
+      <c r="Q19" s="118">
         <v>45590</v>
       </c>
       <c r="R19" s="13">
@@ -10696,7 +10735,7 @@
       <c r="AB19" s="13">
         <v>550</v>
       </c>
-      <c r="AD19" s="125"/>
+      <c r="AD19" s="116"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B20" s="100" t="s">
@@ -10741,7 +10780,7 @@
       <c r="P20" s="13">
         <v>17</v>
       </c>
-      <c r="Q20" s="127">
+      <c r="Q20" s="118">
         <v>45591</v>
       </c>
       <c r="R20" s="13">
@@ -10774,7 +10813,7 @@
       <c r="AB20" s="13">
         <v>2800</v>
       </c>
-      <c r="AD20" s="125"/>
+      <c r="AD20" s="116"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B21" s="100" t="s">
@@ -10819,7 +10858,7 @@
       <c r="P21" s="13">
         <v>18</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="118">
         <v>45592</v>
       </c>
       <c r="R21" s="13">
@@ -10852,7 +10891,7 @@
       <c r="AB21" s="13">
         <v>350</v>
       </c>
-      <c r="AD21" s="125"/>
+      <c r="AD21" s="116"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B22" s="100" t="s">
@@ -10897,7 +10936,7 @@
       <c r="P22" s="13">
         <v>19</v>
       </c>
-      <c r="Q22" s="127">
+      <c r="Q22" s="118">
         <v>45593</v>
       </c>
       <c r="R22" s="13">
@@ -10930,7 +10969,7 @@
       <c r="AB22" s="13">
         <v>750</v>
       </c>
-      <c r="AD22" s="125"/>
+      <c r="AD22" s="116"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B23" s="100" t="s">
@@ -10975,7 +11014,7 @@
       <c r="P23" s="13">
         <v>20</v>
       </c>
-      <c r="Q23" s="127">
+      <c r="Q23" s="118">
         <v>45594</v>
       </c>
       <c r="R23" s="13">
@@ -11008,7 +11047,7 @@
       <c r="AB23" s="13">
         <v>850</v>
       </c>
-      <c r="AD23" s="125"/>
+      <c r="AD23" s="116"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B24" s="100" t="s">
@@ -11053,7 +11092,7 @@
       <c r="P24" s="13">
         <v>21</v>
       </c>
-      <c r="Q24" s="127">
+      <c r="Q24" s="118">
         <v>45595</v>
       </c>
       <c r="R24" s="13">
@@ -11130,7 +11169,7 @@
       <c r="P25" s="13">
         <v>22</v>
       </c>
-      <c r="Q25" s="127">
+      <c r="Q25" s="118">
         <v>45596</v>
       </c>
       <c r="R25" s="13">
@@ -11207,7 +11246,7 @@
       <c r="P26" s="13">
         <v>23</v>
       </c>
-      <c r="Q26" s="127">
+      <c r="Q26" s="118">
         <v>45597</v>
       </c>
       <c r="R26" s="13">
@@ -11284,7 +11323,7 @@
       <c r="P27" s="13">
         <v>24</v>
       </c>
-      <c r="Q27" s="127">
+      <c r="Q27" s="118">
         <v>45598</v>
       </c>
       <c r="R27" s="13">
@@ -11361,7 +11400,7 @@
       <c r="P28" s="13">
         <v>25</v>
       </c>
-      <c r="Q28" s="127">
+      <c r="Q28" s="118">
         <v>45599</v>
       </c>
       <c r="R28" s="13">
@@ -11438,7 +11477,7 @@
       <c r="P29" s="13">
         <v>26</v>
       </c>
-      <c r="Q29" s="127">
+      <c r="Q29" s="118">
         <v>45600</v>
       </c>
       <c r="R29" s="13">
@@ -11515,7 +11554,7 @@
       <c r="P30" s="13">
         <v>27</v>
       </c>
-      <c r="Q30" s="127">
+      <c r="Q30" s="118">
         <v>45601</v>
       </c>
       <c r="R30" s="13">
@@ -11592,7 +11631,7 @@
       <c r="P31" s="13">
         <v>28</v>
       </c>
-      <c r="Q31" s="127">
+      <c r="Q31" s="118">
         <v>45602</v>
       </c>
       <c r="R31" s="13">
@@ -11669,7 +11708,7 @@
       <c r="P32" s="13">
         <v>29</v>
       </c>
-      <c r="Q32" s="127">
+      <c r="Q32" s="118">
         <v>45603</v>
       </c>
       <c r="R32" s="13">
@@ -11746,7 +11785,7 @@
       <c r="P33" s="13">
         <v>30</v>
       </c>
-      <c r="Q33" s="127">
+      <c r="Q33" s="118">
         <v>45604</v>
       </c>
       <c r="R33" s="13">
@@ -11902,7 +11941,7 @@
       <c r="N36" s="109" t="s">
         <v>692</v>
       </c>
-      <c r="Q36" s="124"/>
+      <c r="Q36" s="115"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B37" s="95" t="s">
@@ -11944,7 +11983,7 @@
       <c r="N37" s="109" t="s">
         <v>701</v>
       </c>
-      <c r="Q37" s="124"/>
+      <c r="Q37" s="115"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B38" s="95" t="s">
@@ -11986,7 +12025,7 @@
       <c r="N38" s="109" t="s">
         <v>711</v>
       </c>
-      <c r="Q38" s="124"/>
+      <c r="Q38" s="115"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B39" s="95" t="s">
@@ -12028,7 +12067,7 @@
       <c r="N39" s="109" t="s">
         <v>722</v>
       </c>
-      <c r="Q39" s="124"/>
+      <c r="Q39" s="115"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B40" s="95" t="s">
@@ -12070,7 +12109,7 @@
       <c r="N40" s="109" t="s">
         <v>732</v>
       </c>
-      <c r="Q40" s="124"/>
+      <c r="Q40" s="115"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B41" s="95" t="s">
@@ -12112,7 +12151,7 @@
       <c r="N41" s="109" t="s">
         <v>741</v>
       </c>
-      <c r="Q41" s="124"/>
+      <c r="Q41" s="115"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B42" s="95" t="s">
@@ -12154,7 +12193,7 @@
       <c r="N42" s="109" t="s">
         <v>749</v>
       </c>
-      <c r="Q42" s="124"/>
+      <c r="Q42" s="115"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B43" s="95" t="s">
@@ -12196,7 +12235,7 @@
       <c r="N43" s="109" t="s">
         <v>758</v>
       </c>
-      <c r="Q43" s="124"/>
+      <c r="Q43" s="115"/>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B44" s="95" t="s">
@@ -12238,7 +12277,7 @@
       <c r="N44" s="109" t="s">
         <v>761</v>
       </c>
-      <c r="Q44" s="124"/>
+      <c r="Q44" s="115"/>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B45" s="95" t="s">
@@ -12280,7 +12319,7 @@
       <c r="N45" s="109" t="s">
         <v>764</v>
       </c>
-      <c r="Q45" s="124"/>
+      <c r="Q45" s="115"/>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B46" s="95" t="s">
@@ -12322,7 +12361,7 @@
       <c r="N46" s="109" t="s">
         <v>767</v>
       </c>
-      <c r="Q46" s="124"/>
+      <c r="Q46" s="115"/>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B47" s="95" t="s">
@@ -12364,7 +12403,7 @@
       <c r="N47" s="109" t="s">
         <v>770</v>
       </c>
-      <c r="Q47" s="124"/>
+      <c r="Q47" s="115"/>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B48" s="95" t="s">
@@ -12406,7 +12445,7 @@
       <c r="N48" s="109" t="s">
         <v>773</v>
       </c>
-      <c r="Q48" s="124"/>
+      <c r="Q48" s="115"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="95" t="s">
@@ -12448,7 +12487,7 @@
       <c r="N49" s="109" t="s">
         <v>776</v>
       </c>
-      <c r="Q49" s="124"/>
+      <c r="Q49" s="115"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" s="95" t="s">
@@ -12490,7 +12529,7 @@
       <c r="N50" s="109" t="s">
         <v>779</v>
       </c>
-      <c r="Q50" s="124"/>
+      <c r="Q50" s="115"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" s="95" t="s">
@@ -12532,7 +12571,7 @@
       <c r="N51" s="109" t="s">
         <v>782</v>
       </c>
-      <c r="Q51" s="124"/>
+      <c r="Q51" s="115"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" s="95" t="s">
@@ -12574,7 +12613,7 @@
       <c r="N52" s="109" t="s">
         <v>785</v>
       </c>
-      <c r="Q52" s="124"/>
+      <c r="Q52" s="115"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" s="95" t="s">
@@ -12616,7 +12655,7 @@
       <c r="N53" s="109" t="s">
         <v>788</v>
       </c>
-      <c r="Q53" s="124"/>
+      <c r="Q53" s="115"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" s="95" t="s">
@@ -12658,7 +12697,7 @@
       <c r="N54" s="109" t="s">
         <v>791</v>
       </c>
-      <c r="Q54" s="124"/>
+      <c r="Q54" s="115"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B55" s="95" t="s">
@@ -12700,7 +12739,7 @@
       <c r="N55" s="109" t="s">
         <v>794</v>
       </c>
-      <c r="Q55" s="124"/>
+      <c r="Q55" s="115"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" s="95" t="s">
@@ -12742,7 +12781,7 @@
       <c r="N56" s="109" t="s">
         <v>797</v>
       </c>
-      <c r="Q56" s="124"/>
+      <c r="Q56" s="115"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" s="95" t="s">
@@ -12784,7 +12823,7 @@
       <c r="N57" s="109" t="s">
         <v>800</v>
       </c>
-      <c r="Q57" s="124"/>
+      <c r="Q57" s="115"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" s="95" t="s">
@@ -12826,7 +12865,7 @@
       <c r="N58" s="109" t="s">
         <v>803</v>
       </c>
-      <c r="Q58" s="124"/>
+      <c r="Q58" s="115"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" s="95" t="s">
@@ -12868,7 +12907,7 @@
       <c r="N59" s="109" t="s">
         <v>806</v>
       </c>
-      <c r="Q59" s="124"/>
+      <c r="Q59" s="115"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" s="95" t="s">
@@ -12910,7 +12949,7 @@
       <c r="N60" s="109" t="s">
         <v>809</v>
       </c>
-      <c r="Q60" s="124"/>
+      <c r="Q60" s="115"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" s="95" t="s">
@@ -12952,7 +12991,7 @@
       <c r="N61" s="109" t="s">
         <v>812</v>
       </c>
-      <c r="Q61" s="124"/>
+      <c r="Q61" s="115"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B62" s="95" t="s">
@@ -12994,7 +13033,7 @@
       <c r="N62" s="109" t="s">
         <v>815</v>
       </c>
-      <c r="Q62" s="124"/>
+      <c r="Q62" s="115"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B63" s="95" t="s">
@@ -13036,7 +13075,7 @@
       <c r="N63" s="109" t="s">
         <v>818</v>
       </c>
-      <c r="Q63" s="124"/>
+      <c r="Q63" s="115"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B64" s="95" t="s">
@@ -13078,7 +13117,7 @@
       <c r="N64" s="109" t="s">
         <v>821</v>
       </c>
-      <c r="Q64" s="124"/>
+      <c r="Q64" s="115"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B65" s="95" t="s">
@@ -13120,7 +13159,7 @@
       <c r="N65" s="109" t="s">
         <v>824</v>
       </c>
-      <c r="Q65" s="124"/>
+      <c r="Q65" s="115"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" s="95" t="s">
@@ -16621,14 +16660,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39"/>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39"/>

--- a/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
+++ b/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE7799-37AA-4E11-84BB-C094C227B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099A5586-68E1-4024-95A3-15E0AEF9DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題5" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="テストデータ" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">テストデータ!$AG$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">テストデータ!$S$3:$T$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">課題4!$A$1:$J$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">課題5!$A$1:$E$40</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1082">
   <si>
     <t>課題4</t>
   </si>
@@ -4762,6 +4762,108 @@
   <si>
     <t>03</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(1,'2024/10/10','10001','a0001',1540,5,'02'),</t>
+  </si>
+  <si>
+    <t>(2,'2024/10/11','10002','a0002',1541,3,'01'),</t>
+  </si>
+  <si>
+    <t>(3,'2024/10/12','10003','b0003',1542,7,'01'),</t>
+  </si>
+  <si>
+    <t>(4,'2024/10/13','10004','c0004',1543,10,'02'),</t>
+  </si>
+  <si>
+    <t>(5,'2024/10/14','10005','d0005',1544,20,'03'),</t>
+  </si>
+  <si>
+    <t>(6,'2024/10/15','10006','e0006',1545,15,'02'),</t>
+  </si>
+  <si>
+    <t>(7,'2024/10/16','10007','f0007',1546,4,'01'),</t>
+  </si>
+  <si>
+    <t>(8,'2024/10/17','10008','g0008',1547,25,'01'),</t>
+  </si>
+  <si>
+    <t>(9,'2024/10/18','10009','h0009',1548,2,'01'),</t>
+  </si>
+  <si>
+    <t>(10,'2024/10/19','10010','i0010',1549,50,'01'),</t>
+  </si>
+  <si>
+    <t>(11,'2024/10/20','10011','j0011',1550,6,'01'),</t>
+  </si>
+  <si>
+    <t>(12,'2024/10/21','10012','k0012',1551,3,'02'),</t>
+  </si>
+  <si>
+    <t>(13,'2024/10/22','10013','l0013',1552,8,'02'),</t>
+  </si>
+  <si>
+    <t>(14,'2024/10/23','10014','m0014',1553,12,'02'),</t>
+  </si>
+  <si>
+    <t>(15,'2024/10/24','10015','n0015',1554,18,'03'),</t>
+  </si>
+  <si>
+    <t>(16,'2024/10/25','10016','o0016',1555,7,'03'),</t>
+  </si>
+  <si>
+    <t>(17,'2024/10/26','10017','p0017',1556,3,'03'),</t>
+  </si>
+  <si>
+    <t>(18,'2024/10/27','10018','q0018',1557,22,'03'),</t>
+  </si>
+  <si>
+    <t>(19,'2024/10/28','10019','r0019',1558,14,'02'),</t>
+  </si>
+  <si>
+    <t>(20,'2024/10/29','10020','s0020',1559,9,'01'),</t>
+  </si>
+  <si>
+    <t>(21,'2024/10/30','10021','t0021',1560,2,'03'),</t>
+  </si>
+  <si>
+    <t>(22,'2024/10/31','10022','u0022',1561,5,'02'),</t>
+  </si>
+  <si>
+    <t>(23,'2024/11/01','10023','v0023',1562,6,'03'),</t>
+  </si>
+  <si>
+    <t>(24,'2024/11/02','10024','w0024',1563,10,'02'),</t>
+  </si>
+  <si>
+    <t>(25,'2024/11/03','10025','x0025',1564,15,'01'),</t>
+  </si>
+  <si>
+    <t>(26,'2024/11/04','10026','y0026',1565,20,'01'),</t>
+  </si>
+  <si>
+    <t>(27,'2024/11/05','10027','z0027',1566,3,'01'),</t>
+  </si>
+  <si>
+    <t>(28,'2024/11/06','10028','a0028',1567,28,'01'),</t>
+  </si>
+  <si>
+    <t>(29,'2024/11/07','10029','b0029',1568,5,'01'),</t>
+  </si>
+  <si>
+    <t>(30,'2024/11/08','10030','c0030',1569,7,'02'),</t>
   </si>
 </sst>
 </file>
@@ -5196,7 +5298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5534,16 +5636,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5561,14 +5673,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7457,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E20C55-54EF-495E-B2C0-1D67D38AE4AA}">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7511,18 +7628,18 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="77"/>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
       <c r="K4" s="71"/>
       <c r="L4" s="71"/>
       <c r="M4" s="78"/>
@@ -7530,18 +7647,18 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="77"/>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
       <c r="K5" s="71"/>
       <c r="L5" s="71"/>
       <c r="M5" s="78"/>
@@ -7563,26 +7680,26 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="77"/>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="126" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128" t="s">
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="121" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="132" t="s">
         <v>298</v>
       </c>
       <c r="M7" s="78"/>
@@ -7590,7 +7707,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="77"/>
-      <c r="C8" s="122"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="79" t="s">
         <v>299</v>
       </c>
@@ -7612,8 +7729,8 @@
       <c r="J8" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
       <c r="M8" s="78"/>
       <c r="O8" s="17"/>
     </row>
@@ -8035,36 +8152,36 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="77"/>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="131"/>
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="77"/>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="127"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="131"/>
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
       <c r="M28" s="78"/>
@@ -8085,33 +8202,33 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="77"/>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="128" t="s">
+      <c r="D30" s="126" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128" t="s">
+      <c r="E30" s="126"/>
+      <c r="F30" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128" t="s">
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="J30" s="128"/>
-      <c r="K30" s="121" t="s">
+      <c r="J30" s="126"/>
+      <c r="K30" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="L30" s="121" t="s">
+      <c r="L30" s="132" t="s">
         <v>298</v>
       </c>
       <c r="M30" s="78"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="77"/>
-      <c r="C31" s="122"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="79" t="s">
         <v>299</v>
       </c>
@@ -8133,8 +8250,8 @@
       <c r="J31" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
       <c r="M31" s="78"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
@@ -8255,83 +8372,83 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="77"/>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="125" t="s">
+      <c r="D39" s="128"/>
+      <c r="E39" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
       <c r="M39" s="78"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="77"/>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="125" t="s">
+      <c r="D40" s="128"/>
+      <c r="E40" s="129" t="s">
         <v>963</v>
       </c>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
       <c r="M40" s="78"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="77"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
       <c r="M41" s="78"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="77"/>
-      <c r="C42" s="121" t="s">
+      <c r="C42" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="D42" s="128" t="s">
+      <c r="D42" s="126" t="s">
         <v>294</v>
       </c>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128" t="s">
+      <c r="E42" s="126"/>
+      <c r="F42" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128" t="s">
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="J42" s="128"/>
-      <c r="K42" s="121" t="s">
+      <c r="J42" s="126"/>
+      <c r="K42" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="L42" s="121" t="s">
+      <c r="L42" s="132" t="s">
         <v>298</v>
       </c>
       <c r="M42" s="78"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="77"/>
-      <c r="C43" s="122"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="114" t="s">
         <v>299</v>
       </c>
@@ -8353,8 +8470,8 @@
       <c r="J43" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
       <c r="M43" s="78"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
@@ -8371,7 +8488,7 @@
       <c r="F44" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="G44" s="131"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="114" t="s">
         <v>331</v>
       </c>
@@ -8460,18 +8577,18 @@
       <c r="M48" s="87"/>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
     </row>
     <row r="50" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="73"/>
@@ -8489,36 +8606,36 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="77"/>
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="124"/>
-      <c r="E51" s="125" t="s">
+      <c r="D51" s="128"/>
+      <c r="E51" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="127"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="131"/>
       <c r="K51" s="71"/>
       <c r="L51" s="71"/>
       <c r="M51" s="78"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="77"/>
-      <c r="C52" s="123" t="s">
+      <c r="C52" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="124"/>
-      <c r="E52" s="125" t="s">
+      <c r="D52" s="128"/>
+      <c r="E52" s="129" t="s">
         <v>354</v>
       </c>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="127"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="131"/>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
       <c r="M52" s="78"/>
@@ -8540,26 +8657,26 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="77"/>
-      <c r="C54" s="121" t="s">
+      <c r="C54" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="128" t="s">
+      <c r="D54" s="126" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128" t="s">
+      <c r="E54" s="126"/>
+      <c r="F54" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128" t="s">
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="J54" s="128"/>
-      <c r="K54" s="121" t="s">
+      <c r="J54" s="126"/>
+      <c r="K54" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="L54" s="121" t="s">
+      <c r="L54" s="132" t="s">
         <v>298</v>
       </c>
       <c r="M54" s="78"/>
@@ -8567,7 +8684,7 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="77"/>
-      <c r="C55" s="122"/>
+      <c r="C55" s="133"/>
       <c r="D55" s="79" t="s">
         <v>299</v>
       </c>
@@ -8589,8 +8706,8 @@
       <c r="J55" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="133"/>
       <c r="M55" s="78"/>
       <c r="N55" s="1"/>
     </row>
@@ -8703,7 +8820,7 @@
         <v>962</v>
       </c>
       <c r="J59" s="79">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K59" s="81"/>
       <c r="L59" s="81"/>
@@ -8835,19 +8952,19 @@
       <c r="L66" s="85"/>
       <c r="M66" s="87"/>
     </row>
-    <row r="67" spans="2:13" s="131" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="129"/>
-      <c r="C67" s="129"/>
-      <c r="D67" s="129"/>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="129"/>
-      <c r="H67" s="129"/>
-      <c r="I67" s="129"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="129"/>
-      <c r="L67" s="129"/>
-      <c r="M67" s="129"/>
+    <row r="67" spans="2:13" s="122" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="120"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B68" s="73"/>
@@ -8865,83 +8982,83 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B69" s="77"/>
-      <c r="C69" s="123" t="s">
+      <c r="C69" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="D69" s="124"/>
-      <c r="E69" s="125" t="s">
+      <c r="D69" s="128"/>
+      <c r="E69" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="129"/>
-      <c r="L69" s="129"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
       <c r="M69" s="78"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B70" s="77"/>
-      <c r="C70" s="123" t="s">
+      <c r="C70" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D70" s="124"/>
-      <c r="E70" s="125" t="s">
+      <c r="D70" s="128"/>
+      <c r="E70" s="129" t="s">
         <v>353</v>
       </c>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="129"/>
-      <c r="L70" s="129"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
       <c r="M70" s="78"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B71" s="77"/>
-      <c r="C71" s="129"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-      <c r="F71" s="129"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="129"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="129"/>
-      <c r="L71" s="129"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="121"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
       <c r="M71" s="78"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B72" s="77"/>
-      <c r="C72" s="121" t="s">
+      <c r="C72" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="128" t="s">
+      <c r="D72" s="126" t="s">
         <v>294</v>
       </c>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128" t="s">
+      <c r="E72" s="126"/>
+      <c r="F72" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="128"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="128" t="s">
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="J72" s="128"/>
-      <c r="K72" s="121" t="s">
+      <c r="J72" s="126"/>
+      <c r="K72" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="L72" s="121" t="s">
+      <c r="L72" s="132" t="s">
         <v>298</v>
       </c>
       <c r="M72" s="78"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B73" s="77"/>
-      <c r="C73" s="122"/>
+      <c r="C73" s="133"/>
       <c r="D73" s="114" t="s">
         <v>299</v>
       </c>
@@ -8963,8 +9080,8 @@
       <c r="J73" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="K73" s="122"/>
-      <c r="L73" s="122"/>
+      <c r="K73" s="133"/>
+      <c r="L73" s="133"/>
       <c r="M73" s="78"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.4">
@@ -9091,7 +9208,7 @@
         <v>343</v>
       </c>
       <c r="F78" s="114"/>
-      <c r="G78" s="131"/>
+      <c r="G78" s="122"/>
       <c r="H78" s="38" t="s">
         <v>332</v>
       </c>
@@ -9165,7 +9282,7 @@
       <c r="D81" s="88"/>
       <c r="E81" s="81"/>
       <c r="F81" s="114"/>
-      <c r="G81" s="131"/>
+      <c r="G81" s="122"/>
       <c r="H81" s="114"/>
       <c r="I81" s="81"/>
       <c r="J81" s="114"/>
@@ -9252,14 +9369,6 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
@@ -9271,6 +9380,14 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9280,10 +9397,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2AA5EF-E9D7-46ED-AD7B-B086BE7AB8F6}">
-  <dimension ref="B2:AH86"/>
+  <dimension ref="B2:AS86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9303,47 +9420,59 @@
     <col min="13" max="13" width="5.625" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="93" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.125" customWidth="1"/>
-    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.5" customWidth="1"/>
-    <col min="24" max="24" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.125" customWidth="1"/>
-    <col min="30" max="30" width="8.25" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.25" customWidth="1"/>
-    <col min="33" max="33" width="6.5" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.25" customWidth="1"/>
-    <col min="36" max="77" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.25" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.25" customWidth="1"/>
+    <col min="19" max="19" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" customWidth="1"/>
+    <col min="22" max="22" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.25" customWidth="1"/>
+    <col min="28" max="28" width="2.25" customWidth="1"/>
+    <col min="29" max="29" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.125" customWidth="1"/>
+    <col min="37" max="37" width="8.25" customWidth="1"/>
+    <col min="38" max="38" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="8" customWidth="1"/>
+    <col min="43" max="43" width="8" style="135" customWidth="1"/>
+    <col min="44" max="44" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="81" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="S2" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AC2" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AD2" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE2" s="12"/>
-      <c r="AG2" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AK2" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="94" t="s">
         <v>3</v>
       </c>
@@ -9384,55 +9513,63 @@
         <v>269</v>
       </c>
       <c r="P3" s="112" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q3" s="112" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="119" t="s">
         <v>971</v>
       </c>
-      <c r="Q3" s="112" t="s">
+      <c r="AD3" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="R3" s="112" t="s">
+      <c r="AE3" s="112" t="s">
         <v>972</v>
       </c>
-      <c r="S3" s="112" t="s">
+      <c r="AF3" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="T3" s="112" t="s">
+      <c r="AG3" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="U3" s="112" t="s">
+      <c r="AH3" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="V3" s="112" t="s">
+      <c r="AI3" s="112" t="s">
         <v>973</v>
       </c>
-      <c r="X3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="112" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AE3" s="112" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="AK3" s="63" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AQ3" s="106"/>
+    </row>
+    <row r="4" spans="2:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="99" t="s">
         <v>929</v>
       </c>
@@ -9472,56 +9609,93 @@
       <c r="N4" s="108">
         <v>1200</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="117" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S4" s="13">
+        <v>11</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="W4" s="13">
+        <v>11</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>1540</v>
+      </c>
+      <c r="AA4" s="123">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="13">
         <v>1</v>
       </c>
-      <c r="Q4" s="118">
+      <c r="AD4" s="118">
         <v>45575</v>
       </c>
-      <c r="R4" s="13">
+      <c r="AE4" s="13">
         <v>10001</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="AF4" s="13" t="s">
         <v>974</v>
       </c>
-      <c r="T4" s="13">
+      <c r="AG4" s="13">
         <v>1540</v>
       </c>
-      <c r="U4" s="13">
+      <c r="AH4" s="13">
         <v>5</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="AI4" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X4" s="13" t="s">
-        <v>974</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="AB4" s="13">
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="115" t="str">
+        <f>_xlfn.CONCAT("'",TEXT(AD4,"yyyy/MM/dd"),"'")</f>
+        <v>'2024/10/10'</v>
+      </c>
+      <c r="AM4" t="str">
+        <f>_xlfn.CONCAT("'",AE4,"'")</f>
+        <v>'10001'</v>
+      </c>
+      <c r="AN4" t="str">
+        <f>_xlfn.CONCAT("'",AF4,"'")</f>
+        <v>'a0001'</v>
+      </c>
+      <c r="AO4">
         <v>1540</v>
       </c>
-      <c r="AD4" s="117" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AP4">
+        <f>AH4</f>
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="136" t="str">
+        <f>_xlfn.CONCAT("'",AI4,"'")</f>
+        <v>'02'</v>
+      </c>
+      <c r="AR4" t="str">
+        <f>_xlfn.CONCAT($AK$2,AK4,$AK$3,AL4,$AK$3,AM4,$AK$3,AN4,$AK$3,AO4,$AK$3,AP4,$AK$3,AQ4,$AL$2,$AK$3)</f>
+        <v>(1,'2024/10/10','10001','a0001',1540,5,'02'),</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B5" s="100" t="s">
         <v>930</v>
       </c>
@@ -9561,56 +9735,93 @@
       <c r="N5" s="109">
         <v>350</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="117" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S5" s="13">
+        <v>12</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="W5" s="13">
+        <v>13</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AA5" s="123">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="13">
         <v>2</v>
       </c>
-      <c r="Q5" s="118">
+      <c r="AD5" s="118">
         <v>45576</v>
       </c>
-      <c r="R5" s="13">
+      <c r="AE5" s="13">
         <v>10002</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="AF5" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="T5" s="13">
+      <c r="AG5" s="13">
         <v>1200</v>
       </c>
-      <c r="U5" s="13">
+      <c r="AH5" s="13">
         <v>3</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="AI5" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X5" s="13" t="s">
-        <v>977</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>1200</v>
-      </c>
-      <c r="AD5" s="117" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>12</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="115" t="str">
+        <f t="shared" ref="AL5:AL33" si="0">_xlfn.CONCAT("'",TEXT(AD5,"yyyy/MM/dd"),"'")</f>
+        <v>'2024/10/11'</v>
+      </c>
+      <c r="AM5" t="str">
+        <f t="shared" ref="AM5:AM33" si="1">_xlfn.CONCAT("'",AE5,"'")</f>
+        <v>'10002'</v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" ref="AN5:AN33" si="2">_xlfn.CONCAT("'",AF5,"'")</f>
+        <v>'a0002'</v>
+      </c>
+      <c r="AO5">
+        <v>1541</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ref="AP5:AP33" si="3">AH5</f>
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="136" t="str">
+        <f t="shared" ref="AQ5:AQ33" si="4">_xlfn.CONCAT("'",AI5,"'")</f>
+        <v>'01'</v>
+      </c>
+      <c r="AR5" t="str">
+        <f t="shared" ref="AR5:AR33" si="5">_xlfn.CONCAT($AK$2,AK5,$AK$3,AL5,$AK$3,AM5,$AK$3,AN5,$AK$3,AO5,$AK$3,AP5,$AK$3,AQ5,$AL$2,$AK$3)</f>
+        <v>(2,'2024/10/11','10002','a0002',1541,3,'01'),</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B6" s="100" t="s">
         <v>931</v>
       </c>
@@ -9650,56 +9861,93 @@
       <c r="N6" s="109">
         <v>5000</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="117" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S6" s="13">
+        <v>13</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="W6" s="13">
+        <v>13</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="AA6" s="123">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="118">
+      <c r="AD6" s="118">
         <v>45577</v>
       </c>
-      <c r="R6" s="13">
+      <c r="AE6" s="13">
         <v>10003</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="AF6" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="T6" s="13">
+      <c r="AG6" s="13">
         <v>1300</v>
       </c>
-      <c r="U6" s="13">
+      <c r="AH6" s="13">
         <v>7</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="AI6" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X6" s="13" t="s">
-        <v>978</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>1300</v>
-      </c>
-      <c r="AD6" s="117" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AG6" s="13">
-        <v>13</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK6">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/12'</v>
+      </c>
+      <c r="AM6" t="str">
+        <f t="shared" si="1"/>
+        <v>'10003'</v>
+      </c>
+      <c r="AN6" t="str">
+        <f t="shared" si="2"/>
+        <v>'b0003'</v>
+      </c>
+      <c r="AO6">
+        <v>1542</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR6" t="str">
+        <f t="shared" si="5"/>
+        <v>(3,'2024/10/12','10003','b0003',1542,7,'01'),</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B7" s="100" t="s">
         <v>932</v>
       </c>
@@ -9739,51 +9987,88 @@
       <c r="N7" s="109">
         <v>4200</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="116"/>
+      <c r="S7" s="13">
+        <v>15</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="W7" s="13">
+        <v>21</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>900</v>
+      </c>
+      <c r="AA7" s="123">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="13">
         <v>4</v>
       </c>
-      <c r="Q7" s="118">
+      <c r="AD7" s="118">
         <v>45578</v>
       </c>
-      <c r="R7" s="13">
+      <c r="AE7" s="13">
         <v>10004</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="AF7" s="13" t="s">
         <v>979</v>
       </c>
-      <c r="T7" s="13">
+      <c r="AG7" s="13">
         <v>900</v>
       </c>
-      <c r="U7" s="13">
+      <c r="AH7" s="13">
         <v>10</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="AI7" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X7" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>900</v>
-      </c>
-      <c r="AD7" s="116"/>
-      <c r="AG7" s="13">
-        <v>15</v>
-      </c>
-      <c r="AH7" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK7">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/13'</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="1"/>
+        <v>'10004'</v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="2"/>
+        <v>'c0004'</v>
+      </c>
+      <c r="AO7">
+        <v>1543</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR7" t="str">
+        <f t="shared" si="5"/>
+        <v>(4,'2024/10/13','10004','c0004',1543,10,'02'),</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B8" s="100" t="s">
         <v>933</v>
       </c>
@@ -9823,51 +10108,88 @@
       <c r="N8" s="109">
         <v>850</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="116"/>
+      <c r="S8" s="13">
+        <v>20</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="W8" s="13">
+        <v>22</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="123">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="13">
         <v>5</v>
       </c>
-      <c r="Q8" s="118">
+      <c r="AD8" s="118">
         <v>45579</v>
       </c>
-      <c r="R8" s="13">
+      <c r="AE8" s="13">
         <v>10005</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="T8" s="13">
+      <c r="AG8" s="13">
         <v>400</v>
       </c>
-      <c r="U8" s="13">
+      <c r="AH8" s="13">
         <v>20</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="AI8" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X8" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>400</v>
-      </c>
-      <c r="AD8" s="116"/>
-      <c r="AG8" s="13">
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/14'</v>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="1"/>
+        <v>'10005'</v>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="2"/>
+        <v>'d0005'</v>
+      </c>
+      <c r="AO8">
+        <v>1544</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AH8" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AQ8" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR8" t="str">
+        <f t="shared" si="5"/>
+        <v>(5,'2024/10/14','10005','d0005',1544,20,'03'),</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B9" s="100" t="s">
         <v>934</v>
       </c>
@@ -9907,51 +10229,88 @@
       <c r="N9" s="109">
         <v>2900</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="116"/>
+      <c r="S9" s="13">
+        <v>21</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="W9" s="13">
+        <v>12</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>500</v>
+      </c>
+      <c r="AA9" s="123">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="13">
         <v>6</v>
       </c>
-      <c r="Q9" s="118">
+      <c r="AD9" s="118">
         <v>45580</v>
       </c>
-      <c r="R9" s="13">
+      <c r="AE9" s="13">
         <v>10006</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="AF9" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="T9" s="13">
+      <c r="AG9" s="13">
         <v>500</v>
       </c>
-      <c r="U9" s="13">
+      <c r="AH9" s="13">
         <v>15</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="AI9" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X9" s="13" t="s">
-        <v>981</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB9" s="13">
-        <v>500</v>
-      </c>
-      <c r="AD9" s="116"/>
-      <c r="AG9" s="13">
-        <v>21</v>
-      </c>
-      <c r="AH9" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK9">
+        <v>6</v>
+      </c>
+      <c r="AL9" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/15'</v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="1"/>
+        <v>'10006'</v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="2"/>
+        <v>'e0006'</v>
+      </c>
+      <c r="AO9">
+        <v>1545</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AQ9" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR9" t="str">
+        <f t="shared" si="5"/>
+        <v>(6,'2024/10/15','10006','e0006',1545,15,'02'),</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B10" s="100" t="s">
         <v>935</v>
       </c>
@@ -9991,51 +10350,88 @@
       <c r="N10" s="109">
         <v>420</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="116"/>
+      <c r="S10" s="13">
+        <v>22</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="W10" s="13">
+        <v>15</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>2500</v>
+      </c>
+      <c r="AA10" s="123">
+        <v>26</v>
+      </c>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="13">
         <v>7</v>
       </c>
-      <c r="Q10" s="118">
+      <c r="AD10" s="118">
         <v>45581</v>
       </c>
-      <c r="R10" s="13">
+      <c r="AE10" s="13">
         <v>10007</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="AF10" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="T10" s="13">
+      <c r="AG10" s="13">
         <v>2500</v>
       </c>
-      <c r="U10" s="13">
+      <c r="AH10" s="13">
         <v>4</v>
       </c>
-      <c r="V10" s="35" t="s">
+      <c r="AI10" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X10" s="13" t="s">
-        <v>982</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>2500</v>
-      </c>
-      <c r="AD10" s="116"/>
-      <c r="AG10" s="13">
-        <v>22</v>
-      </c>
-      <c r="AH10" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK10">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/16'</v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="1"/>
+        <v>'10007'</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="2"/>
+        <v>'f0007'</v>
+      </c>
+      <c r="AO10">
+        <v>1546</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR10" t="str">
+        <f t="shared" si="5"/>
+        <v>(7,'2024/10/16','10007','f0007',1546,4,'01'),</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B11" s="100" t="s">
         <v>936</v>
       </c>
@@ -10075,45 +10471,81 @@
       <c r="N11" s="109">
         <v>2300</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="116"/>
+      <c r="V11" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="W11" s="13">
+        <v>20</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>300</v>
+      </c>
+      <c r="AA11" s="123">
+        <v>27</v>
+      </c>
+      <c r="AC11" s="13">
         <v>8</v>
       </c>
-      <c r="Q11" s="118">
+      <c r="AD11" s="118">
         <v>45582</v>
       </c>
-      <c r="R11" s="13">
+      <c r="AE11" s="13">
         <v>10008</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="AF11" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="T11" s="13">
+      <c r="AG11" s="13">
         <v>300</v>
       </c>
-      <c r="U11" s="13">
+      <c r="AH11" s="13">
         <v>25</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="AI11" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>983</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>300</v>
-      </c>
-      <c r="AD11" s="116"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK11">
+        <v>8</v>
+      </c>
+      <c r="AL11" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/17'</v>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="1"/>
+        <v>'10008'</v>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="2"/>
+        <v>'g0008'</v>
+      </c>
+      <c r="AO11">
+        <v>1547</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AQ11" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR11" t="str">
+        <f t="shared" si="5"/>
+        <v>(8,'2024/10/17','10008','g0008',1547,25,'01'),</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B12" s="100" t="s">
         <v>937</v>
       </c>
@@ -10153,45 +10585,81 @@
       <c r="N12" s="109">
         <v>800</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="116"/>
+      <c r="V12" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="W12" s="13">
+        <v>13</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>1100</v>
+      </c>
+      <c r="AA12" s="123">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="13">
         <v>9</v>
       </c>
-      <c r="Q12" s="118">
+      <c r="AD12" s="118">
         <v>45583</v>
       </c>
-      <c r="R12" s="13">
+      <c r="AE12" s="13">
         <v>10009</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="AF12" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="T12" s="13">
+      <c r="AG12" s="13">
         <v>1100</v>
       </c>
-      <c r="U12" s="13">
+      <c r="AH12" s="13">
         <v>2</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="AI12" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>1100</v>
-      </c>
-      <c r="AD12" s="116"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK12">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/18'</v>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="1"/>
+        <v>'10009'</v>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="2"/>
+        <v>'h0009'</v>
+      </c>
+      <c r="AO12">
+        <v>1548</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR12" t="str">
+        <f t="shared" si="5"/>
+        <v>(9,'2024/10/18','10009','h0009',1548,2,'01'),</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B13" s="100" t="s">
         <v>938</v>
       </c>
@@ -10231,45 +10699,81 @@
       <c r="N13" s="109">
         <v>4600</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="116"/>
+      <c r="V13" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="W13" s="13">
+        <v>13</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>150</v>
+      </c>
+      <c r="AA13" s="123">
+        <v>29</v>
+      </c>
+      <c r="AC13" s="13">
         <v>10</v>
       </c>
-      <c r="Q13" s="118">
+      <c r="AD13" s="118">
         <v>45584</v>
       </c>
-      <c r="R13" s="13">
+      <c r="AE13" s="13">
         <v>10010</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="AF13" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="T13" s="13">
+      <c r="AG13" s="13">
         <v>150</v>
       </c>
-      <c r="U13" s="13">
+      <c r="AH13" s="13">
         <v>50</v>
       </c>
-      <c r="V13" s="35" t="s">
+      <c r="AI13" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X13" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>150</v>
-      </c>
-      <c r="AD13" s="116"/>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK13">
+        <v>10</v>
+      </c>
+      <c r="AL13" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/19'</v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="1"/>
+        <v>'10010'</v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="2"/>
+        <v>'i0010'</v>
+      </c>
+      <c r="AO13">
+        <v>1549</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AQ13" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR13" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,'2024/10/19','10010','i0010',1549,50,'01'),</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B14" s="100" t="s">
         <v>939</v>
       </c>
@@ -10309,45 +10813,81 @@
       <c r="N14" s="109">
         <v>1500</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="116"/>
+      <c r="V14" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="W14" s="13">
         <v>11</v>
       </c>
-      <c r="Q14" s="118">
+      <c r="X14" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>1800</v>
+      </c>
+      <c r="AA14" s="123">
+        <v>30</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="118">
         <v>45585</v>
       </c>
-      <c r="R14" s="13">
+      <c r="AE14" s="13">
         <v>10011</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="AF14" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="T14" s="13">
+      <c r="AG14" s="13">
         <v>1800</v>
       </c>
-      <c r="U14" s="13">
+      <c r="AH14" s="13">
         <v>6</v>
       </c>
-      <c r="V14" s="35" t="s">
+      <c r="AI14" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X14" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="Y14" s="13">
+      <c r="AK14">
         <v>11</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>1800</v>
-      </c>
-      <c r="AD14" s="116"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AL14" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/20'</v>
+      </c>
+      <c r="AM14" t="str">
+        <f t="shared" si="1"/>
+        <v>'10011'</v>
+      </c>
+      <c r="AN14" t="str">
+        <f t="shared" si="2"/>
+        <v>'j0011'</v>
+      </c>
+      <c r="AO14">
+        <v>1550</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AQ14" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR14" t="str">
+        <f t="shared" si="5"/>
+        <v>(11,'2024/10/20','10011','j0011',1550,6,'01'),</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B15" s="100" t="s">
         <v>940</v>
       </c>
@@ -10387,45 +10927,81 @@
       <c r="N15" s="109">
         <v>990</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="116"/>
+      <c r="V15" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="W15" s="13">
+        <v>13</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>2000</v>
+      </c>
+      <c r="AA15" s="123">
+        <v>31</v>
+      </c>
+      <c r="AC15" s="13">
         <v>12</v>
       </c>
-      <c r="Q15" s="118">
+      <c r="AD15" s="118">
         <v>45586</v>
       </c>
-      <c r="R15" s="13">
+      <c r="AE15" s="13">
         <v>10012</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="AF15" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="T15" s="13">
+      <c r="AG15" s="13">
         <v>2000</v>
       </c>
-      <c r="U15" s="13">
+      <c r="AH15" s="13">
         <v>3</v>
       </c>
-      <c r="V15" s="35" t="s">
+      <c r="AI15" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X15" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>2000</v>
-      </c>
-      <c r="AD15" s="116"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="AK15">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/21'</v>
+      </c>
+      <c r="AM15" t="str">
+        <f t="shared" si="1"/>
+        <v>'10012'</v>
+      </c>
+      <c r="AN15" t="str">
+        <f t="shared" si="2"/>
+        <v>'k0012'</v>
+      </c>
+      <c r="AO15">
+        <v>1551</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR15" t="str">
+        <f t="shared" si="5"/>
+        <v>(12,'2024/10/21','10012','k0012',1551,3,'02'),</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B16" s="100" t="s">
         <v>941</v>
       </c>
@@ -10465,45 +11041,81 @@
       <c r="N16" s="109">
         <v>3000</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="116"/>
+      <c r="V16" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="W16" s="13">
         <v>13</v>
       </c>
-      <c r="Q16" s="118">
+      <c r="X16" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>1500</v>
+      </c>
+      <c r="AA16" s="123">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="118">
         <v>45587</v>
       </c>
-      <c r="R16" s="13">
+      <c r="AE16" s="13">
         <v>10013</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="AF16" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="T16" s="13">
+      <c r="AG16" s="13">
         <v>1500</v>
       </c>
-      <c r="U16" s="13">
+      <c r="AH16" s="13">
         <v>8</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="AI16" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X16" s="13" t="s">
-        <v>992</v>
-      </c>
-      <c r="Y16" s="13">
+      <c r="AK16">
         <v>13</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>994</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>1500</v>
-      </c>
-      <c r="AD16" s="116"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AL16" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/22'</v>
+      </c>
+      <c r="AM16" t="str">
+        <f t="shared" si="1"/>
+        <v>'10013'</v>
+      </c>
+      <c r="AN16" t="str">
+        <f t="shared" si="2"/>
+        <v>'l0013'</v>
+      </c>
+      <c r="AO16">
+        <v>1552</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AQ16" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR16" t="str">
+        <f t="shared" si="5"/>
+        <v>(13,'2024/10/22','10013','l0013',1552,8,'02'),</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B17" s="100" t="s">
         <v>942</v>
       </c>
@@ -10543,45 +11155,81 @@
       <c r="N17" s="109">
         <v>470</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="116"/>
+      <c r="V17" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="W17" s="13">
+        <v>21</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="123">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="13">
         <v>14</v>
       </c>
-      <c r="Q17" s="118">
+      <c r="AD17" s="118">
         <v>45588</v>
       </c>
-      <c r="R17" s="13">
+      <c r="AE17" s="13">
         <v>10014</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="AF17" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="T17" s="13">
+      <c r="AG17" s="13">
         <v>600</v>
       </c>
-      <c r="U17" s="13">
+      <c r="AH17" s="13">
         <v>12</v>
       </c>
-      <c r="V17" s="35" t="s">
+      <c r="AI17" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X17" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB17" s="13">
-        <v>600</v>
-      </c>
-      <c r="AD17" s="116"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK17">
+        <v>14</v>
+      </c>
+      <c r="AL17" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/23'</v>
+      </c>
+      <c r="AM17" t="str">
+        <f t="shared" si="1"/>
+        <v>'10014'</v>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" si="2"/>
+        <v>'m0014'</v>
+      </c>
+      <c r="AO17">
+        <v>1553</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AQ17" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR17" t="str">
+        <f t="shared" si="5"/>
+        <v>(14,'2024/10/23','10014','m0014',1553,12,'02'),</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B18" s="100" t="s">
         <v>943</v>
       </c>
@@ -10621,45 +11269,81 @@
       <c r="N18" s="109">
         <v>5200</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="116"/>
+      <c r="V18" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="W18" s="13">
+        <v>22</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>450</v>
+      </c>
+      <c r="AA18" s="123">
+        <v>34</v>
+      </c>
+      <c r="AC18" s="13">
         <v>15</v>
       </c>
-      <c r="Q18" s="118">
+      <c r="AD18" s="118">
         <v>45589</v>
       </c>
-      <c r="R18" s="13">
+      <c r="AE18" s="13">
         <v>10015</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="AF18" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="T18" s="13">
+      <c r="AG18" s="13">
         <v>450</v>
       </c>
-      <c r="U18" s="13">
+      <c r="AH18" s="13">
         <v>18</v>
       </c>
-      <c r="V18" s="35" t="s">
+      <c r="AI18" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>998</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>450</v>
-      </c>
-      <c r="AD18" s="116"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK18">
+        <v>15</v>
+      </c>
+      <c r="AL18" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/24'</v>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="1"/>
+        <v>'10015'</v>
+      </c>
+      <c r="AN18" t="str">
+        <f t="shared" si="2"/>
+        <v>'n0015'</v>
+      </c>
+      <c r="AO18">
+        <v>1554</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AQ18" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR18" t="str">
+        <f t="shared" si="5"/>
+        <v>(15,'2024/10/24','10015','n0015',1554,18,'03'),</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B19" s="100" t="s">
         <v>944</v>
       </c>
@@ -10699,45 +11383,81 @@
       <c r="N19" s="109">
         <v>800</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="116"/>
+      <c r="V19" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="W19" s="13">
+        <v>12</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Y19" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>550</v>
+      </c>
+      <c r="AA19" s="123">
+        <v>35</v>
+      </c>
+      <c r="AC19" s="13">
         <v>16</v>
       </c>
-      <c r="Q19" s="118">
+      <c r="AD19" s="118">
         <v>45590</v>
       </c>
-      <c r="R19" s="13">
+      <c r="AE19" s="13">
         <v>10016</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="AF19" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="T19" s="13">
+      <c r="AG19" s="13">
         <v>550</v>
       </c>
-      <c r="U19" s="13">
+      <c r="AH19" s="13">
         <v>7</v>
       </c>
-      <c r="V19" s="35" t="s">
+      <c r="AI19" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X19" s="13" t="s">
-        <v>999</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AB19" s="13">
-        <v>550</v>
-      </c>
-      <c r="AD19" s="116"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK19">
+        <v>16</v>
+      </c>
+      <c r="AL19" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/25'</v>
+      </c>
+      <c r="AM19" t="str">
+        <f t="shared" si="1"/>
+        <v>'10016'</v>
+      </c>
+      <c r="AN19" t="str">
+        <f t="shared" si="2"/>
+        <v>'o0016'</v>
+      </c>
+      <c r="AO19">
+        <v>1555</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AQ19" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR19" t="str">
+        <f t="shared" si="5"/>
+        <v>(16,'2024/10/25','10016','o0016',1555,7,'03'),</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B20" s="100" t="s">
         <v>945</v>
       </c>
@@ -10777,45 +11497,81 @@
       <c r="N20" s="109">
         <v>1600</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="116"/>
+      <c r="V20" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="W20" s="13">
+        <v>15</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>2800</v>
+      </c>
+      <c r="AA20" s="123">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="13">
         <v>17</v>
       </c>
-      <c r="Q20" s="118">
+      <c r="AD20" s="118">
         <v>45591</v>
       </c>
-      <c r="R20" s="13">
+      <c r="AE20" s="13">
         <v>10017</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="AF20" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="T20" s="13">
+      <c r="AG20" s="13">
         <v>2800</v>
       </c>
-      <c r="U20" s="13">
+      <c r="AH20" s="13">
         <v>3</v>
       </c>
-      <c r="V20" s="35" t="s">
+      <c r="AI20" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X20" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>2800</v>
-      </c>
-      <c r="AD20" s="116"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK20">
+        <v>17</v>
+      </c>
+      <c r="AL20" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/26'</v>
+      </c>
+      <c r="AM20" t="str">
+        <f t="shared" si="1"/>
+        <v>'10017'</v>
+      </c>
+      <c r="AN20" t="str">
+        <f t="shared" si="2"/>
+        <v>'p0017'</v>
+      </c>
+      <c r="AO20">
+        <v>1556</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR20" t="str">
+        <f t="shared" si="5"/>
+        <v>(17,'2024/10/26','10017','p0017',1556,3,'03'),</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B21" s="100" t="s">
         <v>946</v>
       </c>
@@ -10855,45 +11611,81 @@
       <c r="N21" s="109">
         <v>2400</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="116"/>
+      <c r="V21" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="W21" s="13">
+        <v>20</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>350</v>
+      </c>
+      <c r="AA21" s="123">
+        <v>37</v>
+      </c>
+      <c r="AC21" s="13">
         <v>18</v>
       </c>
-      <c r="Q21" s="118">
+      <c r="AD21" s="118">
         <v>45592</v>
       </c>
-      <c r="R21" s="13">
+      <c r="AE21" s="13">
         <v>10018</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="AF21" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="T21" s="13">
+      <c r="AG21" s="13">
         <v>350</v>
       </c>
-      <c r="U21" s="13">
+      <c r="AH21" s="13">
         <v>22</v>
       </c>
-      <c r="V21" s="35" t="s">
+      <c r="AI21" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X21" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Y21" s="13">
-        <v>20</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AA21" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AB21" s="13">
-        <v>350</v>
-      </c>
-      <c r="AD21" s="116"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK21">
+        <v>18</v>
+      </c>
+      <c r="AL21" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/27'</v>
+      </c>
+      <c r="AM21" t="str">
+        <f t="shared" si="1"/>
+        <v>'10018'</v>
+      </c>
+      <c r="AN21" t="str">
+        <f t="shared" si="2"/>
+        <v>'q0018'</v>
+      </c>
+      <c r="AO21">
+        <v>1557</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AQ21" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR21" t="str">
+        <f t="shared" si="5"/>
+        <v>(18,'2024/10/27','10018','q0018',1557,22,'03'),</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B22" s="100" t="s">
         <v>947</v>
       </c>
@@ -10933,45 +11725,81 @@
       <c r="N22" s="109">
         <v>920</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="116"/>
+      <c r="V22" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="W22" s="13">
+        <v>13</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>750</v>
+      </c>
+      <c r="AA22" s="123">
+        <v>38</v>
+      </c>
+      <c r="AC22" s="13">
         <v>19</v>
       </c>
-      <c r="Q22" s="118">
+      <c r="AD22" s="118">
         <v>45593</v>
       </c>
-      <c r="R22" s="13">
+      <c r="AE22" s="13">
         <v>10019</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="AF22" s="13" t="s">
         <v>1008</v>
       </c>
-      <c r="T22" s="13">
+      <c r="AG22" s="13">
         <v>750</v>
       </c>
-      <c r="U22" s="13">
+      <c r="AH22" s="13">
         <v>14</v>
       </c>
-      <c r="V22" s="35" t="s">
+      <c r="AI22" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X22" s="13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Y22" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>750</v>
-      </c>
-      <c r="AD22" s="116"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK22">
+        <v>19</v>
+      </c>
+      <c r="AL22" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/28'</v>
+      </c>
+      <c r="AM22" t="str">
+        <f t="shared" si="1"/>
+        <v>'10019'</v>
+      </c>
+      <c r="AN22" t="str">
+        <f t="shared" si="2"/>
+        <v>'r0019'</v>
+      </c>
+      <c r="AO22">
+        <v>1558</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AQ22" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR22" t="str">
+        <f t="shared" si="5"/>
+        <v>(19,'2024/10/28','10019','r0019',1558,14,'02'),</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B23" s="100" t="s">
         <v>948</v>
       </c>
@@ -11011,45 +11839,81 @@
       <c r="N23" s="109">
         <v>3400</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="116"/>
+      <c r="V23" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W23" s="13">
+        <v>13</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>850</v>
+      </c>
+      <c r="AA23" s="123">
+        <v>39</v>
+      </c>
+      <c r="AC23" s="13">
         <v>20</v>
       </c>
-      <c r="Q23" s="118">
+      <c r="AD23" s="118">
         <v>45594</v>
       </c>
-      <c r="R23" s="13">
+      <c r="AE23" s="13">
         <v>10020</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="AF23" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="T23" s="13">
+      <c r="AG23" s="13">
         <v>850</v>
       </c>
-      <c r="U23" s="13">
+      <c r="AH23" s="13">
         <v>9</v>
       </c>
-      <c r="V23" s="35" t="s">
+      <c r="AI23" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X23" s="13" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AA23" s="13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AB23" s="13">
-        <v>850</v>
-      </c>
-      <c r="AD23" s="116"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK23">
+        <v>20</v>
+      </c>
+      <c r="AL23" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/29'</v>
+      </c>
+      <c r="AM23" t="str">
+        <f t="shared" si="1"/>
+        <v>'10020'</v>
+      </c>
+      <c r="AN23" t="str">
+        <f t="shared" si="2"/>
+        <v>'s0020'</v>
+      </c>
+      <c r="AO23">
+        <v>1559</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AQ23" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR23" t="str">
+        <f t="shared" si="5"/>
+        <v>(20,'2024/10/29','10020','s0020',1559,9,'01'),</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B24" s="100" t="s">
         <v>949</v>
       </c>
@@ -11089,44 +11953,80 @@
       <c r="N24" s="109">
         <v>1500</v>
       </c>
-      <c r="P24" s="13">
+      <c r="V24" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W24" s="13">
+        <v>11</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Y24" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>3200</v>
+      </c>
+      <c r="AA24" s="123">
+        <v>40</v>
+      </c>
+      <c r="AC24" s="13">
         <v>21</v>
       </c>
-      <c r="Q24" s="118">
+      <c r="AD24" s="118">
         <v>45595</v>
       </c>
-      <c r="R24" s="13">
+      <c r="AE24" s="13">
         <v>10021</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="AF24" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="T24" s="13">
+      <c r="AG24" s="13">
         <v>3200</v>
       </c>
-      <c r="U24" s="13">
+      <c r="AH24" s="13">
         <v>2</v>
       </c>
-      <c r="V24" s="35" t="s">
+      <c r="AI24" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X24" s="13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Y24" s="13">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AB24" s="13">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK24">
+        <v>21</v>
+      </c>
+      <c r="AL24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/30'</v>
+      </c>
+      <c r="AM24" t="str">
+        <f t="shared" si="1"/>
+        <v>'10021'</v>
+      </c>
+      <c r="AN24" t="str">
+        <f t="shared" si="2"/>
+        <v>'t0021'</v>
+      </c>
+      <c r="AO24">
+        <v>1560</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR24" t="str">
+        <f t="shared" si="5"/>
+        <v>(21,'2024/10/30','10021','t0021',1560,2,'03'),</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B25" s="100" t="s">
         <v>950</v>
       </c>
@@ -11166,44 +12066,80 @@
       <c r="N25" s="109">
         <v>800</v>
       </c>
-      <c r="P25" s="13">
+      <c r="V25" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W25" s="13">
+        <v>13</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>2500</v>
+      </c>
+      <c r="AA25" s="123">
+        <v>41</v>
+      </c>
+      <c r="AC25" s="13">
         <v>22</v>
       </c>
-      <c r="Q25" s="118">
+      <c r="AD25" s="118">
         <v>45596</v>
       </c>
-      <c r="R25" s="13">
+      <c r="AE25" s="13">
         <v>10022</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="AF25" s="13" t="s">
         <v>1017</v>
       </c>
-      <c r="T25" s="13">
+      <c r="AG25" s="13">
         <v>2500</v>
       </c>
-      <c r="U25" s="13">
+      <c r="AH25" s="13">
         <v>5</v>
       </c>
-      <c r="V25" s="35" t="s">
+      <c r="AI25" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X25" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AB25" s="13">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK25">
+        <v>22</v>
+      </c>
+      <c r="AL25" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/10/31'</v>
+      </c>
+      <c r="AM25" t="str">
+        <f t="shared" si="1"/>
+        <v>'10022'</v>
+      </c>
+      <c r="AN25" t="str">
+        <f t="shared" si="2"/>
+        <v>'u0022'</v>
+      </c>
+      <c r="AO25">
+        <v>1561</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AQ25" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR25" t="str">
+        <f t="shared" si="5"/>
+        <v>(22,'2024/10/31','10022','u0022',1561,5,'02'),</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B26" s="100" t="s">
         <v>951</v>
       </c>
@@ -11243,44 +12179,80 @@
       <c r="N26" s="109">
         <v>3100</v>
       </c>
-      <c r="P26" s="13">
+      <c r="V26" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="W26" s="13">
+        <v>13</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>1800</v>
+      </c>
+      <c r="AA26" s="123">
+        <v>42</v>
+      </c>
+      <c r="AC26" s="13">
         <v>23</v>
       </c>
-      <c r="Q26" s="118">
+      <c r="AD26" s="118">
         <v>45597</v>
       </c>
-      <c r="R26" s="13">
+      <c r="AE26" s="13">
         <v>10023</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="AF26" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="T26" s="13">
+      <c r="AG26" s="13">
         <v>1800</v>
       </c>
-      <c r="U26" s="13">
+      <c r="AH26" s="13">
         <v>6</v>
       </c>
-      <c r="V26" s="35" t="s">
+      <c r="AI26" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="X26" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AA26" s="13" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK26">
+        <v>23</v>
+      </c>
+      <c r="AL26" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/01'</v>
+      </c>
+      <c r="AM26" t="str">
+        <f t="shared" si="1"/>
+        <v>'10023'</v>
+      </c>
+      <c r="AN26" t="str">
+        <f t="shared" si="2"/>
+        <v>'v0023'</v>
+      </c>
+      <c r="AO26">
+        <v>1562</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AQ26" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'03'</v>
+      </c>
+      <c r="AR26" t="str">
+        <f t="shared" si="5"/>
+        <v>(23,'2024/11/01','10023','v0023',1562,6,'03'),</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B27" s="100" t="s">
         <v>952</v>
       </c>
@@ -11320,44 +12292,80 @@
       <c r="N27" s="109">
         <v>4000</v>
       </c>
-      <c r="P27" s="13">
+      <c r="V27" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="W27" s="13">
+        <v>21</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>850</v>
+      </c>
+      <c r="AA27" s="123">
+        <v>43</v>
+      </c>
+      <c r="AC27" s="13">
         <v>24</v>
       </c>
-      <c r="Q27" s="118">
+      <c r="AD27" s="118">
         <v>45598</v>
       </c>
-      <c r="R27" s="13">
+      <c r="AE27" s="13">
         <v>10024</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="AF27" s="13" t="s">
         <v>1023</v>
       </c>
-      <c r="T27" s="13">
+      <c r="AG27" s="13">
         <v>850</v>
       </c>
-      <c r="U27" s="13">
+      <c r="AH27" s="13">
         <v>10</v>
       </c>
-      <c r="V27" s="35" t="s">
+      <c r="AI27" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X27" s="13" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AB27" s="13">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK27">
+        <v>24</v>
+      </c>
+      <c r="AL27" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/02'</v>
+      </c>
+      <c r="AM27" t="str">
+        <f t="shared" si="1"/>
+        <v>'10024'</v>
+      </c>
+      <c r="AN27" t="str">
+        <f t="shared" si="2"/>
+        <v>'w0024'</v>
+      </c>
+      <c r="AO27">
+        <v>1563</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AQ27" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR27" t="str">
+        <f t="shared" si="5"/>
+        <v>(24,'2024/11/02','10024','w0024',1563,10,'02'),</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B28" s="100" t="s">
         <v>953</v>
       </c>
@@ -11397,44 +12405,80 @@
       <c r="N28" s="109">
         <v>1200</v>
       </c>
-      <c r="P28" s="13">
+      <c r="V28" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="W28" s="13">
+        <v>22</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>500</v>
+      </c>
+      <c r="AA28" s="123">
+        <v>44</v>
+      </c>
+      <c r="AC28" s="13">
         <v>25</v>
       </c>
-      <c r="Q28" s="118">
+      <c r="AD28" s="118">
         <v>45599</v>
       </c>
-      <c r="R28" s="13">
+      <c r="AE28" s="13">
         <v>10025</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="AF28" s="13" t="s">
         <v>1026</v>
       </c>
-      <c r="T28" s="13">
+      <c r="AG28" s="13">
         <v>500</v>
       </c>
-      <c r="U28" s="13">
+      <c r="AH28" s="13">
         <v>15</v>
       </c>
-      <c r="V28" s="35" t="s">
+      <c r="AI28" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X28" s="13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Y28" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AB28" s="13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK28">
+        <v>25</v>
+      </c>
+      <c r="AL28" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/03'</v>
+      </c>
+      <c r="AM28" t="str">
+        <f t="shared" si="1"/>
+        <v>'10025'</v>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="2"/>
+        <v>'x0025'</v>
+      </c>
+      <c r="AO28">
+        <v>1564</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AQ28" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR28" t="str">
+        <f t="shared" si="5"/>
+        <v>(25,'2024/11/03','10025','x0025',1564,15,'01'),</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B29" s="100" t="s">
         <v>954</v>
       </c>
@@ -11474,44 +12518,80 @@
       <c r="N29" s="109">
         <v>700</v>
       </c>
-      <c r="P29" s="13">
+      <c r="V29" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="W29" s="13">
+        <v>12</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>750</v>
+      </c>
+      <c r="AA29" s="123">
+        <v>45</v>
+      </c>
+      <c r="AC29" s="13">
         <v>26</v>
       </c>
-      <c r="Q29" s="118">
+      <c r="AD29" s="118">
         <v>45600</v>
       </c>
-      <c r="R29" s="13">
+      <c r="AE29" s="13">
         <v>10026</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="AF29" s="13" t="s">
         <v>1028</v>
       </c>
-      <c r="T29" s="13">
+      <c r="AG29" s="13">
         <v>750</v>
       </c>
-      <c r="U29" s="13">
+      <c r="AH29" s="13">
         <v>20</v>
       </c>
-      <c r="V29" s="35" t="s">
+      <c r="AI29" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X29" s="13" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA29" s="13" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK29">
+        <v>26</v>
+      </c>
+      <c r="AL29" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/04'</v>
+      </c>
+      <c r="AM29" t="str">
+        <f t="shared" si="1"/>
+        <v>'10026'</v>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="2"/>
+        <v>'y0026'</v>
+      </c>
+      <c r="AO29">
+        <v>1565</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AQ29" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR29" t="str">
+        <f t="shared" si="5"/>
+        <v>(26,'2024/11/04','10026','y0026',1565,20,'01'),</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
         <v>955</v>
       </c>
@@ -11551,44 +12631,80 @@
       <c r="N30" s="109">
         <v>1100</v>
       </c>
-      <c r="P30" s="13">
+      <c r="V30" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="W30" s="13">
+        <v>15</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>3000</v>
+      </c>
+      <c r="AA30" s="123">
+        <v>46</v>
+      </c>
+      <c r="AC30" s="13">
         <v>27</v>
       </c>
-      <c r="Q30" s="118">
+      <c r="AD30" s="118">
         <v>45601</v>
       </c>
-      <c r="R30" s="13">
+      <c r="AE30" s="13">
         <v>10027</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="AF30" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="T30" s="13">
+      <c r="AG30" s="13">
         <v>3000</v>
       </c>
-      <c r="U30" s="13">
+      <c r="AH30" s="13">
         <v>3</v>
       </c>
-      <c r="V30" s="35" t="s">
+      <c r="AI30" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X30" s="13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="13" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AA30" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK30">
+        <v>27</v>
+      </c>
+      <c r="AL30" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/05'</v>
+      </c>
+      <c r="AM30" t="str">
+        <f t="shared" si="1"/>
+        <v>'10027'</v>
+      </c>
+      <c r="AN30" t="str">
+        <f t="shared" si="2"/>
+        <v>'z0027'</v>
+      </c>
+      <c r="AO30">
+        <v>1566</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AQ30" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR30" t="str">
+        <f t="shared" si="5"/>
+        <v>(27,'2024/11/05','10027','z0027',1566,3,'01'),</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B31" s="100" t="s">
         <v>956</v>
       </c>
@@ -11628,44 +12744,80 @@
       <c r="N31" s="109">
         <v>520</v>
       </c>
-      <c r="P31" s="13">
+      <c r="V31" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W31" s="13">
+        <v>20</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>400</v>
+      </c>
+      <c r="AA31" s="123">
+        <v>47</v>
+      </c>
+      <c r="AC31" s="13">
         <v>28</v>
       </c>
-      <c r="Q31" s="118">
+      <c r="AD31" s="118">
         <v>45602</v>
       </c>
-      <c r="R31" s="13">
+      <c r="AE31" s="13">
         <v>10028</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="AF31" s="13" t="s">
         <v>1033</v>
       </c>
-      <c r="T31" s="13">
+      <c r="AG31" s="13">
         <v>400</v>
       </c>
-      <c r="U31" s="13">
+      <c r="AH31" s="13">
         <v>28</v>
       </c>
-      <c r="V31" s="35" t="s">
+      <c r="AI31" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X31" s="13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>20</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AK31">
+        <v>28</v>
+      </c>
+      <c r="AL31" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/06'</v>
+      </c>
+      <c r="AM31" t="str">
+        <f t="shared" si="1"/>
+        <v>'10028'</v>
+      </c>
+      <c r="AN31" t="str">
+        <f t="shared" si="2"/>
+        <v>'a0028'</v>
+      </c>
+      <c r="AO31">
+        <v>1567</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AQ31" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR31" t="str">
+        <f t="shared" si="5"/>
+        <v>(28,'2024/11/06','10028','a0028',1567,28,'01'),</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B32" s="100" t="s">
         <v>957</v>
       </c>
@@ -11705,44 +12857,80 @@
       <c r="N32" s="109">
         <v>2100</v>
       </c>
-      <c r="P32" s="13">
+      <c r="V32" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W32" s="13">
+        <v>13</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>2500</v>
+      </c>
+      <c r="AA32" s="123">
+        <v>48</v>
+      </c>
+      <c r="AC32" s="13">
         <v>29</v>
       </c>
-      <c r="Q32" s="118">
+      <c r="AD32" s="118">
         <v>45603</v>
       </c>
-      <c r="R32" s="13">
+      <c r="AE32" s="13">
         <v>10029</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="AF32" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="T32" s="13">
+      <c r="AG32" s="13">
         <v>2500</v>
       </c>
-      <c r="U32" s="13">
+      <c r="AH32" s="13">
         <v>5</v>
       </c>
-      <c r="V32" s="35" t="s">
+      <c r="AI32" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="X32" s="13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA32" s="13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AK32">
+        <v>29</v>
+      </c>
+      <c r="AL32" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/07'</v>
+      </c>
+      <c r="AM32" t="str">
+        <f t="shared" si="1"/>
+        <v>'10029'</v>
+      </c>
+      <c r="AN32" t="str">
+        <f t="shared" si="2"/>
+        <v>'b0029'</v>
+      </c>
+      <c r="AO32">
+        <v>1568</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AQ32" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'01'</v>
+      </c>
+      <c r="AR32" t="str">
+        <f t="shared" si="5"/>
+        <v>(29,'2024/11/07','10029','b0029',1568,5,'01'),</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="33" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B33" s="100" t="s">
         <v>958</v>
       </c>
@@ -11782,44 +12970,80 @@
       <c r="N33" s="109">
         <v>3000</v>
       </c>
-      <c r="P33" s="13">
+      <c r="V33" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="W33" s="13">
+        <v>13</v>
+      </c>
+      <c r="X33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>1700</v>
+      </c>
+      <c r="AA33" s="123">
+        <v>49</v>
+      </c>
+      <c r="AC33" s="13">
         <v>30</v>
       </c>
-      <c r="Q33" s="118">
+      <c r="AD33" s="118">
         <v>45604</v>
       </c>
-      <c r="R33" s="13">
+      <c r="AE33" s="13">
         <v>10030</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="AF33" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="T33" s="13">
+      <c r="AG33" s="13">
         <v>1700</v>
       </c>
-      <c r="U33" s="13">
+      <c r="AH33" s="13">
         <v>7</v>
       </c>
-      <c r="V33" s="35" t="s">
+      <c r="AI33" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="X33" s="13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA33" s="13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AB33" s="13">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AK33">
+        <v>30</v>
+      </c>
+      <c r="AL33" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>'2024/11/08'</v>
+      </c>
+      <c r="AM33" t="str">
+        <f t="shared" si="1"/>
+        <v>'10030'</v>
+      </c>
+      <c r="AN33" t="str">
+        <f t="shared" si="2"/>
+        <v>'c0030'</v>
+      </c>
+      <c r="AO33">
+        <v>1569</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AQ33" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>'02'</v>
+      </c>
+      <c r="AR33" t="str">
+        <f t="shared" si="5"/>
+        <v>(30,'2024/11/08','10030','c0030',1569,7,'02'),</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="34" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B34" s="95" t="s">
         <v>666</v>
       </c>
@@ -11860,7 +13084,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B35" s="95" t="s">
         <v>674</v>
       </c>
@@ -11901,7 +13125,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B36" s="95" t="s">
         <v>683</v>
       </c>
@@ -11941,9 +13165,9 @@
       <c r="N36" s="109" t="s">
         <v>692</v>
       </c>
-      <c r="Q36" s="115"/>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD36" s="115"/>
+    </row>
+    <row r="37" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B37" s="95" t="s">
         <v>693</v>
       </c>
@@ -11983,9 +13207,9 @@
       <c r="N37" s="109" t="s">
         <v>701</v>
       </c>
-      <c r="Q37" s="115"/>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD37" s="115"/>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B38" s="95" t="s">
         <v>702</v>
       </c>
@@ -12025,9 +13249,9 @@
       <c r="N38" s="109" t="s">
         <v>711</v>
       </c>
-      <c r="Q38" s="115"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD38" s="115"/>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B39" s="95" t="s">
         <v>712</v>
       </c>
@@ -12067,9 +13291,9 @@
       <c r="N39" s="109" t="s">
         <v>722</v>
       </c>
-      <c r="Q39" s="115"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD39" s="115"/>
+    </row>
+    <row r="40" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B40" s="95" t="s">
         <v>723</v>
       </c>
@@ -12109,9 +13333,9 @@
       <c r="N40" s="109" t="s">
         <v>732</v>
       </c>
-      <c r="Q40" s="115"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD40" s="115"/>
+    </row>
+    <row r="41" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B41" s="95" t="s">
         <v>733</v>
       </c>
@@ -12151,9 +13375,9 @@
       <c r="N41" s="109" t="s">
         <v>741</v>
       </c>
-      <c r="Q41" s="115"/>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD41" s="115"/>
+    </row>
+    <row r="42" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B42" s="95" t="s">
         <v>742</v>
       </c>
@@ -12193,9 +13417,9 @@
       <c r="N42" s="109" t="s">
         <v>749</v>
       </c>
-      <c r="Q42" s="115"/>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD42" s="115"/>
+    </row>
+    <row r="43" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B43" s="95" t="s">
         <v>750</v>
       </c>
@@ -12235,9 +13459,9 @@
       <c r="N43" s="109" t="s">
         <v>758</v>
       </c>
-      <c r="Q43" s="115"/>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD43" s="115"/>
+    </row>
+    <row r="44" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B44" s="95" t="s">
         <v>759</v>
       </c>
@@ -12277,9 +13501,9 @@
       <c r="N44" s="109" t="s">
         <v>761</v>
       </c>
-      <c r="Q44" s="115"/>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD44" s="115"/>
+    </row>
+    <row r="45" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B45" s="95" t="s">
         <v>762</v>
       </c>
@@ -12319,9 +13543,9 @@
       <c r="N45" s="109" t="s">
         <v>764</v>
       </c>
-      <c r="Q45" s="115"/>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD45" s="115"/>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B46" s="95" t="s">
         <v>765</v>
       </c>
@@ -12361,9 +13585,9 @@
       <c r="N46" s="109" t="s">
         <v>767</v>
       </c>
-      <c r="Q46" s="115"/>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD46" s="115"/>
+    </row>
+    <row r="47" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B47" s="95" t="s">
         <v>768</v>
       </c>
@@ -12403,9 +13627,9 @@
       <c r="N47" s="109" t="s">
         <v>770</v>
       </c>
-      <c r="Q47" s="115"/>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AD47" s="115"/>
+    </row>
+    <row r="48" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B48" s="95" t="s">
         <v>771</v>
       </c>
@@ -12445,9 +13669,9 @@
       <c r="N48" s="109" t="s">
         <v>773</v>
       </c>
-      <c r="Q48" s="115"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD48" s="115"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B49" s="95" t="s">
         <v>774</v>
       </c>
@@ -12487,9 +13711,9 @@
       <c r="N49" s="109" t="s">
         <v>776</v>
       </c>
-      <c r="Q49" s="115"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD49" s="115"/>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B50" s="95" t="s">
         <v>777</v>
       </c>
@@ -12529,9 +13753,9 @@
       <c r="N50" s="109" t="s">
         <v>779</v>
       </c>
-      <c r="Q50" s="115"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD50" s="115"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B51" s="95" t="s">
         <v>780</v>
       </c>
@@ -12571,9 +13795,9 @@
       <c r="N51" s="109" t="s">
         <v>782</v>
       </c>
-      <c r="Q51" s="115"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD51" s="115"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B52" s="95" t="s">
         <v>783</v>
       </c>
@@ -12613,9 +13837,9 @@
       <c r="N52" s="109" t="s">
         <v>785</v>
       </c>
-      <c r="Q52" s="115"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD52" s="115"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B53" s="95" t="s">
         <v>786</v>
       </c>
@@ -12655,9 +13879,9 @@
       <c r="N53" s="109" t="s">
         <v>788</v>
       </c>
-      <c r="Q53" s="115"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD53" s="115"/>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B54" s="95" t="s">
         <v>789</v>
       </c>
@@ -12697,9 +13921,9 @@
       <c r="N54" s="109" t="s">
         <v>791</v>
       </c>
-      <c r="Q54" s="115"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD54" s="115"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B55" s="95" t="s">
         <v>792</v>
       </c>
@@ -12739,9 +13963,9 @@
       <c r="N55" s="109" t="s">
         <v>794</v>
       </c>
-      <c r="Q55" s="115"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD55" s="115"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B56" s="95" t="s">
         <v>795</v>
       </c>
@@ -12781,9 +14005,9 @@
       <c r="N56" s="109" t="s">
         <v>797</v>
       </c>
-      <c r="Q56" s="115"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD56" s="115"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B57" s="95" t="s">
         <v>798</v>
       </c>
@@ -12823,9 +14047,9 @@
       <c r="N57" s="109" t="s">
         <v>800</v>
       </c>
-      <c r="Q57" s="115"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD57" s="115"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B58" s="95" t="s">
         <v>801</v>
       </c>
@@ -12865,9 +14089,9 @@
       <c r="N58" s="109" t="s">
         <v>803</v>
       </c>
-      <c r="Q58" s="115"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD58" s="115"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B59" s="95" t="s">
         <v>804</v>
       </c>
@@ -12907,9 +14131,9 @@
       <c r="N59" s="109" t="s">
         <v>806</v>
       </c>
-      <c r="Q59" s="115"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD59" s="115"/>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B60" s="95" t="s">
         <v>807</v>
       </c>
@@ -12949,9 +14173,9 @@
       <c r="N60" s="109" t="s">
         <v>809</v>
       </c>
-      <c r="Q60" s="115"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD60" s="115"/>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B61" s="95" t="s">
         <v>810</v>
       </c>
@@ -12991,9 +14215,9 @@
       <c r="N61" s="109" t="s">
         <v>812</v>
       </c>
-      <c r="Q61" s="115"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD61" s="115"/>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B62" s="95" t="s">
         <v>813</v>
       </c>
@@ -13033,9 +14257,9 @@
       <c r="N62" s="109" t="s">
         <v>815</v>
       </c>
-      <c r="Q62" s="115"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD62" s="115"/>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B63" s="95" t="s">
         <v>816</v>
       </c>
@@ -13075,9 +14299,9 @@
       <c r="N63" s="109" t="s">
         <v>818</v>
       </c>
-      <c r="Q63" s="115"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD63" s="115"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B64" s="95" t="s">
         <v>819</v>
       </c>
@@ -13117,9 +14341,9 @@
       <c r="N64" s="109" t="s">
         <v>821</v>
       </c>
-      <c r="Q64" s="115"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD64" s="115"/>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B65" s="95" t="s">
         <v>822</v>
       </c>
@@ -13159,9 +14383,9 @@
       <c r="N65" s="109" t="s">
         <v>824</v>
       </c>
-      <c r="Q65" s="115"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="AD65" s="115"/>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B66" s="95" t="s">
         <v>825</v>
       </c>
@@ -13202,7 +14426,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B67" s="95" t="s">
         <v>828</v>
       </c>
@@ -13243,7 +14467,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B68" s="95" t="s">
         <v>831</v>
       </c>
@@ -13284,7 +14508,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B69" s="95" t="s">
         <v>834</v>
       </c>
@@ -13325,7 +14549,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B70" s="95" t="s">
         <v>837</v>
       </c>
@@ -13366,7 +14590,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B71" s="95" t="s">
         <v>840</v>
       </c>
@@ -13407,7 +14631,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B72" s="95" t="s">
         <v>843</v>
       </c>
@@ -13448,7 +14672,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B73" s="95" t="s">
         <v>846</v>
       </c>
@@ -13489,7 +14713,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B74" s="95" t="s">
         <v>849</v>
       </c>
@@ -13530,7 +14754,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B75" s="95" t="s">
         <v>852</v>
       </c>
@@ -13571,7 +14795,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B76" s="95" t="s">
         <v>855</v>
       </c>
@@ -13612,7 +14836,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B77" s="95" t="s">
         <v>858</v>
       </c>
@@ -13653,7 +14877,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B78" s="95" t="s">
         <v>861</v>
       </c>
@@ -13694,7 +14918,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B79" s="95" t="s">
         <v>864</v>
       </c>
@@ -13735,7 +14959,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B80" s="95" t="s">
         <v>867</v>
       </c>
@@ -16660,14 +17884,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39"/>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39"/>

--- a/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
+++ b/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\github\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C27EDE8-ED15-4A1C-BF20-E8048AFCFE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D9EB14-ED3B-418B-83B0-69E21185593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1051">
   <si>
     <t>課題4</t>
   </si>
@@ -4754,6 +4754,10 @@
   </si>
   <si>
     <t>warota</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>わっしょい</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -5491,12 +5495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5511,6 +5509,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7455,18 +7459,18 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="70"/>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="64"/>
       <c r="L4" s="64"/>
       <c r="M4" s="71"/>
@@ -7474,18 +7478,18 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="70"/>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
       <c r="M5" s="71"/>
@@ -7507,7 +7511,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="70"/>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="112" t="s">
         <v>293</v>
       </c>
       <c r="D7" s="114" t="s">
@@ -7523,10 +7527,10 @@
         <v>296</v>
       </c>
       <c r="J7" s="114"/>
-      <c r="K7" s="107" t="s">
+      <c r="K7" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="107" t="s">
+      <c r="L7" s="112" t="s">
         <v>298</v>
       </c>
       <c r="M7" s="71"/>
@@ -7534,7 +7538,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="70"/>
-      <c r="C8" s="108"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="72" t="s">
         <v>299</v>
       </c>
@@ -7556,8 +7560,8 @@
       <c r="J8" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
       <c r="M8" s="71"/>
       <c r="O8" s="17"/>
     </row>
@@ -7979,36 +7983,36 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="70"/>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111" t="s">
+      <c r="D27" s="108"/>
+      <c r="E27" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="113"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
       <c r="K27" s="64"/>
       <c r="L27" s="64"/>
       <c r="M27" s="71"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="70"/>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111" t="s">
+      <c r="D28" s="108"/>
+      <c r="E28" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64"/>
       <c r="M28" s="71"/>
@@ -8029,7 +8033,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="70"/>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="112" t="s">
         <v>293</v>
       </c>
       <c r="D30" s="114" t="s">
@@ -8045,17 +8049,17 @@
         <v>296</v>
       </c>
       <c r="J30" s="114"/>
-      <c r="K30" s="107" t="s">
+      <c r="K30" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="L30" s="107" t="s">
+      <c r="L30" s="112" t="s">
         <v>298</v>
       </c>
       <c r="M30" s="71"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="70"/>
-      <c r="C31" s="108"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="72" t="s">
         <v>299</v>
       </c>
@@ -8077,8 +8081,8 @@
       <c r="J31" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
       <c r="M31" s="71"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -8348,36 +8352,36 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="70"/>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111" t="s">
+      <c r="D45" s="108"/>
+      <c r="E45" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="113"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="111"/>
       <c r="K45" s="64"/>
       <c r="L45" s="64"/>
       <c r="M45" s="71"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="70"/>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111" t="s">
+      <c r="D46" s="108"/>
+      <c r="E46" s="109" t="s">
         <v>354</v>
       </c>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="113"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="111"/>
       <c r="K46" s="64"/>
       <c r="L46" s="64"/>
       <c r="M46" s="71"/>
@@ -8399,7 +8403,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="70"/>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="112" t="s">
         <v>293</v>
       </c>
       <c r="D48" s="114" t="s">
@@ -8415,10 +8419,10 @@
         <v>296</v>
       </c>
       <c r="J48" s="114"/>
-      <c r="K48" s="107" t="s">
+      <c r="K48" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="L48" s="107" t="s">
+      <c r="L48" s="112" t="s">
         <v>298</v>
       </c>
       <c r="M48" s="71"/>
@@ -8426,7 +8430,7 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="70"/>
-      <c r="C49" s="108"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="72" t="s">
         <v>299</v>
       </c>
@@ -8448,8 +8452,8 @@
       <c r="J49" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
       <c r="M49" s="71"/>
       <c r="N49" s="1"/>
     </row>
@@ -8711,36 +8715,36 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="70"/>
-      <c r="C63" s="109" t="s">
+      <c r="C63" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="D63" s="110"/>
-      <c r="E63" s="111" t="s">
+      <c r="D63" s="108"/>
+      <c r="E63" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="113"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="111"/>
       <c r="K63" s="64"/>
       <c r="L63" s="64"/>
       <c r="M63" s="71"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="70"/>
-      <c r="C64" s="109" t="s">
+      <c r="C64" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="110"/>
-      <c r="E64" s="111" t="s">
+      <c r="D64" s="108"/>
+      <c r="E64" s="109" t="s">
         <v>365</v>
       </c>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="113"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="111"/>
       <c r="K64" s="64"/>
       <c r="L64" s="64"/>
       <c r="M64" s="71"/>
@@ -8761,7 +8765,7 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="70"/>
-      <c r="C66" s="107" t="s">
+      <c r="C66" s="112" t="s">
         <v>293</v>
       </c>
       <c r="D66" s="114" t="s">
@@ -8777,17 +8781,17 @@
         <v>296</v>
       </c>
       <c r="J66" s="114"/>
-      <c r="K66" s="107" t="s">
+      <c r="K66" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="L66" s="107" t="s">
+      <c r="L66" s="112" t="s">
         <v>298</v>
       </c>
       <c r="M66" s="71"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="70"/>
-      <c r="C67" s="108"/>
+      <c r="C67" s="113"/>
       <c r="D67" s="72" t="s">
         <v>299</v>
       </c>
@@ -8809,8 +8813,8 @@
       <c r="J67" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="K67" s="108"/>
-      <c r="L67" s="108"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
       <c r="M67" s="71"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -8931,36 +8935,36 @@
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="70"/>
-      <c r="C75" s="109" t="s">
+      <c r="C75" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="D75" s="110"/>
-      <c r="E75" s="111" t="s">
+      <c r="D75" s="108"/>
+      <c r="E75" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="112"/>
-      <c r="I75" s="112"/>
-      <c r="J75" s="113"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="111"/>
       <c r="K75" s="64"/>
       <c r="L75" s="64"/>
       <c r="M75" s="71"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="70"/>
-      <c r="C76" s="109" t="s">
+      <c r="C76" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="110"/>
-      <c r="E76" s="111" t="s">
+      <c r="D76" s="108"/>
+      <c r="E76" s="109" t="s">
         <v>963</v>
       </c>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="112"/>
-      <c r="J76" s="113"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="111"/>
       <c r="K76" s="64"/>
       <c r="L76" s="64"/>
       <c r="M76" s="71"/>
@@ -8981,7 +8985,7 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="70"/>
-      <c r="C78" s="107" t="s">
+      <c r="C78" s="112" t="s">
         <v>293</v>
       </c>
       <c r="D78" s="114" t="s">
@@ -8997,17 +9001,17 @@
         <v>296</v>
       </c>
       <c r="J78" s="114"/>
-      <c r="K78" s="107" t="s">
+      <c r="K78" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="L78" s="107" t="s">
+      <c r="L78" s="112" t="s">
         <v>298</v>
       </c>
       <c r="M78" s="71"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="70"/>
-      <c r="C79" s="108"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="72" t="s">
         <v>299</v>
       </c>
@@ -9029,8 +9033,8 @@
       <c r="J79" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="K79" s="108"/>
-      <c r="L79" s="108"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
       <c r="M79" s="71"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -9136,14 +9140,36 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:J48"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -9156,36 +9182,14 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13836,10 +13840,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15007,6 +15011,11 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="17" t="s">
         <v>1049</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="17" t="s">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
+++ b/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099A5586-68E1-4024-95A3-15E0AEF9DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D1921-592E-4769-BEE7-140010914D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題5" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1083">
   <si>
     <t>課題4</t>
   </si>
@@ -4864,6 +4864,10 @@
   </si>
   <si>
     <t>(30,'2024/11/08','10030','c0030',1569,7,'02'),</t>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -5649,6 +5653,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -5678,15 +5691,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7574,8 +7578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E20C55-54EF-495E-B2C0-1D67D38AE4AA}">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7628,18 +7632,18 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="77"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="134"/>
       <c r="K4" s="71"/>
       <c r="L4" s="71"/>
       <c r="M4" s="78"/>
@@ -7647,18 +7651,18 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="77"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="71"/>
       <c r="L5" s="71"/>
       <c r="M5" s="78"/>
@@ -7680,26 +7684,26 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="77"/>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126" t="s">
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="132" t="s">
+      <c r="J7" s="129"/>
+      <c r="K7" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="135" t="s">
         <v>298</v>
       </c>
       <c r="M7" s="78"/>
@@ -7707,7 +7711,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="77"/>
-      <c r="C8" s="133"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="79" t="s">
         <v>299</v>
       </c>
@@ -7729,8 +7733,8 @@
       <c r="J8" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
       <c r="M8" s="78"/>
       <c r="O8" s="17"/>
     </row>
@@ -8152,36 +8156,36 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="77"/>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129" t="s">
+      <c r="D27" s="131"/>
+      <c r="E27" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="131"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="77"/>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129" t="s">
+      <c r="D28" s="131"/>
+      <c r="E28" s="132" t="s">
         <v>365</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="131"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
       <c r="M28" s="78"/>
@@ -8202,33 +8206,33 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="77"/>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126" t="s">
+      <c r="E30" s="129"/>
+      <c r="F30" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126" t="s">
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129" t="s">
         <v>296</v>
       </c>
-      <c r="J30" s="126"/>
-      <c r="K30" s="132" t="s">
+      <c r="J30" s="129"/>
+      <c r="K30" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="L30" s="132" t="s">
+      <c r="L30" s="135" t="s">
         <v>298</v>
       </c>
       <c r="M30" s="78"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="77"/>
-      <c r="C31" s="133"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="79" t="s">
         <v>299</v>
       </c>
@@ -8250,8 +8254,8 @@
       <c r="J31" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
       <c r="M31" s="78"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
@@ -8372,36 +8376,36 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="77"/>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="128"/>
-      <c r="E39" s="129" t="s">
+      <c r="D39" s="131"/>
+      <c r="E39" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="131"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
       <c r="K39" s="120"/>
       <c r="L39" s="120"/>
       <c r="M39" s="78"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="77"/>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="129" t="s">
+      <c r="D40" s="131"/>
+      <c r="E40" s="132" t="s">
         <v>963</v>
       </c>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="131"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
       <c r="K40" s="120"/>
       <c r="L40" s="120"/>
       <c r="M40" s="78"/>
@@ -8422,33 +8426,33 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="77"/>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D42" s="126" t="s">
+      <c r="D42" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126" t="s">
+      <c r="E42" s="129"/>
+      <c r="F42" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126" t="s">
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129" t="s">
         <v>296</v>
       </c>
-      <c r="J42" s="126"/>
-      <c r="K42" s="132" t="s">
+      <c r="J42" s="129"/>
+      <c r="K42" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="L42" s="132" t="s">
+      <c r="L42" s="135" t="s">
         <v>298</v>
       </c>
       <c r="M42" s="78"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="77"/>
-      <c r="C43" s="133"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="114" t="s">
         <v>299</v>
       </c>
@@ -8470,8 +8474,8 @@
       <c r="J43" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
       <c r="M43" s="78"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
@@ -8606,36 +8610,36 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="77"/>
-      <c r="C51" s="127" t="s">
+      <c r="C51" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="128"/>
-      <c r="E51" s="129" t="s">
+      <c r="D51" s="131"/>
+      <c r="E51" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="131"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="134"/>
       <c r="K51" s="71"/>
       <c r="L51" s="71"/>
       <c r="M51" s="78"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="77"/>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="128"/>
-      <c r="E52" s="129" t="s">
+      <c r="D52" s="131"/>
+      <c r="E52" s="132" t="s">
         <v>354</v>
       </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="131"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
       <c r="M52" s="78"/>
@@ -8657,26 +8661,26 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="77"/>
-      <c r="C54" s="132" t="s">
+      <c r="C54" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="126" t="s">
+      <c r="D54" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126" t="s">
+      <c r="E54" s="129"/>
+      <c r="F54" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126" t="s">
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129" t="s">
         <v>296</v>
       </c>
-      <c r="J54" s="126"/>
-      <c r="K54" s="132" t="s">
+      <c r="J54" s="129"/>
+      <c r="K54" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="L54" s="132" t="s">
+      <c r="L54" s="135" t="s">
         <v>298</v>
       </c>
       <c r="M54" s="78"/>
@@ -8684,7 +8688,7 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="77"/>
-      <c r="C55" s="133"/>
+      <c r="C55" s="136"/>
       <c r="D55" s="79" t="s">
         <v>299</v>
       </c>
@@ -8706,8 +8710,8 @@
       <c r="J55" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="K55" s="133"/>
-      <c r="L55" s="133"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
       <c r="M55" s="78"/>
       <c r="N55" s="1"/>
     </row>
@@ -8982,36 +8986,36 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B69" s="77"/>
-      <c r="C69" s="127" t="s">
+      <c r="C69" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="D69" s="128"/>
-      <c r="E69" s="129" t="s">
+      <c r="D69" s="131"/>
+      <c r="E69" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="F69" s="130"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="131"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="134"/>
       <c r="K69" s="120"/>
       <c r="L69" s="120"/>
       <c r="M69" s="78"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B70" s="77"/>
-      <c r="C70" s="127" t="s">
+      <c r="C70" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="D70" s="128"/>
-      <c r="E70" s="129" t="s">
+      <c r="D70" s="131"/>
+      <c r="E70" s="132" t="s">
         <v>353</v>
       </c>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="131"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="134"/>
       <c r="K70" s="120"/>
       <c r="L70" s="120"/>
       <c r="M70" s="78"/>
@@ -9032,33 +9036,33 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B72" s="77"/>
-      <c r="C72" s="132" t="s">
+      <c r="C72" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="126" t="s">
+      <c r="D72" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126" t="s">
+      <c r="E72" s="129"/>
+      <c r="F72" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126" t="s">
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129" t="s">
         <v>296</v>
       </c>
-      <c r="J72" s="126"/>
-      <c r="K72" s="132" t="s">
+      <c r="J72" s="129"/>
+      <c r="K72" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="L72" s="132" t="s">
+      <c r="L72" s="135" t="s">
         <v>298</v>
       </c>
       <c r="M72" s="78"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B73" s="77"/>
-      <c r="C73" s="133"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="114" t="s">
         <v>299</v>
       </c>
@@ -9080,8 +9084,8 @@
       <c r="J73" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="K73" s="133"/>
-      <c r="L73" s="133"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
       <c r="M73" s="78"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.4">
@@ -9120,8 +9124,8 @@
       <c r="D75" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="E75" s="81" t="s">
-        <v>342</v>
+      <c r="E75" s="88" t="s">
+        <v>1082</v>
       </c>
       <c r="F75" s="114"/>
       <c r="G75" s="114"/>
@@ -9399,8 +9403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2AA5EF-E9D7-46ED-AD7B-B086BE7AB8F6}">
   <dimension ref="B2:AS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS8" sqref="AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9443,7 +9447,7 @@
     <col min="37" max="37" width="8.25" customWidth="1"/>
     <col min="38" max="38" width="11.375" bestFit="1" customWidth="1"/>
     <col min="39" max="42" width="8" customWidth="1"/>
-    <col min="43" max="43" width="8" style="135" customWidth="1"/>
+    <col min="43" max="43" width="8" style="125" customWidth="1"/>
     <col min="44" max="44" width="49.375" bestFit="1" customWidth="1"/>
     <col min="45" max="81" width="8" customWidth="1"/>
   </cols>
@@ -9539,7 +9543,7 @@
       <c r="Z3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" s="134" t="s">
+      <c r="AA3" s="124" t="s">
         <v>226</v>
       </c>
       <c r="AB3" s="60"/>
@@ -9683,7 +9687,7 @@
         <f>AH4</f>
         <v>5</v>
       </c>
-      <c r="AQ4" s="136" t="str">
+      <c r="AQ4" s="126" t="str">
         <f>_xlfn.CONCAT("'",AI4,"'")</f>
         <v>'02'</v>
       </c>
@@ -9809,7 +9813,7 @@
         <f t="shared" ref="AP5:AP33" si="3">AH5</f>
         <v>3</v>
       </c>
-      <c r="AQ5" s="136" t="str">
+      <c r="AQ5" s="126" t="str">
         <f t="shared" ref="AQ5:AQ33" si="4">_xlfn.CONCAT("'",AI5,"'")</f>
         <v>'01'</v>
       </c>
@@ -9935,7 +9939,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AQ6" s="136" t="str">
+      <c r="AQ6" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -10056,7 +10060,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AQ7" s="136" t="str">
+      <c r="AQ7" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -10177,7 +10181,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AQ8" s="136" t="str">
+      <c r="AQ8" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -10298,7 +10302,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="AQ9" s="136" t="str">
+      <c r="AQ9" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -10419,7 +10423,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AQ10" s="136" t="str">
+      <c r="AQ10" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -10533,7 +10537,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AQ11" s="136" t="str">
+      <c r="AQ11" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -10647,7 +10651,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AQ12" s="136" t="str">
+      <c r="AQ12" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -10761,7 +10765,7 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AQ13" s="136" t="str">
+      <c r="AQ13" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -10875,7 +10879,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AQ14" s="136" t="str">
+      <c r="AQ14" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -10989,7 +10993,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AQ15" s="136" t="str">
+      <c r="AQ15" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -11103,7 +11107,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="AQ16" s="136" t="str">
+      <c r="AQ16" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -11217,7 +11221,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AQ17" s="136" t="str">
+      <c r="AQ17" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -11331,7 +11335,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="AQ18" s="136" t="str">
+      <c r="AQ18" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -11445,7 +11449,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AQ19" s="136" t="str">
+      <c r="AQ19" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -11559,7 +11563,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AQ20" s="136" t="str">
+      <c r="AQ20" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -11673,7 +11677,7 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="AQ21" s="136" t="str">
+      <c r="AQ21" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -11787,7 +11791,7 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="AQ22" s="136" t="str">
+      <c r="AQ22" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -11901,7 +11905,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AQ23" s="136" t="str">
+      <c r="AQ23" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -12014,7 +12018,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AQ24" s="136" t="str">
+      <c r="AQ24" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -12127,7 +12131,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AQ25" s="136" t="str">
+      <c r="AQ25" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -12240,7 +12244,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AQ26" s="136" t="str">
+      <c r="AQ26" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'03'</v>
       </c>
@@ -12353,7 +12357,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AQ27" s="136" t="str">
+      <c r="AQ27" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -12466,7 +12470,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="AQ28" s="136" t="str">
+      <c r="AQ28" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -12579,7 +12583,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AQ29" s="136" t="str">
+      <c r="AQ29" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -12692,7 +12696,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AQ30" s="136" t="str">
+      <c r="AQ30" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -12805,7 +12809,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="AQ31" s="136" t="str">
+      <c r="AQ31" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -12918,7 +12922,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AQ32" s="136" t="str">
+      <c r="AQ32" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'01'</v>
       </c>
@@ -13031,7 +13035,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AQ33" s="136" t="str">
+      <c r="AQ33" s="126" t="str">
         <f t="shared" si="4"/>
         <v>'02'</v>
       </c>
@@ -17884,14 +17888,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39"/>

--- a/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
+++ b/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D1921-592E-4769-BEE7-140010914D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492833DD-916C-429E-A98B-0DA2EAC44699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11850" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題5" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="論理設計" sheetId="8" r:id="rId9"/>
     <sheet name="物理設計" sheetId="9" r:id="rId10"/>
     <sheet name="テストデータ" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">テストデータ!$S$3:$T$3</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1052">
   <si>
     <t>課題4</t>
   </si>
@@ -2185,9 +2186,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>points</t>
-  </si>
-  <si>
     <t>customer_num</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -2431,10 +2429,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>AUTO_INCREMENT(MySQL)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>数字3桁</t>
     <rPh sb="0" eb="2">
       <t>スウジ</t>
@@ -2474,9 +2468,6 @@
   </si>
   <si>
     <t>manufacturer</t>
-  </si>
-  <si>
-    <t>product_name</t>
   </si>
   <si>
     <t>在庫数</t>
@@ -4764,109 +4755,35 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>,</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(1,'2024/10/10','10001','a0001',1540,5,'02'),</t>
-  </si>
-  <si>
-    <t>(2,'2024/10/11','10002','a0002',1541,3,'01'),</t>
-  </si>
-  <si>
-    <t>(3,'2024/10/12','10003','b0003',1542,7,'01'),</t>
-  </si>
-  <si>
-    <t>(4,'2024/10/13','10004','c0004',1543,10,'02'),</t>
-  </si>
-  <si>
-    <t>(5,'2024/10/14','10005','d0005',1544,20,'03'),</t>
-  </si>
-  <si>
-    <t>(6,'2024/10/15','10006','e0006',1545,15,'02'),</t>
-  </si>
-  <si>
-    <t>(7,'2024/10/16','10007','f0007',1546,4,'01'),</t>
-  </si>
-  <si>
-    <t>(8,'2024/10/17','10008','g0008',1547,25,'01'),</t>
-  </si>
-  <si>
-    <t>(9,'2024/10/18','10009','h0009',1548,2,'01'),</t>
-  </si>
-  <si>
-    <t>(10,'2024/10/19','10010','i0010',1549,50,'01'),</t>
-  </si>
-  <si>
-    <t>(11,'2024/10/20','10011','j0011',1550,6,'01'),</t>
-  </si>
-  <si>
-    <t>(12,'2024/10/21','10012','k0012',1551,3,'02'),</t>
-  </si>
-  <si>
-    <t>(13,'2024/10/22','10013','l0013',1552,8,'02'),</t>
-  </si>
-  <si>
-    <t>(14,'2024/10/23','10014','m0014',1553,12,'02'),</t>
-  </si>
-  <si>
-    <t>(15,'2024/10/24','10015','n0015',1554,18,'03'),</t>
-  </si>
-  <si>
-    <t>(16,'2024/10/25','10016','o0016',1555,7,'03'),</t>
-  </si>
-  <si>
-    <t>(17,'2024/10/26','10017','p0017',1556,3,'03'),</t>
-  </si>
-  <si>
-    <t>(18,'2024/10/27','10018','q0018',1557,22,'03'),</t>
-  </si>
-  <si>
-    <t>(19,'2024/10/28','10019','r0019',1558,14,'02'),</t>
-  </si>
-  <si>
-    <t>(20,'2024/10/29','10020','s0020',1559,9,'01'),</t>
-  </si>
-  <si>
-    <t>(21,'2024/10/30','10021','t0021',1560,2,'03'),</t>
-  </si>
-  <si>
-    <t>(22,'2024/10/31','10022','u0022',1561,5,'02'),</t>
-  </si>
-  <si>
-    <t>(23,'2024/11/01','10023','v0023',1562,6,'03'),</t>
-  </si>
-  <si>
-    <t>(24,'2024/11/02','10024','w0024',1563,10,'02'),</t>
-  </si>
-  <si>
-    <t>(25,'2024/11/03','10025','x0025',1564,15,'01'),</t>
-  </si>
-  <si>
-    <t>(26,'2024/11/04','10026','y0026',1565,20,'01'),</t>
-  </si>
-  <si>
-    <t>(27,'2024/11/05','10027','z0027',1566,3,'01'),</t>
-  </si>
-  <si>
-    <t>(28,'2024/11/06','10028','a0028',1567,28,'01'),</t>
-  </si>
-  <si>
-    <t>(29,'2024/11/07','10029','b0029',1568,5,'01'),</t>
-  </si>
-  <si>
-    <t>(30,'2024/11/08','10030','c0030',1569,7,'02'),</t>
-  </si>
-  <si>
     <t>order_date</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>points</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(MySQL)    21億件では心許ないのでBIGINT</t>
+    <rPh sb="27" eb="28">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ココロモト</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -5302,7 +5219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5691,6 +5608,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7576,10 +7496,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E20C55-54EF-495E-B2C0-1D67D38AE4AA}">
-  <dimension ref="B2:P84"/>
+  <dimension ref="B2:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7656,7 +7576,7 @@
       </c>
       <c r="D5" s="131"/>
       <c r="E5" s="132" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="133"/>
       <c r="G5" s="133"/>
@@ -7747,14 +7667,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G9" s="79"/>
       <c r="H9" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I9" s="88" t="s">
         <v>306</v>
@@ -7764,7 +7684,7 @@
       </c>
       <c r="K9" s="81"/>
       <c r="L9" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M9" s="78"/>
       <c r="O9" s="17"/>
@@ -7778,15 +7698,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F10" s="79"/>
       <c r="G10" s="79"/>
       <c r="H10" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I10" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J10" s="79">
         <v>5</v>
@@ -7810,10 +7730,10 @@
       <c r="F11" s="79"/>
       <c r="G11" s="79"/>
       <c r="H11" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I11" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J11" s="79">
         <v>5</v>
@@ -7838,7 +7758,7 @@
       <c r="G12" s="79"/>
       <c r="H12" s="79"/>
       <c r="I12" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J12" s="79">
         <v>40</v>
@@ -7857,22 +7777,22 @@
         <v>7</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
       <c r="H13" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I13" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J13" s="79">
         <v>13</v>
       </c>
       <c r="K13" s="81"/>
       <c r="L13" s="88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M13" s="78"/>
       <c r="O13" s="17"/>
@@ -7891,10 +7811,10 @@
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
       <c r="H14" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J14" s="79">
         <v>8</v>
@@ -7918,10 +7838,10 @@
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J15" s="79">
         <v>20</v>
@@ -7945,10 +7865,10 @@
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
       <c r="H16" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J16" s="79">
         <v>20</v>
@@ -7966,22 +7886,22 @@
         <v>11</v>
       </c>
       <c r="E17" s="88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I17" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J17" s="79">
         <v>10</v>
       </c>
       <c r="K17" s="81"/>
       <c r="L17" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M17" s="78"/>
     </row>
@@ -7999,10 +7919,10 @@
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J18" s="79">
         <v>20</v>
@@ -8020,15 +7940,15 @@
         <v>13</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F19" s="79"/>
       <c r="G19" s="79"/>
       <c r="H19" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J19" s="79">
         <v>5</v>
@@ -8051,16 +7971,16 @@
       <c r="F20" s="79"/>
       <c r="G20" s="79"/>
       <c r="H20" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I20" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J20" s="79">
         <v>2</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L20" s="81"/>
       <c r="M20" s="78"/>
@@ -8073,16 +7993,16 @@
       <c r="D21" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="81" t="s">
-        <v>317</v>
+      <c r="E21" s="88" t="s">
+        <v>1048</v>
       </c>
       <c r="F21" s="79"/>
       <c r="G21" s="79"/>
       <c r="H21" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="I21" s="88" t="s">
         <v>332</v>
-      </c>
-      <c r="I21" s="88" t="s">
-        <v>333</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>308</v>
@@ -8179,7 +8099,7 @@
       </c>
       <c r="D28" s="131"/>
       <c r="E28" s="132" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
@@ -8267,23 +8187,23 @@
         <v>268</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H32" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I32" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J32" s="79">
         <v>3</v>
       </c>
       <c r="K32" s="81"/>
       <c r="L32" s="81" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M32" s="78"/>
     </row>
@@ -8296,15 +8216,15 @@
         <v>254</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F33" s="79"/>
       <c r="G33" s="79"/>
       <c r="H33" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J33" s="79">
         <v>10</v>
@@ -8399,7 +8319,7 @@
       </c>
       <c r="D40" s="131"/>
       <c r="E40" s="132" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F40" s="133"/>
       <c r="G40" s="133"/>
@@ -8484,27 +8404,27 @@
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G44" s="122"/>
       <c r="H44" s="114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I44" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J44" s="114">
         <v>2</v>
       </c>
       <c r="K44" s="81"/>
       <c r="L44" s="81" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M44" s="78"/>
     </row>
@@ -8517,15 +8437,15 @@
         <v>67</v>
       </c>
       <c r="E45" s="88" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F45" s="114"/>
       <c r="G45" s="114"/>
       <c r="H45" s="114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J45" s="114">
         <v>10</v>
@@ -8633,7 +8553,7 @@
       </c>
       <c r="D52" s="131"/>
       <c r="E52" s="132" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F52" s="133"/>
       <c r="G52" s="133"/>
@@ -8724,24 +8644,24 @@
         <v>262</v>
       </c>
       <c r="E56" s="81" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F56" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G56" s="79"/>
       <c r="H56" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I56" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J56" s="79">
         <v>5</v>
       </c>
       <c r="K56" s="81"/>
       <c r="L56" s="88" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M56" s="78"/>
       <c r="N56" s="1"/>
@@ -8752,17 +8672,17 @@
         <v>2</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E57" s="88" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F57" s="79"/>
       <c r="G57" s="111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H57" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I57" s="88" t="s">
         <v>306</v>
@@ -8772,7 +8692,7 @@
       </c>
       <c r="K57" s="81"/>
       <c r="L57" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M57" s="78"/>
       <c r="N57" s="1"/>
@@ -8787,15 +8707,15 @@
         <v>68</v>
       </c>
       <c r="E58" s="81" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F58" s="79"/>
       <c r="G58" s="79"/>
       <c r="H58" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I58" s="88" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J58" s="79">
         <v>10</v>
@@ -8812,16 +8732,16 @@
       <c r="D59" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="81" t="s">
-        <v>359</v>
+      <c r="E59" s="88" t="s">
+        <v>1047</v>
       </c>
       <c r="F59" s="79"/>
       <c r="G59" s="79"/>
       <c r="H59" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I59" s="88" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J59" s="79">
         <v>12</v>
@@ -8839,15 +8759,15 @@
         <v>70</v>
       </c>
       <c r="E60" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
       <c r="H60" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I60" s="88" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J60" s="79"/>
       <c r="K60" s="81"/>
@@ -8860,18 +8780,18 @@
         <v>6</v>
       </c>
       <c r="D61" s="81" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E61" s="81" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
       <c r="H61" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I61" s="88" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J61" s="79"/>
       <c r="K61" s="81"/>
@@ -9009,7 +8929,7 @@
       </c>
       <c r="D70" s="131"/>
       <c r="E70" s="132" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F70" s="133"/>
       <c r="G70" s="133"/>
@@ -9097,22 +9017,22 @@
         <v>264</v>
       </c>
       <c r="E74" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G74" s="114"/>
       <c r="H74" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I74" s="88" t="s">
-        <v>333</v>
+        <v>1050</v>
       </c>
       <c r="J74" s="114"/>
       <c r="K74" s="81"/>
       <c r="L74" s="89" t="s">
-        <v>350</v>
+        <v>1051</v>
       </c>
       <c r="M74" s="78"/>
     </row>
@@ -9125,12 +9045,12 @@
         <v>282</v>
       </c>
       <c r="E75" s="88" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="F75" s="114"/>
       <c r="G75" s="114"/>
       <c r="H75" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I75" s="88" t="s">
         <v>307</v>
@@ -9149,14 +9069,14 @@
         <v>3</v>
       </c>
       <c r="E76" s="88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F76" s="114"/>
       <c r="G76" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I76" s="88" t="s">
         <v>306</v>
@@ -9166,7 +9086,7 @@
       </c>
       <c r="K76" s="81"/>
       <c r="L76" s="88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M76" s="78"/>
     </row>
@@ -9179,14 +9099,14 @@
         <v>262</v>
       </c>
       <c r="E77" s="88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F77" s="114"/>
       <c r="G77" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I77" s="88" t="s">
         <v>306</v>
@@ -9196,7 +9116,7 @@
       </c>
       <c r="K77" s="81"/>
       <c r="L77" s="88" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M77" s="78"/>
     </row>
@@ -9209,15 +9129,15 @@
         <v>309</v>
       </c>
       <c r="E78" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F78" s="114"/>
       <c r="G78" s="122"/>
       <c r="H78" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="I78" s="88" t="s">
         <v>332</v>
-      </c>
-      <c r="I78" s="88" t="s">
-        <v>333</v>
       </c>
       <c r="J78" s="114"/>
       <c r="K78" s="81"/>
@@ -9233,15 +9153,15 @@
         <v>118</v>
       </c>
       <c r="E79" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F79" s="114"/>
       <c r="G79" s="114"/>
       <c r="H79" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="I79" s="88" t="s">
         <v>332</v>
-      </c>
-      <c r="I79" s="88" t="s">
-        <v>333</v>
       </c>
       <c r="J79" s="114"/>
       <c r="K79" s="81"/>
@@ -9257,14 +9177,14 @@
         <v>268</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F80" s="114"/>
       <c r="G80" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I80" s="88" t="s">
         <v>306</v>
@@ -9274,7 +9194,7 @@
       </c>
       <c r="K80" s="81"/>
       <c r="L80" s="88" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M80" s="78"/>
     </row>
@@ -9339,6 +9259,29 @@
       <c r="K84" s="85"/>
       <c r="L84" s="85"/>
       <c r="M84" s="87"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D87" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="E87" s="88" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F87" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="G87" s="88" t="s">
+        <v>354</v>
+      </c>
+      <c r="H87" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="I87" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="J87" s="88" t="s">
+        <v>345</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -9401,10 +9344,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2AA5EF-E9D7-46ED-AD7B-B086BE7AB8F6}">
-  <dimension ref="B2:AS86"/>
+  <dimension ref="B2:AP86"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33:AI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9444,17 +9387,16 @@
     <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.125" customWidth="1"/>
-    <col min="37" max="37" width="8.25" customWidth="1"/>
-    <col min="38" max="38" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="8" customWidth="1"/>
-    <col min="43" max="43" width="8" style="125" customWidth="1"/>
-    <col min="44" max="44" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="45" max="81" width="8" customWidth="1"/>
+    <col min="37" max="37" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="8" customWidth="1"/>
+    <col min="42" max="42" width="8" style="125" customWidth="1"/>
+    <col min="43" max="43" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="80" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>267</v>
@@ -9464,19 +9406,14 @@
         <v>250</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AC2" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="AK2" s="17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AL2" s="17" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="3" spans="2:45" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AK2" s="17"/>
+    </row>
+    <row r="3" spans="2:42" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="94" t="s">
         <v>3</v>
       </c>
@@ -9511,16 +9448,16 @@
         <v>13</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N3" s="94" t="s">
         <v>269</v>
       </c>
       <c r="P3" s="112" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="Q3" s="112" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>66</v>
@@ -9548,85 +9485,82 @@
       </c>
       <c r="AB3" s="60"/>
       <c r="AC3" s="119" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="AD3" s="112" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE3" s="112" t="s">
+        <v>969</v>
+      </c>
+      <c r="AF3" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG3" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="AE3" s="112" t="s">
-        <v>972</v>
-      </c>
-      <c r="AF3" s="112" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG3" s="112" t="s">
+      <c r="AH3" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="AH3" s="112" t="s">
-        <v>344</v>
-      </c>
       <c r="AI3" s="112" t="s">
-        <v>973</v>
-      </c>
-      <c r="AK3" s="63" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AQ3" s="106"/>
-    </row>
-    <row r="4" spans="2:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+        <v>970</v>
+      </c>
+      <c r="AP3" s="106"/>
+    </row>
+    <row r="4" spans="2:42" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="99" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G4" s="97" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="I4" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="J4" s="104" t="s">
+        <v>634</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>381</v>
+      </c>
+      <c r="L4" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="M4" s="96" t="s">
         <v>383</v>
-      </c>
-      <c r="J4" s="104" t="s">
-        <v>637</v>
-      </c>
-      <c r="K4" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="L4" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="M4" s="96" t="s">
-        <v>386</v>
       </c>
       <c r="N4" s="108">
         <v>1200</v>
       </c>
       <c r="P4" s="117" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="S4" s="13">
         <v>11</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="W4" s="13">
         <v>11</v>
@@ -9635,7 +9569,7 @@
         <v>87</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="Z4" s="13">
         <v>1540</v>
@@ -9650,11 +9584,11 @@
       <c r="AD4" s="118">
         <v>45575</v>
       </c>
-      <c r="AE4" s="13">
-        <v>10001</v>
+      <c r="AE4" s="137" t="s">
+        <v>926</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="AG4" s="13">
         <v>1540</v>
@@ -9663,87 +9597,56 @@
         <v>5</v>
       </c>
       <c r="AI4" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="115" t="str">
-        <f>_xlfn.CONCAT("'",TEXT(AD4,"yyyy/MM/dd"),"'")</f>
-        <v>'2024/10/10'</v>
-      </c>
-      <c r="AM4" t="str">
-        <f>_xlfn.CONCAT("'",AE4,"'")</f>
-        <v>'10001'</v>
-      </c>
-      <c r="AN4" t="str">
-        <f>_xlfn.CONCAT("'",AF4,"'")</f>
-        <v>'a0001'</v>
-      </c>
-      <c r="AO4">
-        <v>1540</v>
-      </c>
-      <c r="AP4">
-        <f>AH4</f>
-        <v>5</v>
-      </c>
-      <c r="AQ4" s="126" t="str">
-        <f>_xlfn.CONCAT("'",AI4,"'")</f>
-        <v>'02'</v>
-      </c>
-      <c r="AR4" t="str">
-        <f>_xlfn.CONCAT($AK$2,AK4,$AK$3,AL4,$AK$3,AM4,$AK$3,AN4,$AK$3,AO4,$AK$3,AP4,$AK$3,AQ4,$AL$2,$AK$3)</f>
-        <v>(1,'2024/10/10','10001','a0001',1540,5,'02'),</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK4" s="115"/>
+      <c r="AP4" s="126"/>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B5" s="100" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C5" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>593</v>
+      </c>
+      <c r="G5" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="H5" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="I5" s="98" t="s">
         <v>389</v>
       </c>
-      <c r="F5" s="100" t="s">
-        <v>596</v>
-      </c>
-      <c r="G5" s="98" t="s">
+      <c r="J5" s="105" t="s">
+        <v>635</v>
+      </c>
+      <c r="K5" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="L5" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="M5" s="95" t="s">
         <v>392</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="K5" s="105" t="s">
-        <v>393</v>
-      </c>
-      <c r="L5" s="105" t="s">
-        <v>394</v>
-      </c>
-      <c r="M5" s="95" t="s">
-        <v>395</v>
       </c>
       <c r="N5" s="109">
         <v>350</v>
       </c>
       <c r="P5" s="117" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="S5" s="13">
         <v>12</v>
@@ -9752,7 +9655,7 @@
         <v>95</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="W5" s="13">
         <v>13</v>
@@ -9776,11 +9679,11 @@
       <c r="AD5" s="118">
         <v>45576</v>
       </c>
-      <c r="AE5" s="13">
-        <v>10002</v>
+      <c r="AE5" s="137" t="s">
+        <v>927</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="AG5" s="13">
         <v>1200</v>
@@ -9789,87 +9692,56 @@
         <v>3</v>
       </c>
       <c r="AI5" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK5">
-        <v>2</v>
-      </c>
-      <c r="AL5" s="115" t="str">
-        <f t="shared" ref="AL5:AL33" si="0">_xlfn.CONCAT("'",TEXT(AD5,"yyyy/MM/dd"),"'")</f>
-        <v>'2024/10/11'</v>
-      </c>
-      <c r="AM5" t="str">
-        <f t="shared" ref="AM5:AM33" si="1">_xlfn.CONCAT("'",AE5,"'")</f>
-        <v>'10002'</v>
-      </c>
-      <c r="AN5" t="str">
-        <f t="shared" ref="AN5:AN33" si="2">_xlfn.CONCAT("'",AF5,"'")</f>
-        <v>'a0002'</v>
-      </c>
-      <c r="AO5">
-        <v>1541</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" ref="AP5:AP33" si="3">AH5</f>
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="126" t="str">
-        <f t="shared" ref="AQ5:AQ33" si="4">_xlfn.CONCAT("'",AI5,"'")</f>
-        <v>'01'</v>
-      </c>
-      <c r="AR5" t="str">
-        <f t="shared" ref="AR5:AR33" si="5">_xlfn.CONCAT($AK$2,AK5,$AK$3,AL5,$AK$3,AM5,$AK$3,AN5,$AK$3,AO5,$AK$3,AP5,$AK$3,AQ5,$AL$2,$AK$3)</f>
-        <v>(2,'2024/10/11','10002','a0002',1541,3,'01'),</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK5" s="115"/>
+      <c r="AP5" s="126"/>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B6" s="100" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C6" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>594</v>
+      </c>
+      <c r="G6" s="98" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="H6" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="I6" s="98" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="100" t="s">
-        <v>597</v>
-      </c>
-      <c r="G6" s="98" t="s">
+      <c r="J6" s="105" t="s">
+        <v>636</v>
+      </c>
+      <c r="K6" s="105" t="s">
         <v>399</v>
       </c>
-      <c r="H6" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="98" t="s">
-        <v>401</v>
-      </c>
-      <c r="J6" s="105" t="s">
-        <v>639</v>
-      </c>
-      <c r="K6" s="105" t="s">
-        <v>402</v>
-      </c>
       <c r="L6" s="105" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M6" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N6" s="109">
         <v>5000</v>
       </c>
       <c r="P6" s="117" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="S6" s="13">
         <v>13</v>
@@ -9878,7 +9750,7 @@
         <v>73</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="W6" s="13">
         <v>13</v>
@@ -9902,11 +9774,11 @@
       <c r="AD6" s="118">
         <v>45577</v>
       </c>
-      <c r="AE6" s="13">
-        <v>10003</v>
+      <c r="AE6" s="137" t="s">
+        <v>928</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="AG6" s="13">
         <v>1300</v>
@@ -9915,78 +9787,47 @@
         <v>7</v>
       </c>
       <c r="AI6" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK6">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/12'</v>
-      </c>
-      <c r="AM6" t="str">
-        <f t="shared" si="1"/>
-        <v>'10003'</v>
-      </c>
-      <c r="AN6" t="str">
-        <f t="shared" si="2"/>
-        <v>'b0003'</v>
-      </c>
-      <c r="AO6">
-        <v>1542</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AQ6" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR6" t="str">
-        <f t="shared" si="5"/>
-        <v>(3,'2024/10/12','10003','b0003',1542,7,'01'),</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK6" s="115"/>
+      <c r="AP6" s="126"/>
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B7" s="100" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C7" s="95" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>595</v>
+      </c>
+      <c r="G7" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="H7" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="I7" s="98" t="s">
         <v>405</v>
       </c>
-      <c r="F7" s="100" t="s">
-        <v>598</v>
-      </c>
-      <c r="G7" s="98" t="s">
+      <c r="J7" s="105" t="s">
+        <v>638</v>
+      </c>
+      <c r="K7" s="105" t="s">
         <v>406</v>
       </c>
-      <c r="H7" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="I7" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>641</v>
-      </c>
-      <c r="K7" s="105" t="s">
-        <v>409</v>
-      </c>
       <c r="L7" s="105" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N7" s="109">
         <v>4200</v>
@@ -9999,7 +9840,7 @@
         <v>99</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="W7" s="13">
         <v>21</v>
@@ -10023,11 +9864,11 @@
       <c r="AD7" s="118">
         <v>45578</v>
       </c>
-      <c r="AE7" s="13">
-        <v>10004</v>
+      <c r="AE7" s="137" t="s">
+        <v>929</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="AG7" s="13">
         <v>900</v>
@@ -10036,78 +9877,47 @@
         <v>10</v>
       </c>
       <c r="AI7" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK7">
-        <v>4</v>
-      </c>
-      <c r="AL7" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/13'</v>
-      </c>
-      <c r="AM7" t="str">
-        <f t="shared" si="1"/>
-        <v>'10004'</v>
-      </c>
-      <c r="AN7" t="str">
-        <f t="shared" si="2"/>
-        <v>'c0004'</v>
-      </c>
-      <c r="AO7">
-        <v>1543</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AQ7" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR7" t="str">
-        <f t="shared" si="5"/>
-        <v>(4,'2024/10/13','10004','c0004',1543,10,'02'),</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK7" s="115"/>
+      <c r="AP7" s="126"/>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B8" s="100" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C8" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>596</v>
+      </c>
+      <c r="G8" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="H8" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="I8" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="F8" s="100" t="s">
-        <v>599</v>
-      </c>
-      <c r="G8" s="98" t="s">
+      <c r="J8" s="105" t="s">
+        <v>639</v>
+      </c>
+      <c r="K8" s="105" t="s">
         <v>413</v>
       </c>
-      <c r="H8" s="98" t="s">
-        <v>414</v>
-      </c>
-      <c r="I8" s="98" t="s">
-        <v>415</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>642</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>416</v>
-      </c>
       <c r="L8" s="105" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="M8" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N8" s="109">
         <v>850</v>
@@ -10120,7 +9930,7 @@
         <v>103</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="W8" s="13">
         <v>22</v>
@@ -10144,11 +9954,11 @@
       <c r="AD8" s="118">
         <v>45579</v>
       </c>
-      <c r="AE8" s="13">
-        <v>10005</v>
+      <c r="AE8" s="137" t="s">
+        <v>930</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="AG8" s="13">
         <v>400</v>
@@ -10157,78 +9967,47 @@
         <v>20</v>
       </c>
       <c r="AI8" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK8">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/14'</v>
-      </c>
-      <c r="AM8" t="str">
-        <f t="shared" si="1"/>
-        <v>'10005'</v>
-      </c>
-      <c r="AN8" t="str">
-        <f t="shared" si="2"/>
-        <v>'d0005'</v>
-      </c>
-      <c r="AO8">
-        <v>1544</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AQ8" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR8" t="str">
-        <f t="shared" si="5"/>
-        <v>(5,'2024/10/14','10005','d0005',1544,20,'03'),</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK8" s="115"/>
+      <c r="AP8" s="126"/>
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B9" s="100" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C9" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>597</v>
+      </c>
+      <c r="G9" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="H9" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="I9" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="F9" s="100" t="s">
-        <v>600</v>
-      </c>
-      <c r="G9" s="98" t="s">
+      <c r="J9" s="105" t="s">
+        <v>641</v>
+      </c>
+      <c r="K9" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="H9" s="98" t="s">
-        <v>421</v>
-      </c>
-      <c r="I9" s="98" t="s">
-        <v>422</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>644</v>
-      </c>
-      <c r="K9" s="105" t="s">
-        <v>423</v>
-      </c>
       <c r="L9" s="105" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M9" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N9" s="109">
         <v>2900</v>
@@ -10241,7 +10020,7 @@
         <v>86</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="W9" s="13">
         <v>12</v>
@@ -10265,11 +10044,11 @@
       <c r="AD9" s="118">
         <v>45580</v>
       </c>
-      <c r="AE9" s="13">
-        <v>10006</v>
+      <c r="AE9" s="137" t="s">
+        <v>931</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AG9" s="13">
         <v>500</v>
@@ -10278,78 +10057,47 @@
         <v>15</v>
       </c>
       <c r="AI9" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK9">
-        <v>6</v>
-      </c>
-      <c r="AL9" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/15'</v>
-      </c>
-      <c r="AM9" t="str">
-        <f t="shared" si="1"/>
-        <v>'10006'</v>
-      </c>
-      <c r="AN9" t="str">
-        <f t="shared" si="2"/>
-        <v>'e0006'</v>
-      </c>
-      <c r="AO9">
-        <v>1545</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="AQ9" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR9" t="str">
-        <f t="shared" si="5"/>
-        <v>(6,'2024/10/15','10006','e0006',1545,15,'02'),</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK9" s="115"/>
+      <c r="AP9" s="126"/>
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B10" s="100" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>598</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>423</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="F10" s="100" t="s">
-        <v>601</v>
-      </c>
-      <c r="G10" s="98" t="s">
+      <c r="J10" s="105" t="s">
+        <v>643</v>
+      </c>
+      <c r="K10" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="H10" s="98" t="s">
-        <v>427</v>
-      </c>
-      <c r="I10" s="98" t="s">
-        <v>428</v>
-      </c>
-      <c r="J10" s="105" t="s">
-        <v>646</v>
-      </c>
-      <c r="K10" s="105" t="s">
-        <v>429</v>
-      </c>
       <c r="L10" s="105" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M10" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N10" s="109">
         <v>420</v>
@@ -10362,7 +10110,7 @@
         <v>91</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="W10" s="13">
         <v>15</v>
@@ -10386,11 +10134,11 @@
       <c r="AD10" s="118">
         <v>45581</v>
       </c>
-      <c r="AE10" s="13">
-        <v>10007</v>
+      <c r="AE10" s="137" t="s">
+        <v>932</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AG10" s="13">
         <v>2500</v>
@@ -10399,85 +10147,54 @@
         <v>4</v>
       </c>
       <c r="AI10" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK10">
-        <v>7</v>
-      </c>
-      <c r="AL10" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/16'</v>
-      </c>
-      <c r="AM10" t="str">
-        <f t="shared" si="1"/>
-        <v>'10007'</v>
-      </c>
-      <c r="AN10" t="str">
-        <f t="shared" si="2"/>
-        <v>'f0007'</v>
-      </c>
-      <c r="AO10">
-        <v>1546</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AQ10" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR10" t="str">
-        <f t="shared" si="5"/>
-        <v>(7,'2024/10/16','10007','f0007',1546,4,'01'),</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK10" s="115"/>
+      <c r="AP10" s="126"/>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B11" s="100" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G11" s="98" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="98" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I11" s="98" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J11" s="105" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K11" s="105" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L11" s="105" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M11" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N11" s="109">
         <v>2300</v>
       </c>
       <c r="P11" s="116"/>
       <c r="V11" s="13" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="W11" s="13">
         <v>20</v>
@@ -10500,11 +10217,11 @@
       <c r="AD11" s="118">
         <v>45582</v>
       </c>
-      <c r="AE11" s="13">
-        <v>10008</v>
+      <c r="AE11" s="137" t="s">
+        <v>933</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="AG11" s="13">
         <v>300</v>
@@ -10513,85 +10230,54 @@
         <v>25</v>
       </c>
       <c r="AI11" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK11">
-        <v>8</v>
-      </c>
-      <c r="AL11" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/17'</v>
-      </c>
-      <c r="AM11" t="str">
-        <f t="shared" si="1"/>
-        <v>'10008'</v>
-      </c>
-      <c r="AN11" t="str">
-        <f t="shared" si="2"/>
-        <v>'g0008'</v>
-      </c>
-      <c r="AO11">
-        <v>1547</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="AQ11" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR11" t="str">
-        <f t="shared" si="5"/>
-        <v>(8,'2024/10/17','10008','g0008',1547,25,'01'),</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK11" s="115"/>
+      <c r="AP11" s="126"/>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B12" s="100" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C12" s="95" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>600</v>
+      </c>
+      <c r="G12" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="H12" s="98" t="s">
         <v>437</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="I12" s="98" t="s">
         <v>438</v>
       </c>
-      <c r="F12" s="100" t="s">
-        <v>603</v>
-      </c>
-      <c r="G12" s="98" t="s">
+      <c r="J12" s="105" t="s">
+        <v>647</v>
+      </c>
+      <c r="K12" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="H12" s="98" t="s">
-        <v>440</v>
-      </c>
-      <c r="I12" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="J12" s="105" t="s">
-        <v>650</v>
-      </c>
-      <c r="K12" s="105" t="s">
-        <v>442</v>
-      </c>
       <c r="L12" s="105" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M12" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N12" s="109">
         <v>800</v>
       </c>
       <c r="P12" s="116"/>
       <c r="V12" s="13" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="W12" s="13">
         <v>13</v>
@@ -10614,11 +10300,11 @@
       <c r="AD12" s="118">
         <v>45583</v>
       </c>
-      <c r="AE12" s="13">
-        <v>10009</v>
+      <c r="AE12" s="137" t="s">
+        <v>934</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="AG12" s="13">
         <v>1100</v>
@@ -10627,85 +10313,54 @@
         <v>2</v>
       </c>
       <c r="AI12" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK12">
-        <v>9</v>
-      </c>
-      <c r="AL12" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/18'</v>
-      </c>
-      <c r="AM12" t="str">
-        <f t="shared" si="1"/>
-        <v>'10009'</v>
-      </c>
-      <c r="AN12" t="str">
-        <f t="shared" si="2"/>
-        <v>'h0009'</v>
-      </c>
-      <c r="AO12">
-        <v>1548</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AQ12" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR12" t="str">
-        <f t="shared" si="5"/>
-        <v>(9,'2024/10/18','10009','h0009',1548,2,'01'),</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK12" s="115"/>
+      <c r="AP12" s="126"/>
+    </row>
+    <row r="13" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B13" s="100" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C13" s="95" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>601</v>
+      </c>
+      <c r="G13" s="98" t="s">
         <v>443</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="H13" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="I13" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="100" t="s">
-        <v>604</v>
-      </c>
-      <c r="G13" s="98" t="s">
+      <c r="J13" s="105" t="s">
+        <v>649</v>
+      </c>
+      <c r="K13" s="105" t="s">
         <v>446</v>
       </c>
-      <c r="H13" s="98" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="98" t="s">
-        <v>448</v>
-      </c>
-      <c r="J13" s="105" t="s">
-        <v>652</v>
-      </c>
-      <c r="K13" s="105" t="s">
-        <v>449</v>
-      </c>
       <c r="L13" s="105" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M13" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N13" s="109">
         <v>4600</v>
       </c>
       <c r="P13" s="116"/>
       <c r="V13" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="W13" s="13">
         <v>13</v>
@@ -10728,11 +10383,11 @@
       <c r="AD13" s="118">
         <v>45584</v>
       </c>
-      <c r="AE13" s="13">
-        <v>10010</v>
+      <c r="AE13" s="137" t="s">
+        <v>935</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="AG13" s="13">
         <v>150</v>
@@ -10741,94 +10396,63 @@
         <v>50</v>
       </c>
       <c r="AI13" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK13">
-        <v>10</v>
-      </c>
-      <c r="AL13" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/19'</v>
-      </c>
-      <c r="AM13" t="str">
-        <f t="shared" si="1"/>
-        <v>'10010'</v>
-      </c>
-      <c r="AN13" t="str">
-        <f t="shared" si="2"/>
-        <v>'i0010'</v>
-      </c>
-      <c r="AO13">
-        <v>1549</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="AQ13" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR13" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,'2024/10/19','10010','i0010',1549,50,'01'),</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK13" s="115"/>
+      <c r="AP13" s="126"/>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B14" s="100" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C14" s="95" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>602</v>
+      </c>
+      <c r="G14" s="98" t="s">
         <v>450</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="H14" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="I14" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="F14" s="100" t="s">
-        <v>605</v>
-      </c>
-      <c r="G14" s="98" t="s">
+      <c r="J14" s="105" t="s">
+        <v>651</v>
+      </c>
+      <c r="K14" s="105" t="s">
         <v>453</v>
       </c>
-      <c r="H14" s="98" t="s">
-        <v>454</v>
-      </c>
-      <c r="I14" s="98" t="s">
-        <v>455</v>
-      </c>
-      <c r="J14" s="105" t="s">
-        <v>654</v>
-      </c>
-      <c r="K14" s="105" t="s">
-        <v>456</v>
-      </c>
       <c r="L14" s="105" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M14" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N14" s="109">
         <v>1500</v>
       </c>
       <c r="P14" s="116"/>
       <c r="V14" s="13" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="W14" s="13">
         <v>11</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="Z14" s="13">
         <v>1800</v>
@@ -10842,11 +10466,11 @@
       <c r="AD14" s="118">
         <v>45585</v>
       </c>
-      <c r="AE14" s="13">
-        <v>10011</v>
+      <c r="AE14" s="137" t="s">
+        <v>936</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AG14" s="13">
         <v>1800</v>
@@ -10855,94 +10479,63 @@
         <v>6</v>
       </c>
       <c r="AI14" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK14">
-        <v>11</v>
-      </c>
-      <c r="AL14" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/20'</v>
-      </c>
-      <c r="AM14" t="str">
-        <f t="shared" si="1"/>
-        <v>'10011'</v>
-      </c>
-      <c r="AN14" t="str">
-        <f t="shared" si="2"/>
-        <v>'j0011'</v>
-      </c>
-      <c r="AO14">
-        <v>1550</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AQ14" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR14" t="str">
-        <f t="shared" si="5"/>
-        <v>(11,'2024/10/20','10011','j0011',1550,6,'01'),</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK14" s="115"/>
+      <c r="AP14" s="126"/>
+    </row>
+    <row r="15" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B15" s="100" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C15" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>603</v>
+      </c>
+      <c r="G15" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="H15" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="I15" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="F15" s="100" t="s">
-        <v>606</v>
-      </c>
-      <c r="G15" s="98" t="s">
+      <c r="J15" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="K15" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="H15" s="98" t="s">
+      <c r="L15" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="I15" s="98" t="s">
-        <v>462</v>
-      </c>
-      <c r="J15" s="105" t="s">
-        <v>656</v>
-      </c>
-      <c r="K15" s="105" t="s">
-        <v>463</v>
-      </c>
-      <c r="L15" s="105" t="s">
-        <v>464</v>
-      </c>
       <c r="M15" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N15" s="109">
         <v>990</v>
       </c>
       <c r="P15" s="116"/>
       <c r="V15" s="13" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="W15" s="13">
         <v>13</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="Z15" s="13">
         <v>2000</v>
@@ -10956,11 +10549,11 @@
       <c r="AD15" s="118">
         <v>45586</v>
       </c>
-      <c r="AE15" s="13">
-        <v>10012</v>
+      <c r="AE15" s="137" t="s">
+        <v>937</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AG15" s="13">
         <v>2000</v>
@@ -10969,94 +10562,63 @@
         <v>3</v>
       </c>
       <c r="AI15" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK15">
-        <v>12</v>
-      </c>
-      <c r="AL15" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/21'</v>
-      </c>
-      <c r="AM15" t="str">
-        <f t="shared" si="1"/>
-        <v>'10012'</v>
-      </c>
-      <c r="AN15" t="str">
-        <f t="shared" si="2"/>
-        <v>'k0012'</v>
-      </c>
-      <c r="AO15">
-        <v>1551</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AQ15" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR15" t="str">
-        <f t="shared" si="5"/>
-        <v>(12,'2024/10/21','10012','k0012',1551,3,'02'),</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK15" s="115"/>
+      <c r="AP15" s="126"/>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B16" s="100" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C16" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>604</v>
+      </c>
+      <c r="G16" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="H16" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="I16" s="98" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="100" t="s">
-        <v>607</v>
-      </c>
-      <c r="G16" s="98" t="s">
+      <c r="J16" s="105" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="H16" s="98" t="s">
-        <v>469</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>470</v>
-      </c>
-      <c r="J16" s="105" t="s">
-        <v>657</v>
-      </c>
-      <c r="K16" s="105" t="s">
-        <v>471</v>
-      </c>
       <c r="L16" s="105" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M16" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N16" s="109">
         <v>3000</v>
       </c>
       <c r="P16" s="116"/>
       <c r="V16" s="13" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="W16" s="13">
         <v>13</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="Z16" s="13">
         <v>1500</v>
@@ -11070,11 +10632,11 @@
       <c r="AD16" s="118">
         <v>45587</v>
       </c>
-      <c r="AE16" s="13">
-        <v>10013</v>
+      <c r="AE16" s="137" t="s">
+        <v>938</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AG16" s="13">
         <v>1500</v>
@@ -11083,85 +10645,54 @@
         <v>8</v>
       </c>
       <c r="AI16" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK16">
-        <v>13</v>
-      </c>
-      <c r="AL16" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/22'</v>
-      </c>
-      <c r="AM16" t="str">
-        <f t="shared" si="1"/>
-        <v>'10013'</v>
-      </c>
-      <c r="AN16" t="str">
-        <f t="shared" si="2"/>
-        <v>'l0013'</v>
-      </c>
-      <c r="AO16">
-        <v>1552</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AQ16" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR16" t="str">
-        <f t="shared" si="5"/>
-        <v>(13,'2024/10/22','10013','l0013',1552,8,'02'),</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK16" s="115"/>
+      <c r="AP16" s="126"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B17" s="100" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C17" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>600</v>
+      </c>
+      <c r="G17" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="H17" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="I17" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="F17" s="100" t="s">
-        <v>603</v>
-      </c>
-      <c r="G17" s="98" t="s">
+      <c r="J17" s="105" t="s">
+        <v>655</v>
+      </c>
+      <c r="K17" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="L17" s="105" t="s">
         <v>476</v>
       </c>
-      <c r="I17" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="J17" s="105" t="s">
-        <v>658</v>
-      </c>
-      <c r="K17" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="L17" s="105" t="s">
-        <v>479</v>
-      </c>
       <c r="M17" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N17" s="109">
         <v>470</v>
       </c>
       <c r="P17" s="116"/>
       <c r="V17" s="13" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="W17" s="13">
         <v>21</v>
@@ -11170,7 +10701,7 @@
         <v>92</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="Z17" s="13">
         <v>600</v>
@@ -11184,11 +10715,11 @@
       <c r="AD17" s="118">
         <v>45588</v>
       </c>
-      <c r="AE17" s="13">
-        <v>10014</v>
+      <c r="AE17" s="137" t="s">
+        <v>939</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="AG17" s="13">
         <v>600</v>
@@ -11197,85 +10728,54 @@
         <v>12</v>
       </c>
       <c r="AI17" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK17">
-        <v>14</v>
-      </c>
-      <c r="AL17" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/23'</v>
-      </c>
-      <c r="AM17" t="str">
-        <f t="shared" si="1"/>
-        <v>'10014'</v>
-      </c>
-      <c r="AN17" t="str">
-        <f t="shared" si="2"/>
-        <v>'m0014'</v>
-      </c>
-      <c r="AO17">
-        <v>1553</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="AQ17" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR17" t="str">
-        <f t="shared" si="5"/>
-        <v>(14,'2024/10/23','10014','m0014',1553,12,'02'),</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK17" s="115"/>
+      <c r="AP17" s="126"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B18" s="100" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C18" s="95" t="s">
+        <v>477</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="H18" s="98" t="s">
         <v>481</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="I18" s="98" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="100" t="s">
-        <v>608</v>
-      </c>
-      <c r="G18" s="98" t="s">
+      <c r="J18" s="105" t="s">
+        <v>656</v>
+      </c>
+      <c r="K18" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="L18" s="105" t="s">
         <v>484</v>
       </c>
-      <c r="I18" s="98" t="s">
-        <v>485</v>
-      </c>
-      <c r="J18" s="105" t="s">
-        <v>659</v>
-      </c>
-      <c r="K18" s="105" t="s">
-        <v>486</v>
-      </c>
-      <c r="L18" s="105" t="s">
-        <v>487</v>
-      </c>
       <c r="M18" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N18" s="109">
         <v>5200</v>
       </c>
       <c r="P18" s="116"/>
       <c r="V18" s="13" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="W18" s="13">
         <v>22</v>
@@ -11284,7 +10784,7 @@
         <v>87</v>
       </c>
       <c r="Y18" s="13" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="Z18" s="13">
         <v>450</v>
@@ -11298,11 +10798,11 @@
       <c r="AD18" s="118">
         <v>45589</v>
       </c>
-      <c r="AE18" s="13">
-        <v>10015</v>
+      <c r="AE18" s="137" t="s">
+        <v>940</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="AG18" s="13">
         <v>450</v>
@@ -11311,94 +10811,63 @@
         <v>18</v>
       </c>
       <c r="AI18" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK18">
-        <v>15</v>
-      </c>
-      <c r="AL18" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/24'</v>
-      </c>
-      <c r="AM18" t="str">
-        <f t="shared" si="1"/>
-        <v>'10015'</v>
-      </c>
-      <c r="AN18" t="str">
-        <f t="shared" si="2"/>
-        <v>'n0015'</v>
-      </c>
-      <c r="AO18">
-        <v>1554</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="AQ18" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR18" t="str">
-        <f t="shared" si="5"/>
-        <v>(15,'2024/10/24','10015','n0015',1554,18,'03'),</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK18" s="115"/>
+      <c r="AP18" s="126"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B19" s="100" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C19" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>597</v>
+      </c>
+      <c r="G19" s="98" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="H19" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="I19" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="F19" s="100" t="s">
-        <v>600</v>
-      </c>
-      <c r="G19" s="98" t="s">
+      <c r="J19" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="K19" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="L19" s="105" t="s">
         <v>492</v>
       </c>
-      <c r="I19" s="98" t="s">
-        <v>493</v>
-      </c>
-      <c r="J19" s="105" t="s">
-        <v>660</v>
-      </c>
-      <c r="K19" s="105" t="s">
-        <v>494</v>
-      </c>
-      <c r="L19" s="105" t="s">
-        <v>495</v>
-      </c>
       <c r="M19" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N19" s="109">
         <v>800</v>
       </c>
       <c r="P19" s="116"/>
       <c r="V19" s="13" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="W19" s="13">
         <v>12</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="Z19" s="13">
         <v>550</v>
@@ -11412,11 +10881,11 @@
       <c r="AD19" s="118">
         <v>45590</v>
       </c>
-      <c r="AE19" s="13">
-        <v>10016</v>
+      <c r="AE19" s="137" t="s">
+        <v>941</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AG19" s="13">
         <v>550</v>
@@ -11425,94 +10894,63 @@
         <v>7</v>
       </c>
       <c r="AI19" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK19">
-        <v>16</v>
-      </c>
-      <c r="AL19" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/25'</v>
-      </c>
-      <c r="AM19" t="str">
-        <f t="shared" si="1"/>
-        <v>'10016'</v>
-      </c>
-      <c r="AN19" t="str">
-        <f t="shared" si="2"/>
-        <v>'o0016'</v>
-      </c>
-      <c r="AO19">
-        <v>1555</v>
-      </c>
-      <c r="AP19">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AQ19" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR19" t="str">
-        <f t="shared" si="5"/>
-        <v>(16,'2024/10/25','10016','o0016',1555,7,'03'),</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK19" s="115"/>
+      <c r="AP19" s="126"/>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B20" s="100" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C20" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>606</v>
+      </c>
+      <c r="G20" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="H20" s="98" t="s">
         <v>497</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="I20" s="98" t="s">
         <v>498</v>
       </c>
-      <c r="F20" s="100" t="s">
-        <v>609</v>
-      </c>
-      <c r="G20" s="98" t="s">
+      <c r="J20" s="105" t="s">
+        <v>658</v>
+      </c>
+      <c r="K20" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="H20" s="98" t="s">
-        <v>500</v>
-      </c>
-      <c r="I20" s="98" t="s">
-        <v>501</v>
-      </c>
-      <c r="J20" s="105" t="s">
-        <v>661</v>
-      </c>
-      <c r="K20" s="105" t="s">
-        <v>502</v>
-      </c>
       <c r="L20" s="105" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M20" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N20" s="109">
         <v>1600</v>
       </c>
       <c r="P20" s="116"/>
       <c r="V20" s="13" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="W20" s="13">
         <v>15</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="Z20" s="13">
         <v>2800</v>
@@ -11526,11 +10964,11 @@
       <c r="AD20" s="118">
         <v>45591</v>
       </c>
-      <c r="AE20" s="13">
-        <v>10017</v>
+      <c r="AE20" s="137" t="s">
+        <v>942</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AG20" s="13">
         <v>2800</v>
@@ -11539,94 +10977,63 @@
         <v>3</v>
       </c>
       <c r="AI20" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK20">
-        <v>17</v>
-      </c>
-      <c r="AL20" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/26'</v>
-      </c>
-      <c r="AM20" t="str">
-        <f t="shared" si="1"/>
-        <v>'10017'</v>
-      </c>
-      <c r="AN20" t="str">
-        <f t="shared" si="2"/>
-        <v>'p0017'</v>
-      </c>
-      <c r="AO20">
-        <v>1556</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AQ20" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR20" t="str">
-        <f t="shared" si="5"/>
-        <v>(17,'2024/10/26','10017','p0017',1556,3,'03'),</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK20" s="115"/>
+      <c r="AP20" s="126"/>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B21" s="100" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C21" s="95" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>501</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>502</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>605</v>
+      </c>
+      <c r="G21" s="98" t="s">
         <v>503</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="H21" s="98" t="s">
         <v>504</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="I21" s="98" t="s">
         <v>505</v>
       </c>
-      <c r="F21" s="100" t="s">
-        <v>608</v>
-      </c>
-      <c r="G21" s="98" t="s">
+      <c r="J21" s="105" t="s">
+        <v>659</v>
+      </c>
+      <c r="K21" s="105" t="s">
         <v>506</v>
       </c>
-      <c r="H21" s="98" t="s">
-        <v>507</v>
-      </c>
-      <c r="I21" s="98" t="s">
-        <v>508</v>
-      </c>
-      <c r="J21" s="105" t="s">
-        <v>662</v>
-      </c>
-      <c r="K21" s="105" t="s">
-        <v>509</v>
-      </c>
       <c r="L21" s="105" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M21" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N21" s="109">
         <v>2400</v>
       </c>
       <c r="P21" s="116"/>
       <c r="V21" s="13" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="W21" s="13">
         <v>20</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="Z21" s="13">
         <v>350</v>
@@ -11640,11 +11047,11 @@
       <c r="AD21" s="118">
         <v>45592</v>
       </c>
-      <c r="AE21" s="13">
-        <v>10018</v>
+      <c r="AE21" s="137" t="s">
+        <v>943</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AG21" s="13">
         <v>350</v>
@@ -11653,94 +11060,63 @@
         <v>22</v>
       </c>
       <c r="AI21" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK21">
-        <v>18</v>
-      </c>
-      <c r="AL21" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/27'</v>
-      </c>
-      <c r="AM21" t="str">
-        <f t="shared" si="1"/>
-        <v>'10018'</v>
-      </c>
-      <c r="AN21" t="str">
-        <f t="shared" si="2"/>
-        <v>'q0018'</v>
-      </c>
-      <c r="AO21">
-        <v>1557</v>
-      </c>
-      <c r="AP21">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="AQ21" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR21" t="str">
-        <f t="shared" si="5"/>
-        <v>(18,'2024/10/27','10018','q0018',1557,22,'03'),</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK21" s="115"/>
+      <c r="AP21" s="126"/>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B22" s="100" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C22" s="95" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>508</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" s="98" t="s">
         <v>510</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="H22" s="98" t="s">
         <v>511</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="I22" s="98" t="s">
         <v>512</v>
       </c>
-      <c r="F22" s="100" t="s">
-        <v>610</v>
-      </c>
-      <c r="G22" s="98" t="s">
+      <c r="J22" s="105" t="s">
+        <v>661</v>
+      </c>
+      <c r="K22" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="L22" s="105" t="s">
         <v>514</v>
       </c>
-      <c r="I22" s="98" t="s">
-        <v>515</v>
-      </c>
-      <c r="J22" s="105" t="s">
-        <v>664</v>
-      </c>
-      <c r="K22" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="L22" s="105" t="s">
-        <v>517</v>
-      </c>
       <c r="M22" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N22" s="109">
         <v>920</v>
       </c>
       <c r="P22" s="116"/>
       <c r="V22" s="13" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="W22" s="13">
         <v>13</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="Y22" s="13" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="Z22" s="13">
         <v>750</v>
@@ -11754,11 +11130,11 @@
       <c r="AD22" s="118">
         <v>45593</v>
       </c>
-      <c r="AE22" s="13">
-        <v>10019</v>
+      <c r="AE22" s="137" t="s">
+        <v>944</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AG22" s="13">
         <v>750</v>
@@ -11767,94 +11143,63 @@
         <v>14</v>
       </c>
       <c r="AI22" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK22">
-        <v>19</v>
-      </c>
-      <c r="AL22" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/28'</v>
-      </c>
-      <c r="AM22" t="str">
-        <f t="shared" si="1"/>
-        <v>'10019'</v>
-      </c>
-      <c r="AN22" t="str">
-        <f t="shared" si="2"/>
-        <v>'r0019'</v>
-      </c>
-      <c r="AO22">
-        <v>1558</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="AQ22" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR22" t="str">
-        <f t="shared" si="5"/>
-        <v>(19,'2024/10/28','10019','r0019',1558,14,'02'),</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK22" s="115"/>
+      <c r="AP22" s="126"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B23" s="100" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C23" s="95" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>608</v>
+      </c>
+      <c r="G23" s="98" t="s">
         <v>518</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="H23" s="98" t="s">
         <v>519</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="I23" s="98" t="s">
         <v>520</v>
       </c>
-      <c r="F23" s="100" t="s">
-        <v>611</v>
-      </c>
-      <c r="G23" s="98" t="s">
+      <c r="J23" s="105" t="s">
+        <v>662</v>
+      </c>
+      <c r="K23" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="H23" s="98" t="s">
+      <c r="L23" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="I23" s="98" t="s">
-        <v>523</v>
-      </c>
-      <c r="J23" s="105" t="s">
-        <v>665</v>
-      </c>
-      <c r="K23" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="L23" s="105" t="s">
-        <v>525</v>
-      </c>
       <c r="M23" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N23" s="109">
         <v>3400</v>
       </c>
       <c r="P23" s="116"/>
       <c r="V23" s="13" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="W23" s="13">
         <v>13</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="Y23" s="13" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="Z23" s="13">
         <v>850</v>
@@ -11868,11 +11213,11 @@
       <c r="AD23" s="118">
         <v>45594</v>
       </c>
-      <c r="AE23" s="13">
-        <v>10020</v>
+      <c r="AE23" s="137" t="s">
+        <v>945</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AG23" s="13">
         <v>850</v>
@@ -11881,93 +11226,62 @@
         <v>9</v>
       </c>
       <c r="AI23" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK23">
-        <v>20</v>
-      </c>
-      <c r="AL23" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/29'</v>
-      </c>
-      <c r="AM23" t="str">
-        <f t="shared" si="1"/>
-        <v>'10020'</v>
-      </c>
-      <c r="AN23" t="str">
-        <f t="shared" si="2"/>
-        <v>'s0020'</v>
-      </c>
-      <c r="AO23">
-        <v>1559</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="AQ23" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR23" t="str">
-        <f t="shared" si="5"/>
-        <v>(20,'2024/10/29','10020','s0020',1559,9,'01'),</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK23" s="115"/>
+      <c r="AP23" s="126"/>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B24" s="100" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C24" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>526</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>609</v>
+      </c>
+      <c r="G24" s="98" t="s">
         <v>527</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="H24" s="98" t="s">
         <v>528</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="I24" s="98" t="s">
         <v>529</v>
       </c>
-      <c r="F24" s="100" t="s">
-        <v>612</v>
-      </c>
-      <c r="G24" s="98" t="s">
+      <c r="J24" s="105" t="s">
+        <v>618</v>
+      </c>
+      <c r="K24" s="105" t="s">
         <v>530</v>
       </c>
-      <c r="H24" s="98" t="s">
-        <v>531</v>
-      </c>
-      <c r="I24" s="98" t="s">
-        <v>532</v>
-      </c>
-      <c r="J24" s="105" t="s">
-        <v>621</v>
-      </c>
-      <c r="K24" s="105" t="s">
-        <v>533</v>
-      </c>
       <c r="L24" s="105" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M24" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N24" s="109">
         <v>1500</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="W24" s="13">
         <v>11</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="Y24" s="13" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="Z24" s="13">
         <v>3200</v>
@@ -11981,11 +11295,11 @@
       <c r="AD24" s="118">
         <v>45595</v>
       </c>
-      <c r="AE24" s="13">
-        <v>10021</v>
+      <c r="AE24" s="137" t="s">
+        <v>946</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AG24" s="13">
         <v>3200</v>
@@ -11994,93 +11308,62 @@
         <v>2</v>
       </c>
       <c r="AI24" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK24">
-        <v>21</v>
-      </c>
-      <c r="AL24" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/30'</v>
-      </c>
-      <c r="AM24" t="str">
-        <f t="shared" si="1"/>
-        <v>'10021'</v>
-      </c>
-      <c r="AN24" t="str">
-        <f t="shared" si="2"/>
-        <v>'t0021'</v>
-      </c>
-      <c r="AO24">
-        <v>1560</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AQ24" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR24" t="str">
-        <f t="shared" si="5"/>
-        <v>(21,'2024/10/30','10021','t0021',1560,2,'03'),</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK24" s="115"/>
+      <c r="AP24" s="126"/>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B25" s="100" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C25" s="95" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>532</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>533</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>610</v>
+      </c>
+      <c r="G25" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="H25" s="98" t="s">
         <v>535</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="I25" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="F25" s="100" t="s">
-        <v>613</v>
-      </c>
-      <c r="G25" s="98" t="s">
+      <c r="J25" s="105" t="s">
+        <v>620</v>
+      </c>
+      <c r="K25" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="H25" s="98" t="s">
+      <c r="L25" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="I25" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J25" s="105" t="s">
-        <v>623</v>
-      </c>
-      <c r="K25" s="105" t="s">
-        <v>540</v>
-      </c>
-      <c r="L25" s="105" t="s">
-        <v>541</v>
-      </c>
       <c r="M25" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N25" s="109">
         <v>800</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="W25" s="13">
         <v>13</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="Y25" s="13" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Z25" s="13">
         <v>2500</v>
@@ -12094,11 +11377,11 @@
       <c r="AD25" s="118">
         <v>45596</v>
       </c>
-      <c r="AE25" s="13">
-        <v>10022</v>
+      <c r="AE25" s="137" t="s">
+        <v>947</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AG25" s="13">
         <v>2500</v>
@@ -12107,93 +11390,62 @@
         <v>5</v>
       </c>
       <c r="AI25" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK25">
-        <v>22</v>
-      </c>
-      <c r="AL25" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/10/31'</v>
-      </c>
-      <c r="AM25" t="str">
-        <f t="shared" si="1"/>
-        <v>'10022'</v>
-      </c>
-      <c r="AN25" t="str">
-        <f t="shared" si="2"/>
-        <v>'u0022'</v>
-      </c>
-      <c r="AO25">
-        <v>1561</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AQ25" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR25" t="str">
-        <f t="shared" si="5"/>
-        <v>(22,'2024/10/31','10022','u0022',1561,5,'02'),</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK25" s="115"/>
+      <c r="AP25" s="126"/>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B26" s="100" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C26" s="95" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>540</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>541</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>611</v>
+      </c>
+      <c r="G26" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="H26" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="I26" s="98" t="s">
         <v>544</v>
       </c>
-      <c r="F26" s="100" t="s">
-        <v>614</v>
-      </c>
-      <c r="G26" s="98" t="s">
+      <c r="J26" s="105" t="s">
+        <v>621</v>
+      </c>
+      <c r="K26" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="H26" s="98" t="s">
-        <v>546</v>
-      </c>
-      <c r="I26" s="98" t="s">
-        <v>547</v>
-      </c>
-      <c r="J26" s="105" t="s">
-        <v>624</v>
-      </c>
-      <c r="K26" s="105" t="s">
-        <v>548</v>
-      </c>
       <c r="L26" s="105" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M26" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N26" s="109">
         <v>3100</v>
       </c>
       <c r="V26" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="W26" s="13">
         <v>13</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="Y26" s="13" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="Z26" s="13">
         <v>1800</v>
@@ -12207,11 +11459,11 @@
       <c r="AD26" s="118">
         <v>45597</v>
       </c>
-      <c r="AE26" s="13">
-        <v>10023</v>
+      <c r="AE26" s="137" t="s">
+        <v>948</v>
       </c>
       <c r="AF26" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="AG26" s="13">
         <v>1800</v>
@@ -12220,93 +11472,62 @@
         <v>6</v>
       </c>
       <c r="AI26" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AK26">
-        <v>23</v>
-      </c>
-      <c r="AL26" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/01'</v>
-      </c>
-      <c r="AM26" t="str">
-        <f t="shared" si="1"/>
-        <v>'10023'</v>
-      </c>
-      <c r="AN26" t="str">
-        <f t="shared" si="2"/>
-        <v>'v0023'</v>
-      </c>
-      <c r="AO26">
-        <v>1562</v>
-      </c>
-      <c r="AP26">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AQ26" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'03'</v>
-      </c>
-      <c r="AR26" t="str">
-        <f t="shared" si="5"/>
-        <v>(23,'2024/11/01','10023','v0023',1562,6,'03'),</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+      <c r="AK26" s="115"/>
+      <c r="AP26" s="126"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B27" s="100" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C27" s="95" t="s">
+        <v>546</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>547</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>612</v>
+      </c>
+      <c r="G27" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="H27" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="I27" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="F27" s="100" t="s">
-        <v>615</v>
-      </c>
-      <c r="G27" s="98" t="s">
+      <c r="J27" s="105" t="s">
+        <v>623</v>
+      </c>
+      <c r="K27" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="H27" s="98" t="s">
+      <c r="L27" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="I27" s="98" t="s">
-        <v>554</v>
-      </c>
-      <c r="J27" s="105" t="s">
-        <v>626</v>
-      </c>
-      <c r="K27" s="105" t="s">
-        <v>555</v>
-      </c>
-      <c r="L27" s="105" t="s">
-        <v>556</v>
-      </c>
       <c r="M27" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N27" s="109">
         <v>4000</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="W27" s="13">
         <v>21</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="Y27" s="13" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="Z27" s="13">
         <v>850</v>
@@ -12320,11 +11541,11 @@
       <c r="AD27" s="118">
         <v>45598</v>
       </c>
-      <c r="AE27" s="13">
-        <v>10024</v>
+      <c r="AE27" s="137" t="s">
+        <v>949</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AG27" s="13">
         <v>850</v>
@@ -12333,93 +11554,62 @@
         <v>10</v>
       </c>
       <c r="AI27" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK27">
-        <v>24</v>
-      </c>
-      <c r="AL27" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/02'</v>
-      </c>
-      <c r="AM27" t="str">
-        <f t="shared" si="1"/>
-        <v>'10024'</v>
-      </c>
-      <c r="AN27" t="str">
-        <f t="shared" si="2"/>
-        <v>'w0024'</v>
-      </c>
-      <c r="AO27">
-        <v>1563</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AQ27" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR27" t="str">
-        <f t="shared" si="5"/>
-        <v>(24,'2024/11/02','10024','w0024',1563,10,'02'),</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK27" s="115"/>
+      <c r="AP27" s="126"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B28" s="100" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C28" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E28" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>613</v>
+      </c>
+      <c r="G28" s="98" t="s">
         <v>557</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="H28" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="I28" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="F28" s="100" t="s">
-        <v>616</v>
-      </c>
-      <c r="G28" s="98" t="s">
+      <c r="J28" s="105" t="s">
+        <v>624</v>
+      </c>
+      <c r="K28" s="105" t="s">
         <v>560</v>
       </c>
-      <c r="H28" s="98" t="s">
-        <v>561</v>
-      </c>
-      <c r="I28" s="98" t="s">
-        <v>562</v>
-      </c>
-      <c r="J28" s="105" t="s">
-        <v>627</v>
-      </c>
-      <c r="K28" s="105" t="s">
-        <v>563</v>
-      </c>
       <c r="L28" s="105" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M28" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N28" s="109">
         <v>1200</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="W28" s="13">
         <v>22</v>
       </c>
       <c r="X28" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y28" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="Y28" s="13" t="s">
-        <v>1027</v>
       </c>
       <c r="Z28" s="13">
         <v>500</v>
@@ -12433,11 +11623,11 @@
       <c r="AD28" s="118">
         <v>45599</v>
       </c>
-      <c r="AE28" s="13">
-        <v>10025</v>
+      <c r="AE28" s="137" t="s">
+        <v>950</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="AG28" s="13">
         <v>500</v>
@@ -12446,84 +11636,53 @@
         <v>15</v>
       </c>
       <c r="AI28" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK28">
-        <v>25</v>
-      </c>
-      <c r="AL28" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/03'</v>
-      </c>
-      <c r="AM28" t="str">
-        <f t="shared" si="1"/>
-        <v>'10025'</v>
-      </c>
-      <c r="AN28" t="str">
-        <f t="shared" si="2"/>
-        <v>'x0025'</v>
-      </c>
-      <c r="AO28">
-        <v>1564</v>
-      </c>
-      <c r="AP28">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="AQ28" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR28" t="str">
-        <f t="shared" si="5"/>
-        <v>(25,'2024/11/03','10025','x0025',1564,15,'01'),</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK28" s="115"/>
+      <c r="AP28" s="126"/>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B29" s="100" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C29" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="F29" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="G29" s="98" t="s">
         <v>564</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="H29" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="I29" s="98" t="s">
         <v>566</v>
       </c>
-      <c r="F29" s="100" t="s">
-        <v>617</v>
-      </c>
-      <c r="G29" s="98" t="s">
+      <c r="J29" s="105" t="s">
+        <v>626</v>
+      </c>
+      <c r="K29" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="L29" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="I29" s="98" t="s">
-        <v>569</v>
-      </c>
-      <c r="J29" s="105" t="s">
-        <v>629</v>
-      </c>
-      <c r="K29" s="105" t="s">
-        <v>570</v>
-      </c>
-      <c r="L29" s="105" t="s">
-        <v>571</v>
-      </c>
       <c r="M29" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N29" s="109">
         <v>700</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="W29" s="13">
         <v>12</v>
@@ -12532,7 +11691,7 @@
         <v>97</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="Z29" s="13">
         <v>750</v>
@@ -12546,11 +11705,11 @@
       <c r="AD29" s="118">
         <v>45600</v>
       </c>
-      <c r="AE29" s="13">
-        <v>10026</v>
+      <c r="AE29" s="137" t="s">
+        <v>951</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AG29" s="13">
         <v>750</v>
@@ -12559,93 +11718,62 @@
         <v>20</v>
       </c>
       <c r="AI29" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK29">
-        <v>26</v>
-      </c>
-      <c r="AL29" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/04'</v>
-      </c>
-      <c r="AM29" t="str">
-        <f t="shared" si="1"/>
-        <v>'10026'</v>
-      </c>
-      <c r="AN29" t="str">
-        <f t="shared" si="2"/>
-        <v>'y0026'</v>
-      </c>
-      <c r="AO29">
-        <v>1565</v>
-      </c>
-      <c r="AP29">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AQ29" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR29" t="str">
-        <f t="shared" si="5"/>
-        <v>(26,'2024/11/04','10026','y0026',1565,20,'01'),</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK29" s="115"/>
+      <c r="AP29" s="126"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C30" s="95" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>570</v>
+      </c>
+      <c r="E30" s="98" t="s">
+        <v>571</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>615</v>
+      </c>
+      <c r="G30" s="98" t="s">
         <v>572</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="H30" s="98" t="s">
         <v>573</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="I30" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J30" s="105" t="s">
+        <v>627</v>
+      </c>
+      <c r="K30" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="F30" s="100" t="s">
-        <v>618</v>
-      </c>
-      <c r="G30" s="98" t="s">
-        <v>575</v>
-      </c>
-      <c r="H30" s="98" t="s">
-        <v>576</v>
-      </c>
-      <c r="I30" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J30" s="105" t="s">
-        <v>630</v>
-      </c>
-      <c r="K30" s="105" t="s">
-        <v>577</v>
-      </c>
       <c r="L30" s="105" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M30" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N30" s="109">
         <v>1100</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="W30" s="13">
         <v>15</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Z30" s="13">
         <v>3000</v>
@@ -12659,11 +11787,11 @@
       <c r="AD30" s="118">
         <v>45601</v>
       </c>
-      <c r="AE30" s="13">
-        <v>10027</v>
+      <c r="AE30" s="137" t="s">
+        <v>952</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="AG30" s="13">
         <v>3000</v>
@@ -12672,93 +11800,62 @@
         <v>3</v>
       </c>
       <c r="AI30" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK30">
-        <v>27</v>
-      </c>
-      <c r="AL30" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/05'</v>
-      </c>
-      <c r="AM30" t="str">
-        <f t="shared" si="1"/>
-        <v>'10027'</v>
-      </c>
-      <c r="AN30" t="str">
-        <f t="shared" si="2"/>
-        <v>'z0027'</v>
-      </c>
-      <c r="AO30">
-        <v>1566</v>
-      </c>
-      <c r="AP30">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AQ30" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR30" t="str">
-        <f t="shared" si="5"/>
-        <v>(27,'2024/11/05','10027','z0027',1566,3,'01'),</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK30" s="115"/>
+      <c r="AP30" s="126"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B31" s="100" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C31" s="95" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>576</v>
+      </c>
+      <c r="E31" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="F31" s="100" t="s">
+        <v>616</v>
+      </c>
+      <c r="G31" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="H31" s="98" t="s">
         <v>579</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="I31" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J31" s="105" t="s">
+        <v>629</v>
+      </c>
+      <c r="K31" s="105" t="s">
         <v>580</v>
       </c>
-      <c r="F31" s="100" t="s">
-        <v>619</v>
-      </c>
-      <c r="G31" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="H31" s="98" t="s">
-        <v>582</v>
-      </c>
-      <c r="I31" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J31" s="105" t="s">
-        <v>632</v>
-      </c>
-      <c r="K31" s="105" t="s">
-        <v>583</v>
-      </c>
       <c r="L31" s="105" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M31" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N31" s="109">
         <v>520</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="W31" s="13">
         <v>20</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="Z31" s="13">
         <v>400</v>
@@ -12772,11 +11869,11 @@
       <c r="AD31" s="118">
         <v>45602</v>
       </c>
-      <c r="AE31" s="13">
-        <v>10028</v>
+      <c r="AE31" s="137" t="s">
+        <v>953</v>
       </c>
       <c r="AF31" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="AG31" s="13">
         <v>400</v>
@@ -12785,84 +11882,53 @@
         <v>28</v>
       </c>
       <c r="AI31" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK31">
-        <v>28</v>
-      </c>
-      <c r="AL31" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/06'</v>
-      </c>
-      <c r="AM31" t="str">
-        <f t="shared" si="1"/>
-        <v>'10028'</v>
-      </c>
-      <c r="AN31" t="str">
-        <f t="shared" si="2"/>
-        <v>'a0028'</v>
-      </c>
-      <c r="AO31">
-        <v>1567</v>
-      </c>
-      <c r="AP31">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AQ31" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR31" t="str">
-        <f t="shared" si="5"/>
-        <v>(28,'2024/11/06','10028','a0028',1567,28,'01'),</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK31" s="115"/>
+      <c r="AP31" s="126"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B32" s="100" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C32" s="95" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32" s="95" t="s">
+        <v>582</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>583</v>
+      </c>
+      <c r="F32" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="G32" s="98" t="s">
         <v>584</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="H32" s="98" t="s">
         <v>585</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="I32" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J32" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K32" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="F32" s="100" t="s">
-        <v>617</v>
-      </c>
-      <c r="G32" s="98" t="s">
-        <v>587</v>
-      </c>
-      <c r="H32" s="98" t="s">
-        <v>588</v>
-      </c>
-      <c r="I32" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J32" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K32" s="105" t="s">
-        <v>589</v>
-      </c>
       <c r="L32" s="105" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M32" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N32" s="109">
         <v>2100</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="W32" s="13">
         <v>13</v>
@@ -12871,7 +11937,7 @@
         <v>74</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Z32" s="13">
         <v>2500</v>
@@ -12885,11 +11951,11 @@
       <c r="AD32" s="118">
         <v>45603</v>
       </c>
-      <c r="AE32" s="13">
-        <v>10029</v>
+      <c r="AE32" s="137" t="s">
+        <v>954</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AG32" s="13">
         <v>2500</v>
@@ -12898,84 +11964,53 @@
         <v>5</v>
       </c>
       <c r="AI32" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK32">
-        <v>29</v>
-      </c>
-      <c r="AL32" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/07'</v>
-      </c>
-      <c r="AM32" t="str">
-        <f t="shared" si="1"/>
-        <v>'10029'</v>
-      </c>
-      <c r="AN32" t="str">
-        <f t="shared" si="2"/>
-        <v>'b0029'</v>
-      </c>
-      <c r="AO32">
-        <v>1568</v>
-      </c>
-      <c r="AP32">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AQ32" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'01'</v>
-      </c>
-      <c r="AR32" t="str">
-        <f t="shared" si="5"/>
-        <v>(29,'2024/11/07','10029','b0029',1568,5,'01'),</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+      <c r="AK32" s="115"/>
+      <c r="AP32" s="126"/>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B33" s="100" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C33" s="95" t="s">
+        <v>587</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>617</v>
+      </c>
+      <c r="G33" s="98" t="s">
+        <v>589</v>
+      </c>
+      <c r="H33" s="98" t="s">
         <v>590</v>
       </c>
-      <c r="D33" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E33" s="98" t="s">
+      <c r="I33" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J33" s="105" t="s">
+        <v>632</v>
+      </c>
+      <c r="K33" s="105" t="s">
         <v>591</v>
       </c>
-      <c r="F33" s="100" t="s">
-        <v>620</v>
-      </c>
-      <c r="G33" s="98" t="s">
-        <v>592</v>
-      </c>
-      <c r="H33" s="98" t="s">
-        <v>593</v>
-      </c>
-      <c r="I33" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J33" s="105" t="s">
-        <v>635</v>
-      </c>
-      <c r="K33" s="105" t="s">
-        <v>594</v>
-      </c>
       <c r="L33" s="105" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M33" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N33" s="109">
         <v>3000</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="W33" s="13">
         <v>13</v>
@@ -12984,7 +12019,7 @@
         <v>109</v>
       </c>
       <c r="Y33" s="13" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="Z33" s="13">
         <v>1700</v>
@@ -12998,11 +12033,11 @@
       <c r="AD33" s="118">
         <v>45604</v>
       </c>
-      <c r="AE33" s="13">
-        <v>10030</v>
+      <c r="AE33" s="137" t="s">
+        <v>955</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AG33" s="13">
         <v>1700</v>
@@ -13011,2120 +12046,2089 @@
         <v>7</v>
       </c>
       <c r="AI33" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AK33">
-        <v>30</v>
-      </c>
-      <c r="AL33" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>'2024/11/08'</v>
-      </c>
-      <c r="AM33" t="str">
-        <f t="shared" si="1"/>
-        <v>'10030'</v>
-      </c>
-      <c r="AN33" t="str">
-        <f t="shared" si="2"/>
-        <v>'c0030'</v>
-      </c>
-      <c r="AO33">
-        <v>1569</v>
-      </c>
-      <c r="AP33">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AQ33" s="126" t="str">
-        <f t="shared" si="4"/>
-        <v>'02'</v>
-      </c>
-      <c r="AR33" t="str">
-        <f t="shared" si="5"/>
-        <v>(30,'2024/11/08','10030','c0030',1569,7,'02'),</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+      <c r="AK33" s="115"/>
+      <c r="AP33" s="126"/>
+    </row>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B34" s="95" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="D34" s="95" t="s">
+        <v>665</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>876</v>
+      </c>
+      <c r="F34" s="100" t="s">
         <v>666</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="G34" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="H34" s="98" t="s">
         <v>668</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="I34" s="98" t="s">
+        <v>544</v>
+      </c>
+      <c r="J34" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="K34" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="L34" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="M34" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="N34" s="109" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B35" s="95" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>672</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>877</v>
+      </c>
+      <c r="F35" s="100" t="s">
+        <v>673</v>
+      </c>
+      <c r="G35" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="H35" s="98" t="s">
+        <v>675</v>
+      </c>
+      <c r="I35" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J35" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="K35" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="L35" s="105" t="s">
+        <v>678</v>
+      </c>
+      <c r="M35" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="N35" s="109" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B36" s="95" t="s">
+        <v>680</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>878</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>682</v>
+      </c>
+      <c r="G36" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="H36" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="I36" s="98" t="s">
+        <v>685</v>
+      </c>
+      <c r="J36" s="105" t="s">
+        <v>686</v>
+      </c>
+      <c r="K36" s="105" t="s">
+        <v>687</v>
+      </c>
+      <c r="L36" s="105" t="s">
+        <v>568</v>
+      </c>
+      <c r="M36" s="95" t="s">
+        <v>688</v>
+      </c>
+      <c r="N36" s="109" t="s">
+        <v>689</v>
+      </c>
+      <c r="AD36" s="115"/>
+    </row>
+    <row r="37" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B37" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>691</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" s="98" t="s">
         <v>879</v>
       </c>
-      <c r="F34" s="100" t="s">
+      <c r="F37" s="100" t="s">
+        <v>692</v>
+      </c>
+      <c r="G37" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="H37" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="I37" s="98" t="s">
+        <v>694</v>
+      </c>
+      <c r="J37" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="K37" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="L37" s="105" t="s">
+        <v>697</v>
+      </c>
+      <c r="M37" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="N37" s="109" t="s">
+        <v>698</v>
+      </c>
+      <c r="AD37" s="115"/>
+    </row>
+    <row r="38" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B38" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="D38" s="95" t="s">
+        <v>701</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>880</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>702</v>
+      </c>
+      <c r="G38" s="98" t="s">
+        <v>703</v>
+      </c>
+      <c r="H38" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="I38" s="98" t="s">
+        <v>705</v>
+      </c>
+      <c r="J38" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K38" s="105" t="s">
+        <v>706</v>
+      </c>
+      <c r="L38" s="105" t="s">
+        <v>707</v>
+      </c>
+      <c r="M38" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="N38" s="109" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD38" s="115"/>
+    </row>
+    <row r="39" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B39" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="D39" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>881</v>
+      </c>
+      <c r="F39" s="100" t="s">
+        <v>712</v>
+      </c>
+      <c r="G39" s="98" t="s">
+        <v>713</v>
+      </c>
+      <c r="H39" s="98" t="s">
+        <v>714</v>
+      </c>
+      <c r="I39" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="J39" s="105" t="s">
+        <v>716</v>
+      </c>
+      <c r="K39" s="105" t="s">
+        <v>717</v>
+      </c>
+      <c r="L39" s="105" t="s">
+        <v>718</v>
+      </c>
+      <c r="M39" s="95" t="s">
+        <v>688</v>
+      </c>
+      <c r="N39" s="109" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD39" s="115"/>
+    </row>
+    <row r="40" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B40" s="95" t="s">
+        <v>720</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="D40" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E40" s="98" t="s">
+        <v>882</v>
+      </c>
+      <c r="F40" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="G40" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="H40" s="98" t="s">
+        <v>724</v>
+      </c>
+      <c r="I40" s="98" t="s">
+        <v>725</v>
+      </c>
+      <c r="J40" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="K40" s="105" t="s">
+        <v>727</v>
+      </c>
+      <c r="L40" s="105" t="s">
+        <v>728</v>
+      </c>
+      <c r="M40" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="N40" s="109" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD40" s="115"/>
+    </row>
+    <row r="41" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B41" s="95" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="D41" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E41" s="98" t="s">
+        <v>883</v>
+      </c>
+      <c r="F41" s="100" t="s">
+        <v>732</v>
+      </c>
+      <c r="G41" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="H41" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="I41" s="98" t="s">
+        <v>734</v>
+      </c>
+      <c r="J41" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K41" s="105" t="s">
+        <v>736</v>
+      </c>
+      <c r="L41" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="M41" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="N41" s="109" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD41" s="115"/>
+    </row>
+    <row r="42" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B42" s="95" t="s">
+        <v>739</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="D42" s="95" t="s">
+        <v>576</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>884</v>
+      </c>
+      <c r="F42" s="100" t="s">
+        <v>740</v>
+      </c>
+      <c r="G42" s="98" t="s">
+        <v>589</v>
+      </c>
+      <c r="H42" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="I42" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J42" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="K42" s="105" t="s">
+        <v>744</v>
+      </c>
+      <c r="L42" s="105" t="s">
+        <v>745</v>
+      </c>
+      <c r="M42" s="95" t="s">
+        <v>688</v>
+      </c>
+      <c r="N42" s="109" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD42" s="115"/>
+    </row>
+    <row r="43" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B43" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="D43" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E43" s="98" t="s">
+        <v>885</v>
+      </c>
+      <c r="F43" s="100" t="s">
+        <v>749</v>
+      </c>
+      <c r="G43" s="98" t="s">
+        <v>518</v>
+      </c>
+      <c r="H43" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="I43" s="98" t="s">
+        <v>751</v>
+      </c>
+      <c r="J43" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="K43" s="105" t="s">
+        <v>753</v>
+      </c>
+      <c r="L43" s="105" t="s">
+        <v>754</v>
+      </c>
+      <c r="M43" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="N43" s="109" t="s">
+        <v>755</v>
+      </c>
+      <c r="AD43" s="115"/>
+    </row>
+    <row r="44" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B44" s="95" t="s">
+        <v>756</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="D44" s="95" t="s">
+        <v>665</v>
+      </c>
+      <c r="E44" s="98" t="s">
+        <v>886</v>
+      </c>
+      <c r="F44" s="100" t="s">
+        <v>757</v>
+      </c>
+      <c r="G44" s="98" t="s">
+        <v>667</v>
+      </c>
+      <c r="H44" s="98" t="s">
+        <v>668</v>
+      </c>
+      <c r="I44" s="98" t="s">
+        <v>544</v>
+      </c>
+      <c r="J44" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="K44" s="105" t="s">
         <v>669</v>
       </c>
-      <c r="G34" s="98" t="s">
-        <v>670</v>
-      </c>
-      <c r="H34" s="98" t="s">
-        <v>671</v>
-      </c>
-      <c r="I34" s="98" t="s">
-        <v>547</v>
-      </c>
-      <c r="J34" s="105" t="s">
-        <v>637</v>
-      </c>
-      <c r="K34" s="105" t="s">
+      <c r="L44" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="N44" s="109" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD44" s="115"/>
+    </row>
+    <row r="45" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B45" s="95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C45" s="95" t="s">
         <v>672</v>
       </c>
-      <c r="L34" s="105" t="s">
+      <c r="D45" s="95" t="s">
         <v>385</v>
       </c>
-      <c r="M34" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="N34" s="109" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B35" s="95" t="s">
+      <c r="E45" s="98" t="s">
+        <v>887</v>
+      </c>
+      <c r="F45" s="100" t="s">
+        <v>760</v>
+      </c>
+      <c r="G45" s="98" t="s">
         <v>674</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="H45" s="98" t="s">
         <v>675</v>
       </c>
-      <c r="D35" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E35" s="98" t="s">
-        <v>880</v>
-      </c>
-      <c r="F35" s="100" t="s">
+      <c r="I45" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J45" s="105" t="s">
         <v>676</v>
       </c>
-      <c r="G35" s="98" t="s">
+      <c r="K45" s="105" t="s">
         <v>677</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="L45" s="105" t="s">
         <v>678</v>
       </c>
-      <c r="I35" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J35" s="105" t="s">
-        <v>679</v>
-      </c>
-      <c r="K35" s="105" t="s">
-        <v>680</v>
-      </c>
-      <c r="L35" s="105" t="s">
+      <c r="M45" s="95" t="s">
+        <v>688</v>
+      </c>
+      <c r="N45" s="109" t="s">
+        <v>761</v>
+      </c>
+      <c r="AD45" s="115"/>
+    </row>
+    <row r="46" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B46" s="95" t="s">
+        <v>762</v>
+      </c>
+      <c r="C46" s="95" t="s">
         <v>681</v>
       </c>
-      <c r="M35" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="N35" s="109" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B36" s="95" t="s">
+      <c r="D46" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="98" t="s">
+        <v>888</v>
+      </c>
+      <c r="F46" s="100" t="s">
+        <v>763</v>
+      </c>
+      <c r="G46" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="H46" s="98" t="s">
         <v>684</v>
       </c>
-      <c r="D36" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="E36" s="98" t="s">
-        <v>881</v>
-      </c>
-      <c r="F36" s="100" t="s">
+      <c r="I46" s="98" t="s">
         <v>685</v>
       </c>
-      <c r="G36" s="98" t="s">
+      <c r="J46" s="105" t="s">
         <v>686</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="K46" s="105" t="s">
         <v>687</v>
       </c>
-      <c r="I36" s="98" t="s">
+      <c r="L46" s="105" t="s">
+        <v>568</v>
+      </c>
+      <c r="M46" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="N46" s="109" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD46" s="115"/>
+    </row>
+    <row r="47" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B47" s="95" t="s">
+        <v>765</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>691</v>
+      </c>
+      <c r="D47" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E47" s="98" t="s">
+        <v>889</v>
+      </c>
+      <c r="F47" s="100" t="s">
+        <v>766</v>
+      </c>
+      <c r="G47" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="H47" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="I47" s="98" t="s">
+        <v>694</v>
+      </c>
+      <c r="J47" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="K47" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="L47" s="105" t="s">
+        <v>697</v>
+      </c>
+      <c r="M47" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="N47" s="109" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD47" s="115"/>
+    </row>
+    <row r="48" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B48" s="95" t="s">
+        <v>768</v>
+      </c>
+      <c r="C48" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>701</v>
+      </c>
+      <c r="E48" s="98" t="s">
+        <v>890</v>
+      </c>
+      <c r="F48" s="100" t="s">
+        <v>769</v>
+      </c>
+      <c r="G48" s="98" t="s">
+        <v>703</v>
+      </c>
+      <c r="H48" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="I48" s="98" t="s">
+        <v>705</v>
+      </c>
+      <c r="J48" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K48" s="105" t="s">
+        <v>706</v>
+      </c>
+      <c r="L48" s="105" t="s">
+        <v>707</v>
+      </c>
+      <c r="M48" s="95" t="s">
         <v>688</v>
       </c>
-      <c r="J36" s="105" t="s">
-        <v>689</v>
-      </c>
-      <c r="K36" s="105" t="s">
-        <v>690</v>
-      </c>
-      <c r="L36" s="105" t="s">
-        <v>571</v>
-      </c>
-      <c r="M36" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="N36" s="109" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD36" s="115"/>
-    </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B37" s="95" t="s">
-        <v>693</v>
-      </c>
-      <c r="C37" s="95" t="s">
-        <v>694</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>882</v>
-      </c>
-      <c r="F37" s="100" t="s">
-        <v>695</v>
-      </c>
-      <c r="G37" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="H37" s="98" t="s">
-        <v>696</v>
-      </c>
-      <c r="I37" s="98" t="s">
-        <v>697</v>
-      </c>
-      <c r="J37" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="K37" s="105" t="s">
-        <v>699</v>
-      </c>
-      <c r="L37" s="105" t="s">
-        <v>700</v>
-      </c>
-      <c r="M37" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="N37" s="109" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD37" s="115"/>
-    </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B38" s="95" t="s">
-        <v>702</v>
-      </c>
-      <c r="C38" s="95" t="s">
-        <v>703</v>
-      </c>
-      <c r="D38" s="95" t="s">
-        <v>704</v>
-      </c>
-      <c r="E38" s="98" t="s">
-        <v>883</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="G38" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="H38" s="98" t="s">
-        <v>707</v>
-      </c>
-      <c r="I38" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="J38" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K38" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="L38" s="105" t="s">
-        <v>710</v>
-      </c>
-      <c r="M38" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="N38" s="109" t="s">
-        <v>711</v>
-      </c>
-      <c r="AD38" s="115"/>
-    </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B39" s="95" t="s">
-        <v>712</v>
-      </c>
-      <c r="C39" s="95" t="s">
-        <v>713</v>
-      </c>
-      <c r="D39" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="E39" s="98" t="s">
-        <v>884</v>
-      </c>
-      <c r="F39" s="100" t="s">
-        <v>715</v>
-      </c>
-      <c r="G39" s="98" t="s">
-        <v>716</v>
-      </c>
-      <c r="H39" s="98" t="s">
-        <v>717</v>
-      </c>
-      <c r="I39" s="98" t="s">
-        <v>718</v>
-      </c>
-      <c r="J39" s="105" t="s">
-        <v>719</v>
-      </c>
-      <c r="K39" s="105" t="s">
-        <v>720</v>
-      </c>
-      <c r="L39" s="105" t="s">
-        <v>721</v>
-      </c>
-      <c r="M39" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="N39" s="109" t="s">
-        <v>722</v>
-      </c>
-      <c r="AD39" s="115"/>
-    </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B40" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="C40" s="95" t="s">
-        <v>724</v>
-      </c>
-      <c r="D40" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="E40" s="98" t="s">
-        <v>885</v>
-      </c>
-      <c r="F40" s="100" t="s">
-        <v>725</v>
-      </c>
-      <c r="G40" s="98" t="s">
-        <v>726</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>727</v>
-      </c>
-      <c r="I40" s="98" t="s">
-        <v>728</v>
-      </c>
-      <c r="J40" s="105" t="s">
-        <v>729</v>
-      </c>
-      <c r="K40" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="L40" s="105" t="s">
-        <v>731</v>
-      </c>
-      <c r="M40" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="N40" s="109" t="s">
-        <v>732</v>
-      </c>
-      <c r="AD40" s="115"/>
-    </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B41" s="95" t="s">
-        <v>733</v>
-      </c>
-      <c r="C41" s="95" t="s">
-        <v>734</v>
-      </c>
-      <c r="D41" s="95" t="s">
-        <v>565</v>
-      </c>
-      <c r="E41" s="98" t="s">
-        <v>886</v>
-      </c>
-      <c r="F41" s="100" t="s">
-        <v>735</v>
-      </c>
-      <c r="G41" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="H41" s="98" t="s">
-        <v>736</v>
-      </c>
-      <c r="I41" s="98" t="s">
-        <v>737</v>
-      </c>
-      <c r="J41" s="105" t="s">
-        <v>738</v>
-      </c>
-      <c r="K41" s="105" t="s">
-        <v>739</v>
-      </c>
-      <c r="L41" s="105" t="s">
-        <v>740</v>
-      </c>
-      <c r="M41" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="N41" s="109" t="s">
-        <v>741</v>
-      </c>
-      <c r="AD41" s="115"/>
-    </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B42" s="95" t="s">
-        <v>742</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>527</v>
-      </c>
-      <c r="D42" s="95" t="s">
-        <v>579</v>
-      </c>
-      <c r="E42" s="98" t="s">
-        <v>887</v>
-      </c>
-      <c r="F42" s="100" t="s">
-        <v>743</v>
-      </c>
-      <c r="G42" s="98" t="s">
-        <v>592</v>
-      </c>
-      <c r="H42" s="98" t="s">
-        <v>744</v>
-      </c>
-      <c r="I42" s="98" t="s">
-        <v>745</v>
-      </c>
-      <c r="J42" s="105" t="s">
-        <v>746</v>
-      </c>
-      <c r="K42" s="105" t="s">
-        <v>747</v>
-      </c>
-      <c r="L42" s="105" t="s">
-        <v>748</v>
-      </c>
-      <c r="M42" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="N42" s="109" t="s">
-        <v>749</v>
-      </c>
-      <c r="AD42" s="115"/>
-    </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B43" s="95" t="s">
-        <v>750</v>
-      </c>
-      <c r="C43" s="95" t="s">
-        <v>751</v>
-      </c>
-      <c r="D43" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="E43" s="98" t="s">
-        <v>888</v>
-      </c>
-      <c r="F43" s="100" t="s">
-        <v>752</v>
-      </c>
-      <c r="G43" s="98" t="s">
-        <v>521</v>
-      </c>
-      <c r="H43" s="98" t="s">
-        <v>753</v>
-      </c>
-      <c r="I43" s="98" t="s">
-        <v>754</v>
-      </c>
-      <c r="J43" s="105" t="s">
-        <v>755</v>
-      </c>
-      <c r="K43" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="L43" s="105" t="s">
-        <v>757</v>
-      </c>
-      <c r="M43" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="N43" s="109" t="s">
-        <v>758</v>
-      </c>
-      <c r="AD43" s="115"/>
-    </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B44" s="95" t="s">
-        <v>759</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>667</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>668</v>
-      </c>
-      <c r="E44" s="98" t="s">
-        <v>889</v>
-      </c>
-      <c r="F44" s="100" t="s">
-        <v>760</v>
-      </c>
-      <c r="G44" s="98" t="s">
-        <v>670</v>
-      </c>
-      <c r="H44" s="98" t="s">
-        <v>671</v>
-      </c>
-      <c r="I44" s="98" t="s">
-        <v>547</v>
-      </c>
-      <c r="J44" s="105" t="s">
-        <v>637</v>
-      </c>
-      <c r="K44" s="105" t="s">
-        <v>672</v>
-      </c>
-      <c r="L44" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="M44" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="N44" s="109" t="s">
-        <v>761</v>
-      </c>
-      <c r="AD44" s="115"/>
-    </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B45" s="95" t="s">
-        <v>762</v>
-      </c>
-      <c r="C45" s="95" t="s">
-        <v>675</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="98" t="s">
-        <v>890</v>
-      </c>
-      <c r="F45" s="100" t="s">
-        <v>763</v>
-      </c>
-      <c r="G45" s="98" t="s">
-        <v>677</v>
-      </c>
-      <c r="H45" s="98" t="s">
-        <v>678</v>
-      </c>
-      <c r="I45" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J45" s="105" t="s">
-        <v>679</v>
-      </c>
-      <c r="K45" s="105" t="s">
-        <v>680</v>
-      </c>
-      <c r="L45" s="105" t="s">
-        <v>681</v>
-      </c>
-      <c r="M45" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="N45" s="109" t="s">
-        <v>764</v>
-      </c>
-      <c r="AD45" s="115"/>
-    </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B46" s="95" t="s">
-        <v>765</v>
-      </c>
-      <c r="C46" s="95" t="s">
-        <v>684</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="E46" s="98" t="s">
-        <v>891</v>
-      </c>
-      <c r="F46" s="100" t="s">
-        <v>766</v>
-      </c>
-      <c r="G46" s="98" t="s">
-        <v>686</v>
-      </c>
-      <c r="H46" s="98" t="s">
-        <v>687</v>
-      </c>
-      <c r="I46" s="98" t="s">
-        <v>688</v>
-      </c>
-      <c r="J46" s="105" t="s">
-        <v>689</v>
-      </c>
-      <c r="K46" s="105" t="s">
-        <v>690</v>
-      </c>
-      <c r="L46" s="105" t="s">
-        <v>571</v>
-      </c>
-      <c r="M46" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="N46" s="109" t="s">
-        <v>767</v>
-      </c>
-      <c r="AD46" s="115"/>
-    </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B47" s="95" t="s">
-        <v>768</v>
-      </c>
-      <c r="C47" s="95" t="s">
-        <v>694</v>
-      </c>
-      <c r="D47" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E47" s="98" t="s">
-        <v>892</v>
-      </c>
-      <c r="F47" s="100" t="s">
-        <v>769</v>
-      </c>
-      <c r="G47" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="H47" s="98" t="s">
-        <v>696</v>
-      </c>
-      <c r="I47" s="98" t="s">
-        <v>697</v>
-      </c>
-      <c r="J47" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="K47" s="105" t="s">
-        <v>699</v>
-      </c>
-      <c r="L47" s="105" t="s">
-        <v>700</v>
-      </c>
-      <c r="M47" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="N47" s="109" t="s">
+      <c r="N48" s="109" t="s">
         <v>770</v>
-      </c>
-      <c r="AD47" s="115"/>
-    </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B48" s="95" t="s">
-        <v>771</v>
-      </c>
-      <c r="C48" s="95" t="s">
-        <v>703</v>
-      </c>
-      <c r="D48" s="95" t="s">
-        <v>704</v>
-      </c>
-      <c r="E48" s="98" t="s">
-        <v>893</v>
-      </c>
-      <c r="F48" s="100" t="s">
-        <v>772</v>
-      </c>
-      <c r="G48" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="H48" s="98" t="s">
-        <v>707</v>
-      </c>
-      <c r="I48" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="J48" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K48" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="L48" s="105" t="s">
-        <v>710</v>
-      </c>
-      <c r="M48" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="N48" s="109" t="s">
-        <v>773</v>
       </c>
       <c r="AD48" s="115"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B49" s="95" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C49" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="E49" s="98" t="s">
+        <v>891</v>
+      </c>
+      <c r="F49" s="100" t="s">
+        <v>772</v>
+      </c>
+      <c r="G49" s="98" t="s">
         <v>713</v>
       </c>
-      <c r="D49" s="95" t="s">
+      <c r="H49" s="98" t="s">
         <v>714</v>
       </c>
-      <c r="E49" s="98" t="s">
-        <v>894</v>
-      </c>
-      <c r="F49" s="100" t="s">
-        <v>775</v>
-      </c>
-      <c r="G49" s="98" t="s">
+      <c r="I49" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="J49" s="105" t="s">
         <v>716</v>
       </c>
-      <c r="H49" s="98" t="s">
+      <c r="K49" s="105" t="s">
         <v>717</v>
       </c>
-      <c r="I49" s="98" t="s">
+      <c r="L49" s="105" t="s">
         <v>718</v>
       </c>
-      <c r="J49" s="105" t="s">
-        <v>719</v>
-      </c>
-      <c r="K49" s="105" t="s">
-        <v>720</v>
-      </c>
-      <c r="L49" s="105" t="s">
-        <v>721</v>
-      </c>
       <c r="M49" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N49" s="109" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AD49" s="115"/>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B50" s="95" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C50" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E50" s="98" t="s">
+        <v>892</v>
+      </c>
+      <c r="F50" s="100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G50" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="H50" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="D50" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="E50" s="98" t="s">
-        <v>895</v>
-      </c>
-      <c r="F50" s="100" t="s">
-        <v>778</v>
-      </c>
-      <c r="G50" s="98" t="s">
+      <c r="I50" s="98" t="s">
+        <v>725</v>
+      </c>
+      <c r="J50" s="105" t="s">
         <v>726</v>
       </c>
-      <c r="H50" s="98" t="s">
+      <c r="K50" s="105" t="s">
         <v>727</v>
       </c>
-      <c r="I50" s="98" t="s">
+      <c r="L50" s="105" t="s">
         <v>728</v>
       </c>
-      <c r="J50" s="105" t="s">
-        <v>729</v>
-      </c>
-      <c r="K50" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="L50" s="105" t="s">
-        <v>731</v>
-      </c>
       <c r="M50" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N50" s="109" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="AD50" s="115"/>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B51" s="95" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C51" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="D51" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E51" s="98" t="s">
+        <v>893</v>
+      </c>
+      <c r="F51" s="100" t="s">
+        <v>778</v>
+      </c>
+      <c r="G51" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="H51" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="I51" s="98" t="s">
         <v>734</v>
       </c>
-      <c r="D51" s="95" t="s">
-        <v>565</v>
-      </c>
-      <c r="E51" s="98" t="s">
-        <v>896</v>
-      </c>
-      <c r="F51" s="100" t="s">
-        <v>781</v>
-      </c>
-      <c r="G51" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="H51" s="98" t="s">
+      <c r="J51" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K51" s="105" t="s">
         <v>736</v>
       </c>
-      <c r="I51" s="98" t="s">
+      <c r="L51" s="105" t="s">
         <v>737</v>
       </c>
-      <c r="J51" s="105" t="s">
-        <v>738</v>
-      </c>
-      <c r="K51" s="105" t="s">
-        <v>739</v>
-      </c>
-      <c r="L51" s="105" t="s">
-        <v>740</v>
-      </c>
       <c r="M51" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N51" s="109" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AD51" s="115"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B52" s="95" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C52" s="95" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D52" s="95" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G52" s="98" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H52" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="I52" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J52" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="K52" s="105" t="s">
         <v>744</v>
       </c>
-      <c r="I52" s="98" t="s">
+      <c r="L52" s="105" t="s">
         <v>745</v>
       </c>
-      <c r="J52" s="105" t="s">
-        <v>746</v>
-      </c>
-      <c r="K52" s="105" t="s">
-        <v>747</v>
-      </c>
-      <c r="L52" s="105" t="s">
-        <v>748</v>
-      </c>
       <c r="M52" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N52" s="109" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AD52" s="115"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B53" s="95" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C53" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="D53" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E53" s="98" t="s">
+        <v>895</v>
+      </c>
+      <c r="F53" s="100" t="s">
+        <v>784</v>
+      </c>
+      <c r="G53" s="98" t="s">
+        <v>518</v>
+      </c>
+      <c r="H53" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="I53" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="D53" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="E53" s="98" t="s">
-        <v>898</v>
-      </c>
-      <c r="F53" s="100" t="s">
-        <v>787</v>
-      </c>
-      <c r="G53" s="98" t="s">
-        <v>521</v>
-      </c>
-      <c r="H53" s="98" t="s">
+      <c r="J53" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="K53" s="105" t="s">
         <v>753</v>
       </c>
-      <c r="I53" s="98" t="s">
+      <c r="L53" s="105" t="s">
         <v>754</v>
       </c>
-      <c r="J53" s="105" t="s">
-        <v>755</v>
-      </c>
-      <c r="K53" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="L53" s="105" t="s">
-        <v>757</v>
-      </c>
       <c r="M53" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N53" s="109" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AD53" s="115"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B54" s="95" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C54" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>665</v>
+      </c>
+      <c r="E54" s="98" t="s">
+        <v>896</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>787</v>
+      </c>
+      <c r="G54" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="D54" s="95" t="s">
+      <c r="H54" s="98" t="s">
         <v>668</v>
       </c>
-      <c r="E54" s="98" t="s">
-        <v>899</v>
-      </c>
-      <c r="F54" s="100" t="s">
-        <v>790</v>
-      </c>
-      <c r="G54" s="98" t="s">
-        <v>670</v>
-      </c>
-      <c r="H54" s="98" t="s">
-        <v>671</v>
-      </c>
       <c r="I54" s="98" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J54" s="105" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K54" s="105" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L54" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M54" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N54" s="109" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AD54" s="115"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B55" s="95" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C55" s="95" t="s">
+        <v>672</v>
+      </c>
+      <c r="D55" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" s="98" t="s">
+        <v>897</v>
+      </c>
+      <c r="F55" s="100" t="s">
+        <v>790</v>
+      </c>
+      <c r="G55" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="H55" s="98" t="s">
         <v>675</v>
       </c>
-      <c r="D55" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E55" s="98" t="s">
-        <v>900</v>
-      </c>
-      <c r="F55" s="100" t="s">
-        <v>793</v>
-      </c>
-      <c r="G55" s="98" t="s">
+      <c r="I55" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J55" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="K55" s="105" t="s">
         <v>677</v>
       </c>
-      <c r="H55" s="98" t="s">
+      <c r="L55" s="105" t="s">
         <v>678</v>
       </c>
-      <c r="I55" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J55" s="105" t="s">
-        <v>679</v>
-      </c>
-      <c r="K55" s="105" t="s">
-        <v>680</v>
-      </c>
-      <c r="L55" s="105" t="s">
-        <v>681</v>
-      </c>
       <c r="M55" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N55" s="109" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AD55" s="115"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B56" s="95" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C56" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="D56" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="F56" s="100" t="s">
+        <v>793</v>
+      </c>
+      <c r="G56" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="H56" s="98" t="s">
         <v>684</v>
       </c>
-      <c r="D56" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="E56" s="98" t="s">
-        <v>901</v>
-      </c>
-      <c r="F56" s="100" t="s">
-        <v>796</v>
-      </c>
-      <c r="G56" s="98" t="s">
+      <c r="I56" s="98" t="s">
+        <v>685</v>
+      </c>
+      <c r="J56" s="105" t="s">
         <v>686</v>
       </c>
-      <c r="H56" s="98" t="s">
+      <c r="K56" s="105" t="s">
         <v>687</v>
       </c>
-      <c r="I56" s="98" t="s">
-        <v>688</v>
-      </c>
-      <c r="J56" s="105" t="s">
-        <v>689</v>
-      </c>
-      <c r="K56" s="105" t="s">
-        <v>690</v>
-      </c>
       <c r="L56" s="105" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M56" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N56" s="109" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AD56" s="115"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B57" s="95" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C57" s="95" t="s">
+        <v>691</v>
+      </c>
+      <c r="D57" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>899</v>
+      </c>
+      <c r="F57" s="100" t="s">
+        <v>796</v>
+      </c>
+      <c r="G57" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="H57" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="I57" s="98" t="s">
         <v>694</v>
       </c>
-      <c r="D57" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E57" s="98" t="s">
-        <v>902</v>
-      </c>
-      <c r="F57" s="100" t="s">
-        <v>799</v>
-      </c>
-      <c r="G57" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="H57" s="98" t="s">
+      <c r="J57" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="K57" s="105" t="s">
         <v>696</v>
       </c>
-      <c r="I57" s="98" t="s">
+      <c r="L57" s="105" t="s">
         <v>697</v>
       </c>
-      <c r="J57" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="K57" s="105" t="s">
-        <v>699</v>
-      </c>
-      <c r="L57" s="105" t="s">
-        <v>700</v>
-      </c>
       <c r="M57" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N57" s="109" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AD57" s="115"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B58" s="95" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C58" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="D58" s="95" t="s">
+        <v>701</v>
+      </c>
+      <c r="E58" s="98" t="s">
+        <v>900</v>
+      </c>
+      <c r="F58" s="100" t="s">
+        <v>799</v>
+      </c>
+      <c r="G58" s="98" t="s">
         <v>703</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="H58" s="98" t="s">
         <v>704</v>
       </c>
-      <c r="E58" s="98" t="s">
-        <v>903</v>
-      </c>
-      <c r="F58" s="100" t="s">
-        <v>802</v>
-      </c>
-      <c r="G58" s="98" t="s">
+      <c r="I58" s="98" t="s">
+        <v>705</v>
+      </c>
+      <c r="J58" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K58" s="105" t="s">
         <v>706</v>
       </c>
-      <c r="H58" s="98" t="s">
+      <c r="L58" s="105" t="s">
         <v>707</v>
       </c>
-      <c r="I58" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="J58" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K58" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="L58" s="105" t="s">
-        <v>710</v>
-      </c>
       <c r="M58" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N58" s="109" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AD58" s="115"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B59" s="95" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C59" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="E59" s="98" t="s">
+        <v>901</v>
+      </c>
+      <c r="F59" s="100" t="s">
+        <v>802</v>
+      </c>
+      <c r="G59" s="98" t="s">
         <v>713</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="H59" s="98" t="s">
         <v>714</v>
       </c>
-      <c r="E59" s="98" t="s">
-        <v>904</v>
-      </c>
-      <c r="F59" s="100" t="s">
-        <v>805</v>
-      </c>
-      <c r="G59" s="98" t="s">
+      <c r="I59" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="J59" s="105" t="s">
         <v>716</v>
       </c>
-      <c r="H59" s="98" t="s">
+      <c r="K59" s="105" t="s">
         <v>717</v>
       </c>
-      <c r="I59" s="98" t="s">
+      <c r="L59" s="105" t="s">
         <v>718</v>
       </c>
-      <c r="J59" s="105" t="s">
-        <v>719</v>
-      </c>
-      <c r="K59" s="105" t="s">
-        <v>720</v>
-      </c>
-      <c r="L59" s="105" t="s">
-        <v>721</v>
-      </c>
       <c r="M59" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N59" s="109" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AD59" s="115"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B60" s="95" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C60" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="D60" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" s="98" t="s">
+        <v>902</v>
+      </c>
+      <c r="F60" s="100" t="s">
+        <v>805</v>
+      </c>
+      <c r="G60" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="H60" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="D60" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="E60" s="98" t="s">
-        <v>905</v>
-      </c>
-      <c r="F60" s="100" t="s">
-        <v>808</v>
-      </c>
-      <c r="G60" s="98" t="s">
+      <c r="I60" s="98" t="s">
+        <v>725</v>
+      </c>
+      <c r="J60" s="105" t="s">
         <v>726</v>
       </c>
-      <c r="H60" s="98" t="s">
+      <c r="K60" s="105" t="s">
         <v>727</v>
       </c>
-      <c r="I60" s="98" t="s">
+      <c r="L60" s="105" t="s">
         <v>728</v>
       </c>
-      <c r="J60" s="105" t="s">
-        <v>729</v>
-      </c>
-      <c r="K60" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="L60" s="105" t="s">
-        <v>731</v>
-      </c>
       <c r="M60" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N60" s="109" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AD60" s="115"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B61" s="95" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C61" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="D61" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E61" s="98" t="s">
+        <v>903</v>
+      </c>
+      <c r="F61" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="G61" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="H61" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="I61" s="98" t="s">
         <v>734</v>
       </c>
-      <c r="D61" s="95" t="s">
-        <v>565</v>
-      </c>
-      <c r="E61" s="98" t="s">
-        <v>906</v>
-      </c>
-      <c r="F61" s="100" t="s">
-        <v>811</v>
-      </c>
-      <c r="G61" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="H61" s="98" t="s">
+      <c r="J61" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K61" s="105" t="s">
         <v>736</v>
       </c>
-      <c r="I61" s="98" t="s">
+      <c r="L61" s="105" t="s">
         <v>737</v>
       </c>
-      <c r="J61" s="105" t="s">
-        <v>738</v>
-      </c>
-      <c r="K61" s="105" t="s">
-        <v>739</v>
-      </c>
-      <c r="L61" s="105" t="s">
-        <v>740</v>
-      </c>
       <c r="M61" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N61" s="109" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AD61" s="115"/>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B62" s="95" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C62" s="95" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D62" s="95" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E62" s="98" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F62" s="100" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G62" s="98" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H62" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="I62" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J62" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="K62" s="105" t="s">
         <v>744</v>
       </c>
-      <c r="I62" s="98" t="s">
+      <c r="L62" s="105" t="s">
         <v>745</v>
       </c>
-      <c r="J62" s="105" t="s">
-        <v>746</v>
-      </c>
-      <c r="K62" s="105" t="s">
-        <v>747</v>
-      </c>
-      <c r="L62" s="105" t="s">
-        <v>748</v>
-      </c>
       <c r="M62" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N62" s="109" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AD62" s="115"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B63" s="95" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C63" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="D63" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E63" s="98" t="s">
+        <v>905</v>
+      </c>
+      <c r="F63" s="100" t="s">
+        <v>814</v>
+      </c>
+      <c r="G63" s="98" t="s">
+        <v>518</v>
+      </c>
+      <c r="H63" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="I63" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="D63" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="E63" s="98" t="s">
-        <v>908</v>
-      </c>
-      <c r="F63" s="100" t="s">
-        <v>817</v>
-      </c>
-      <c r="G63" s="98" t="s">
-        <v>521</v>
-      </c>
-      <c r="H63" s="98" t="s">
+      <c r="J63" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="K63" s="105" t="s">
         <v>753</v>
       </c>
-      <c r="I63" s="98" t="s">
+      <c r="L63" s="105" t="s">
         <v>754</v>
       </c>
-      <c r="J63" s="105" t="s">
-        <v>755</v>
-      </c>
-      <c r="K63" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="L63" s="105" t="s">
-        <v>757</v>
-      </c>
       <c r="M63" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N63" s="109" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AD63" s="115"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B64" s="95" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C64" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="D64" s="95" t="s">
+        <v>665</v>
+      </c>
+      <c r="E64" s="98" t="s">
+        <v>906</v>
+      </c>
+      <c r="F64" s="100" t="s">
+        <v>817</v>
+      </c>
+      <c r="G64" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="D64" s="95" t="s">
+      <c r="H64" s="98" t="s">
         <v>668</v>
       </c>
-      <c r="E64" s="98" t="s">
-        <v>909</v>
-      </c>
-      <c r="F64" s="100" t="s">
-        <v>820</v>
-      </c>
-      <c r="G64" s="98" t="s">
-        <v>670</v>
-      </c>
-      <c r="H64" s="98" t="s">
-        <v>671</v>
-      </c>
       <c r="I64" s="98" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J64" s="105" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K64" s="105" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L64" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M64" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N64" s="109" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AD64" s="115"/>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B65" s="95" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C65" s="95" t="s">
+        <v>672</v>
+      </c>
+      <c r="D65" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E65" s="98" t="s">
+        <v>907</v>
+      </c>
+      <c r="F65" s="100" t="s">
+        <v>820</v>
+      </c>
+      <c r="G65" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="H65" s="98" t="s">
         <v>675</v>
       </c>
-      <c r="D65" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E65" s="98" t="s">
-        <v>910</v>
-      </c>
-      <c r="F65" s="100" t="s">
-        <v>823</v>
-      </c>
-      <c r="G65" s="98" t="s">
+      <c r="I65" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="K65" s="105" t="s">
         <v>677</v>
       </c>
-      <c r="H65" s="98" t="s">
+      <c r="L65" s="105" t="s">
         <v>678</v>
       </c>
-      <c r="I65" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J65" s="105" t="s">
-        <v>679</v>
-      </c>
-      <c r="K65" s="105" t="s">
-        <v>680</v>
-      </c>
-      <c r="L65" s="105" t="s">
-        <v>681</v>
-      </c>
       <c r="M65" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N65" s="109" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AD65" s="115"/>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B66" s="95" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C66" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="D66" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E66" s="98" t="s">
+        <v>908</v>
+      </c>
+      <c r="F66" s="100" t="s">
+        <v>823</v>
+      </c>
+      <c r="G66" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="H66" s="98" t="s">
         <v>684</v>
       </c>
-      <c r="D66" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="E66" s="98" t="s">
-        <v>911</v>
-      </c>
-      <c r="F66" s="100" t="s">
-        <v>826</v>
-      </c>
-      <c r="G66" s="98" t="s">
+      <c r="I66" s="98" t="s">
+        <v>685</v>
+      </c>
+      <c r="J66" s="105" t="s">
         <v>686</v>
       </c>
-      <c r="H66" s="98" t="s">
+      <c r="K66" s="105" t="s">
         <v>687</v>
       </c>
-      <c r="I66" s="98" t="s">
+      <c r="L66" s="105" t="s">
+        <v>568</v>
+      </c>
+      <c r="M66" s="95" t="s">
         <v>688</v>
       </c>
-      <c r="J66" s="105" t="s">
-        <v>689</v>
-      </c>
-      <c r="K66" s="105" t="s">
-        <v>690</v>
-      </c>
-      <c r="L66" s="105" t="s">
-        <v>571</v>
-      </c>
-      <c r="M66" s="95" t="s">
-        <v>691</v>
-      </c>
       <c r="N66" s="109" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B67" s="95" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C67" s="95" t="s">
+        <v>691</v>
+      </c>
+      <c r="D67" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E67" s="98" t="s">
+        <v>909</v>
+      </c>
+      <c r="F67" s="100" t="s">
+        <v>826</v>
+      </c>
+      <c r="G67" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="H67" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="I67" s="98" t="s">
         <v>694</v>
       </c>
-      <c r="D67" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E67" s="98" t="s">
-        <v>912</v>
-      </c>
-      <c r="F67" s="100" t="s">
-        <v>829</v>
-      </c>
-      <c r="G67" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="H67" s="98" t="s">
+      <c r="J67" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="K67" s="105" t="s">
         <v>696</v>
       </c>
-      <c r="I67" s="98" t="s">
+      <c r="L67" s="105" t="s">
         <v>697</v>
       </c>
-      <c r="J67" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="K67" s="105" t="s">
-        <v>699</v>
-      </c>
-      <c r="L67" s="105" t="s">
-        <v>700</v>
-      </c>
       <c r="M67" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N67" s="109" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B68" s="95" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C68" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="D68" s="95" t="s">
+        <v>701</v>
+      </c>
+      <c r="E68" s="98" t="s">
+        <v>910</v>
+      </c>
+      <c r="F68" s="100" t="s">
+        <v>829</v>
+      </c>
+      <c r="G68" s="98" t="s">
         <v>703</v>
       </c>
-      <c r="D68" s="95" t="s">
+      <c r="H68" s="98" t="s">
         <v>704</v>
       </c>
-      <c r="E68" s="98" t="s">
-        <v>913</v>
-      </c>
-      <c r="F68" s="100" t="s">
-        <v>832</v>
-      </c>
-      <c r="G68" s="98" t="s">
+      <c r="I68" s="98" t="s">
+        <v>705</v>
+      </c>
+      <c r="J68" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K68" s="105" t="s">
         <v>706</v>
       </c>
-      <c r="H68" s="98" t="s">
+      <c r="L68" s="105" t="s">
         <v>707</v>
       </c>
-      <c r="I68" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="J68" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K68" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="L68" s="105" t="s">
-        <v>710</v>
-      </c>
       <c r="M68" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N68" s="109" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B69" s="95" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C69" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="E69" s="98" t="s">
+        <v>911</v>
+      </c>
+      <c r="F69" s="100" t="s">
+        <v>832</v>
+      </c>
+      <c r="G69" s="98" t="s">
         <v>713</v>
       </c>
-      <c r="D69" s="95" t="s">
+      <c r="H69" s="98" t="s">
         <v>714</v>
       </c>
-      <c r="E69" s="98" t="s">
-        <v>914</v>
-      </c>
-      <c r="F69" s="100" t="s">
-        <v>835</v>
-      </c>
-      <c r="G69" s="98" t="s">
+      <c r="I69" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="J69" s="105" t="s">
         <v>716</v>
       </c>
-      <c r="H69" s="98" t="s">
+      <c r="K69" s="105" t="s">
         <v>717</v>
       </c>
-      <c r="I69" s="98" t="s">
+      <c r="L69" s="105" t="s">
         <v>718</v>
       </c>
-      <c r="J69" s="105" t="s">
-        <v>719</v>
-      </c>
-      <c r="K69" s="105" t="s">
-        <v>720</v>
-      </c>
-      <c r="L69" s="105" t="s">
-        <v>721</v>
-      </c>
       <c r="M69" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N69" s="109" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B70" s="95" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C70" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E70" s="98" t="s">
+        <v>912</v>
+      </c>
+      <c r="F70" s="100" t="s">
+        <v>835</v>
+      </c>
+      <c r="G70" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="H70" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="D70" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="E70" s="98" t="s">
-        <v>915</v>
-      </c>
-      <c r="F70" s="100" t="s">
-        <v>838</v>
-      </c>
-      <c r="G70" s="98" t="s">
+      <c r="I70" s="98" t="s">
+        <v>725</v>
+      </c>
+      <c r="J70" s="105" t="s">
         <v>726</v>
       </c>
-      <c r="H70" s="98" t="s">
+      <c r="K70" s="105" t="s">
         <v>727</v>
       </c>
-      <c r="I70" s="98" t="s">
+      <c r="L70" s="105" t="s">
         <v>728</v>
       </c>
-      <c r="J70" s="105" t="s">
-        <v>729</v>
-      </c>
-      <c r="K70" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="L70" s="105" t="s">
-        <v>731</v>
-      </c>
       <c r="M70" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N70" s="109" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B71" s="95" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C71" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E71" s="98" t="s">
+        <v>913</v>
+      </c>
+      <c r="F71" s="100" t="s">
+        <v>838</v>
+      </c>
+      <c r="G71" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="H71" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="I71" s="98" t="s">
         <v>734</v>
       </c>
-      <c r="D71" s="95" t="s">
-        <v>565</v>
-      </c>
-      <c r="E71" s="98" t="s">
-        <v>916</v>
-      </c>
-      <c r="F71" s="100" t="s">
-        <v>841</v>
-      </c>
-      <c r="G71" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="H71" s="98" t="s">
+      <c r="J71" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K71" s="105" t="s">
         <v>736</v>
       </c>
-      <c r="I71" s="98" t="s">
+      <c r="L71" s="105" t="s">
         <v>737</v>
       </c>
-      <c r="J71" s="105" t="s">
-        <v>738</v>
-      </c>
-      <c r="K71" s="105" t="s">
-        <v>739</v>
-      </c>
-      <c r="L71" s="105" t="s">
-        <v>740</v>
-      </c>
       <c r="M71" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N71" s="109" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B72" s="95" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D72" s="95" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E72" s="98" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F72" s="100" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H72" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="I72" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J72" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="K72" s="105" t="s">
         <v>744</v>
       </c>
-      <c r="I72" s="98" t="s">
+      <c r="L72" s="105" t="s">
         <v>745</v>
       </c>
-      <c r="J72" s="105" t="s">
-        <v>746</v>
-      </c>
-      <c r="K72" s="105" t="s">
-        <v>747</v>
-      </c>
-      <c r="L72" s="105" t="s">
-        <v>748</v>
-      </c>
       <c r="M72" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N72" s="109" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B73" s="95" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C73" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E73" s="98" t="s">
+        <v>915</v>
+      </c>
+      <c r="F73" s="100" t="s">
+        <v>844</v>
+      </c>
+      <c r="G73" s="98" t="s">
+        <v>518</v>
+      </c>
+      <c r="H73" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="I73" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="D73" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="E73" s="98" t="s">
-        <v>918</v>
-      </c>
-      <c r="F73" s="100" t="s">
-        <v>847</v>
-      </c>
-      <c r="G73" s="98" t="s">
-        <v>521</v>
-      </c>
-      <c r="H73" s="98" t="s">
+      <c r="J73" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="K73" s="105" t="s">
         <v>753</v>
       </c>
-      <c r="I73" s="98" t="s">
+      <c r="L73" s="105" t="s">
         <v>754</v>
       </c>
-      <c r="J73" s="105" t="s">
-        <v>755</v>
-      </c>
-      <c r="K73" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="L73" s="105" t="s">
-        <v>757</v>
-      </c>
       <c r="M73" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N73" s="109" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B74" s="95" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C74" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="D74" s="95" t="s">
+        <v>665</v>
+      </c>
+      <c r="E74" s="98" t="s">
+        <v>916</v>
+      </c>
+      <c r="F74" s="100" t="s">
+        <v>847</v>
+      </c>
+      <c r="G74" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="D74" s="95" t="s">
+      <c r="H74" s="98" t="s">
         <v>668</v>
       </c>
-      <c r="E74" s="98" t="s">
-        <v>919</v>
-      </c>
-      <c r="F74" s="100" t="s">
-        <v>850</v>
-      </c>
-      <c r="G74" s="98" t="s">
-        <v>670</v>
-      </c>
-      <c r="H74" s="98" t="s">
-        <v>671</v>
-      </c>
       <c r="I74" s="98" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J74" s="105" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K74" s="105" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L74" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M74" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N74" s="109" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B75" s="95" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C75" s="95" t="s">
+        <v>672</v>
+      </c>
+      <c r="D75" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E75" s="98" t="s">
+        <v>917</v>
+      </c>
+      <c r="F75" s="100" t="s">
+        <v>850</v>
+      </c>
+      <c r="G75" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="H75" s="98" t="s">
         <v>675</v>
       </c>
-      <c r="D75" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E75" s="98" t="s">
-        <v>920</v>
-      </c>
-      <c r="F75" s="100" t="s">
-        <v>853</v>
-      </c>
-      <c r="G75" s="98" t="s">
+      <c r="I75" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J75" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="K75" s="105" t="s">
         <v>677</v>
       </c>
-      <c r="H75" s="98" t="s">
+      <c r="L75" s="105" t="s">
         <v>678</v>
       </c>
-      <c r="I75" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="J75" s="105" t="s">
-        <v>679</v>
-      </c>
-      <c r="K75" s="105" t="s">
-        <v>680</v>
-      </c>
-      <c r="L75" s="105" t="s">
-        <v>681</v>
-      </c>
       <c r="M75" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N75" s="109" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B76" s="95" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C76" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="D76" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="98" t="s">
+        <v>918</v>
+      </c>
+      <c r="F76" s="100" t="s">
+        <v>853</v>
+      </c>
+      <c r="G76" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="H76" s="98" t="s">
         <v>684</v>
       </c>
-      <c r="D76" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="E76" s="98" t="s">
-        <v>921</v>
-      </c>
-      <c r="F76" s="100" t="s">
-        <v>856</v>
-      </c>
-      <c r="G76" s="98" t="s">
+      <c r="I76" s="98" t="s">
+        <v>685</v>
+      </c>
+      <c r="J76" s="105" t="s">
         <v>686</v>
       </c>
-      <c r="H76" s="98" t="s">
+      <c r="K76" s="105" t="s">
         <v>687</v>
       </c>
-      <c r="I76" s="98" t="s">
-        <v>688</v>
-      </c>
-      <c r="J76" s="105" t="s">
-        <v>689</v>
-      </c>
-      <c r="K76" s="105" t="s">
-        <v>690</v>
-      </c>
       <c r="L76" s="105" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M76" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N76" s="109" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B77" s="95" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C77" s="95" t="s">
+        <v>691</v>
+      </c>
+      <c r="D77" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E77" s="98" t="s">
+        <v>919</v>
+      </c>
+      <c r="F77" s="100" t="s">
+        <v>856</v>
+      </c>
+      <c r="G77" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="H77" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="I77" s="98" t="s">
         <v>694</v>
       </c>
-      <c r="D77" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E77" s="98" t="s">
-        <v>922</v>
-      </c>
-      <c r="F77" s="100" t="s">
-        <v>859</v>
-      </c>
-      <c r="G77" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="H77" s="98" t="s">
+      <c r="J77" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="K77" s="105" t="s">
         <v>696</v>
       </c>
-      <c r="I77" s="98" t="s">
+      <c r="L77" s="105" t="s">
         <v>697</v>
       </c>
-      <c r="J77" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="K77" s="105" t="s">
-        <v>699</v>
-      </c>
-      <c r="L77" s="105" t="s">
-        <v>700</v>
-      </c>
       <c r="M77" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N77" s="109" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B78" s="95" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C78" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="D78" s="95" t="s">
+        <v>701</v>
+      </c>
+      <c r="E78" s="98" t="s">
+        <v>920</v>
+      </c>
+      <c r="F78" s="100" t="s">
+        <v>859</v>
+      </c>
+      <c r="G78" s="98" t="s">
         <v>703</v>
       </c>
-      <c r="D78" s="95" t="s">
+      <c r="H78" s="98" t="s">
         <v>704</v>
       </c>
-      <c r="E78" s="98" t="s">
-        <v>923</v>
-      </c>
-      <c r="F78" s="100" t="s">
-        <v>862</v>
-      </c>
-      <c r="G78" s="98" t="s">
+      <c r="I78" s="98" t="s">
+        <v>705</v>
+      </c>
+      <c r="J78" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K78" s="105" t="s">
         <v>706</v>
       </c>
-      <c r="H78" s="98" t="s">
+      <c r="L78" s="105" t="s">
         <v>707</v>
       </c>
-      <c r="I78" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="J78" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K78" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="L78" s="105" t="s">
-        <v>710</v>
-      </c>
       <c r="M78" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N78" s="109" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B79" s="95" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C79" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="D79" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="E79" s="98" t="s">
+        <v>921</v>
+      </c>
+      <c r="F79" s="100" t="s">
+        <v>862</v>
+      </c>
+      <c r="G79" s="98" t="s">
         <v>713</v>
       </c>
-      <c r="D79" s="95" t="s">
+      <c r="H79" s="98" t="s">
         <v>714</v>
       </c>
-      <c r="E79" s="98" t="s">
-        <v>924</v>
-      </c>
-      <c r="F79" s="100" t="s">
-        <v>865</v>
-      </c>
-      <c r="G79" s="98" t="s">
+      <c r="I79" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="J79" s="105" t="s">
         <v>716</v>
       </c>
-      <c r="H79" s="98" t="s">
+      <c r="K79" s="105" t="s">
         <v>717</v>
       </c>
-      <c r="I79" s="98" t="s">
+      <c r="L79" s="105" t="s">
         <v>718</v>
       </c>
-      <c r="J79" s="105" t="s">
-        <v>719</v>
-      </c>
-      <c r="K79" s="105" t="s">
-        <v>720</v>
-      </c>
-      <c r="L79" s="105" t="s">
-        <v>721</v>
-      </c>
       <c r="M79" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N79" s="109" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B80" s="95" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C80" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="D80" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E80" s="98" t="s">
+        <v>922</v>
+      </c>
+      <c r="F80" s="100" t="s">
+        <v>865</v>
+      </c>
+      <c r="G80" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="H80" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="D80" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="E80" s="98" t="s">
-        <v>925</v>
-      </c>
-      <c r="F80" s="100" t="s">
-        <v>868</v>
-      </c>
-      <c r="G80" s="98" t="s">
+      <c r="I80" s="98" t="s">
+        <v>725</v>
+      </c>
+      <c r="J80" s="105" t="s">
         <v>726</v>
       </c>
-      <c r="H80" s="98" t="s">
+      <c r="K80" s="105" t="s">
         <v>727</v>
       </c>
-      <c r="I80" s="98" t="s">
+      <c r="L80" s="105" t="s">
         <v>728</v>
       </c>
-      <c r="J80" s="105" t="s">
-        <v>729</v>
-      </c>
-      <c r="K80" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="L80" s="105" t="s">
-        <v>731</v>
-      </c>
       <c r="M80" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N80" s="109" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B81" s="95" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C81" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="D81" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E81" s="98" t="s">
+        <v>923</v>
+      </c>
+      <c r="F81" s="100" t="s">
+        <v>868</v>
+      </c>
+      <c r="G81" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="H81" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="I81" s="98" t="s">
         <v>734</v>
       </c>
-      <c r="D81" s="95" t="s">
-        <v>565</v>
-      </c>
-      <c r="E81" s="98" t="s">
-        <v>926</v>
-      </c>
-      <c r="F81" s="100" t="s">
-        <v>871</v>
-      </c>
-      <c r="G81" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="H81" s="98" t="s">
+      <c r="J81" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K81" s="105" t="s">
         <v>736</v>
       </c>
-      <c r="I81" s="98" t="s">
+      <c r="L81" s="105" t="s">
         <v>737</v>
       </c>
-      <c r="J81" s="105" t="s">
-        <v>738</v>
-      </c>
-      <c r="K81" s="105" t="s">
-        <v>739</v>
-      </c>
-      <c r="L81" s="105" t="s">
-        <v>740</v>
-      </c>
       <c r="M81" s="95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N81" s="109" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B82" s="95" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D82" s="95" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E82" s="98" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F82" s="100" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G82" s="98" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H82" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="I82" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J82" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="K82" s="105" t="s">
         <v>744</v>
       </c>
-      <c r="I82" s="98" t="s">
+      <c r="L82" s="105" t="s">
         <v>745</v>
       </c>
-      <c r="J82" s="105" t="s">
-        <v>746</v>
-      </c>
-      <c r="K82" s="105" t="s">
-        <v>747</v>
-      </c>
-      <c r="L82" s="105" t="s">
-        <v>748</v>
-      </c>
       <c r="M82" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N82" s="109" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B83" s="95" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C83" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="D83" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E83" s="98" t="s">
+        <v>925</v>
+      </c>
+      <c r="F83" s="100" t="s">
+        <v>874</v>
+      </c>
+      <c r="G83" s="98" t="s">
+        <v>518</v>
+      </c>
+      <c r="H83" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="I83" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="D83" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="E83" s="98" t="s">
-        <v>928</v>
-      </c>
-      <c r="F83" s="100" t="s">
-        <v>877</v>
-      </c>
-      <c r="G83" s="98" t="s">
-        <v>521</v>
-      </c>
-      <c r="H83" s="98" t="s">
+      <c r="J83" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="K83" s="105" t="s">
         <v>753</v>
       </c>
-      <c r="I83" s="98" t="s">
+      <c r="L83" s="105" t="s">
         <v>754</v>
       </c>
-      <c r="J83" s="105" t="s">
-        <v>755</v>
-      </c>
-      <c r="K83" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="L83" s="105" t="s">
-        <v>757</v>
-      </c>
       <c r="M83" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N83" s="109" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.4">
@@ -15140,6 +14144,49 @@
       <c r="L86" s="107"/>
       <c r="M86" s="106"/>
       <c r="N86" s="110"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C1839-B0ED-4817-93E9-7CB3B8D277A4}">
+  <dimension ref="L4:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="L4:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L4" s="115">
+        <v>45604</v>
+      </c>
+      <c r="M4">
+        <v>10030</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O4">
+        <v>1700</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="S5" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -17562,7 +16609,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -17858,12 +16905,12 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -17876,20 +16923,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="39"/>
       <c r="B7" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39"/>
       <c r="B8" s="127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="128"/>
       <c r="D8" s="128"/>
@@ -17900,7 +16947,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39"/>
       <c r="B9" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -17909,22 +16956,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -17973,7 +17020,7 @@
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B3" s="69" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>219</v>
@@ -17981,7 +17028,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="90" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -18054,7 +17101,7 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -18152,7 +17199,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="90" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
@@ -18165,17 +17212,17 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B35" s="92" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C36" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C37" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
@@ -18183,12 +17230,12 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C40" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
@@ -18196,27 +17243,27 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C45" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C46" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C47" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -18231,7 +17278,7 @@
   <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18319,7 +17366,7 @@
         <v>282</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G6" s="64"/>
       <c r="N6" s="1" t="s">
@@ -18421,11 +17468,11 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="56" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="G10" s="60"/>
       <c r="N10" s="1" t="s">
@@ -18451,7 +17498,7 @@
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G11" s="64"/>
       <c r="N11" s="1" t="s">
@@ -18555,7 +17602,7 @@
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="55" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G15" s="60"/>
       <c r="N15" s="1" t="s">
@@ -19013,7 +18060,7 @@
         <v>244</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
@@ -19021,12 +18068,12 @@
         <v>65</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D21" s="53" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>67</v>

--- a/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
+++ b/共同研修課題_設計メモ_2024-12-09_栗原.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492833DD-916C-429E-A98B-0DA2EAC44699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0AACED-F0B8-47D5-A4B4-61227587CE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11850" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題5" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="論理設計" sheetId="8" r:id="rId9"/>
     <sheet name="物理設計" sheetId="9" r:id="rId10"/>
     <sheet name="テストデータ" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">テストデータ!$S$3:$T$3</definedName>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1051">
   <si>
     <t>課題4</t>
   </si>
@@ -2366,16 +2365,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>数字５桁</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ハイフン無し</t>
     <rPh sb="4" eb="5">
       <t>ナシ</t>
@@ -4767,9 +4756,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>BIGINT</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -4784,6 +4770,10 @@
     <rPh sb="31" eb="33">
       <t>ココロモト</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -5579,14 +5569,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5609,8 +5599,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7141,8 +7131,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7496,10 +7486,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E20C55-54EF-495E-B2C0-1D67D38AE4AA}">
-  <dimension ref="B2:P87"/>
+  <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7607,19 +7597,19 @@
       <c r="C7" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129" t="s">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129" t="s">
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="129"/>
+      <c r="J7" s="137"/>
       <c r="K7" s="135" t="s">
         <v>297</v>
       </c>
@@ -7677,14 +7667,12 @@
         <v>331</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" s="79">
-        <v>5</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="J9" s="79"/>
       <c r="K9" s="81"/>
       <c r="L9" s="88" t="s">
-        <v>336</v>
+        <v>1050</v>
       </c>
       <c r="M9" s="78"/>
       <c r="O9" s="17"/>
@@ -7777,7 +7765,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
@@ -7792,7 +7780,7 @@
       </c>
       <c r="K13" s="81"/>
       <c r="L13" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M13" s="78"/>
       <c r="O13" s="17"/>
@@ -7886,7 +7874,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
@@ -7901,7 +7889,7 @@
       </c>
       <c r="K17" s="81"/>
       <c r="L17" s="83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M17" s="78"/>
     </row>
@@ -7940,7 +7928,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F19" s="79"/>
       <c r="G19" s="79"/>
@@ -7994,7 +7982,7 @@
         <v>269</v>
       </c>
       <c r="E21" s="88" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F21" s="79"/>
       <c r="G21" s="79"/>
@@ -8099,7 +8087,7 @@
       </c>
       <c r="D28" s="131"/>
       <c r="E28" s="132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
@@ -8129,19 +8117,19 @@
       <c r="C30" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129" t="s">
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="J30" s="129"/>
+      <c r="J30" s="137"/>
       <c r="K30" s="135" t="s">
         <v>297</v>
       </c>
@@ -8187,7 +8175,7 @@
         <v>268</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F32" s="79" t="s">
         <v>330</v>
@@ -8196,14 +8184,14 @@
         <v>330</v>
       </c>
       <c r="I32" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J32" s="79">
         <v>3</v>
       </c>
       <c r="K32" s="81"/>
       <c r="L32" s="81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M32" s="78"/>
     </row>
@@ -8216,7 +8204,7 @@
         <v>254</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F33" s="79"/>
       <c r="G33" s="79"/>
@@ -8319,7 +8307,7 @@
       </c>
       <c r="D40" s="131"/>
       <c r="E40" s="132" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F40" s="133"/>
       <c r="G40" s="133"/>
@@ -8349,19 +8337,19 @@
       <c r="C42" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D42" s="129" t="s">
+      <c r="D42" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129" t="s">
+      <c r="E42" s="137"/>
+      <c r="F42" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129" t="s">
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="J42" s="129"/>
+      <c r="J42" s="137"/>
       <c r="K42" s="135" t="s">
         <v>297</v>
       </c>
@@ -8404,10 +8392,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F44" s="38" t="s">
         <v>331</v>
@@ -8417,14 +8405,14 @@
         <v>330</v>
       </c>
       <c r="I44" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J44" s="114">
         <v>2</v>
       </c>
       <c r="K44" s="81"/>
       <c r="L44" s="81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M44" s="78"/>
     </row>
@@ -8437,7 +8425,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F45" s="114"/>
       <c r="G45" s="114"/>
@@ -8445,7 +8433,7 @@
         <v>330</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J45" s="114">
         <v>10</v>
@@ -8553,7 +8541,7 @@
       </c>
       <c r="D52" s="131"/>
       <c r="E52" s="132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F52" s="133"/>
       <c r="G52" s="133"/>
@@ -8584,19 +8572,19 @@
       <c r="C54" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129" t="s">
+      <c r="E54" s="137"/>
+      <c r="F54" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129" t="s">
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="J54" s="129"/>
+      <c r="J54" s="137"/>
       <c r="K54" s="135" t="s">
         <v>297</v>
       </c>
@@ -8644,7 +8632,7 @@
         <v>262</v>
       </c>
       <c r="E56" s="81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F56" s="79" t="s">
         <v>330</v>
@@ -8654,14 +8642,14 @@
         <v>330</v>
       </c>
       <c r="I56" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J56" s="79">
         <v>5</v>
       </c>
       <c r="K56" s="81"/>
       <c r="L56" s="88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M56" s="78"/>
       <c r="N56" s="1"/>
@@ -8672,10 +8660,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E57" s="88" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F57" s="79"/>
       <c r="G57" s="111" t="s">
@@ -8692,7 +8680,7 @@
       </c>
       <c r="K57" s="81"/>
       <c r="L57" s="88" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M57" s="78"/>
       <c r="N57" s="1"/>
@@ -8707,7 +8695,7 @@
         <v>68</v>
       </c>
       <c r="E58" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F58" s="79"/>
       <c r="G58" s="79"/>
@@ -8715,7 +8703,7 @@
         <v>330</v>
       </c>
       <c r="I58" s="88" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J58" s="79">
         <v>10</v>
@@ -8733,7 +8721,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F59" s="79"/>
       <c r="G59" s="79"/>
@@ -8741,7 +8729,7 @@
         <v>330</v>
       </c>
       <c r="I59" s="88" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J59" s="79">
         <v>12</v>
@@ -8759,7 +8747,7 @@
         <v>70</v>
       </c>
       <c r="E60" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
@@ -8767,7 +8755,7 @@
         <v>330</v>
       </c>
       <c r="I60" s="88" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J60" s="79"/>
       <c r="K60" s="81"/>
@@ -8780,10 +8768,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="81" t="s">
         <v>357</v>
-      </c>
-      <c r="E61" s="81" t="s">
-        <v>358</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -8791,7 +8779,7 @@
         <v>330</v>
       </c>
       <c r="I61" s="88" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J61" s="79"/>
       <c r="K61" s="81"/>
@@ -8929,7 +8917,7 @@
       </c>
       <c r="D70" s="131"/>
       <c r="E70" s="132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F70" s="133"/>
       <c r="G70" s="133"/>
@@ -8959,19 +8947,19 @@
       <c r="C72" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="129" t="s">
+      <c r="D72" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129" t="s">
+      <c r="E72" s="137"/>
+      <c r="F72" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="129"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="129" t="s">
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="J72" s="129"/>
+      <c r="J72" s="137"/>
       <c r="K72" s="135" t="s">
         <v>297</v>
       </c>
@@ -9017,7 +9005,7 @@
         <v>264</v>
       </c>
       <c r="E74" s="88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F74" s="38" t="s">
         <v>331</v>
@@ -9027,12 +9015,12 @@
         <v>331</v>
       </c>
       <c r="I74" s="88" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J74" s="114"/>
       <c r="K74" s="81"/>
       <c r="L74" s="89" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M74" s="78"/>
     </row>
@@ -9045,7 +9033,7 @@
         <v>282</v>
       </c>
       <c r="E75" s="88" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F75" s="114"/>
       <c r="G75" s="114"/>
@@ -9086,7 +9074,7 @@
       </c>
       <c r="K76" s="81"/>
       <c r="L76" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M76" s="78"/>
     </row>
@@ -9099,7 +9087,7 @@
         <v>262</v>
       </c>
       <c r="E77" s="88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F77" s="114"/>
       <c r="G77" s="38" t="s">
@@ -9116,7 +9104,7 @@
       </c>
       <c r="K77" s="81"/>
       <c r="L77" s="88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M77" s="78"/>
     </row>
@@ -9129,7 +9117,7 @@
         <v>309</v>
       </c>
       <c r="E78" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F78" s="114"/>
       <c r="G78" s="122"/>
@@ -9153,7 +9141,7 @@
         <v>118</v>
       </c>
       <c r="E79" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F79" s="114"/>
       <c r="G79" s="114"/>
@@ -9177,7 +9165,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F80" s="114"/>
       <c r="G80" s="38" t="s">
@@ -9194,7 +9182,7 @@
       </c>
       <c r="K80" s="81"/>
       <c r="L80" s="88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M80" s="78"/>
     </row>
@@ -9260,39 +9248,34 @@
       <c r="L84" s="85"/>
       <c r="M84" s="87"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D87" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="E87" s="88" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F87" s="88" t="s">
-        <v>317</v>
-      </c>
-      <c r="G87" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="H87" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="I87" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="J87" s="88" t="s">
-        <v>345</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="L72:L73"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -9309,32 +9292,14 @@
     <mergeCell ref="E51:J51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9346,8 +9311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2AA5EF-E9D7-46ED-AD7B-B086BE7AB8F6}">
   <dimension ref="B2:AP86"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33:AI33"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9406,7 +9371,7 @@
         <v>250</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AC2" s="17" t="s">
         <v>265</v>
@@ -9448,16 +9413,16 @@
         <v>13</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N3" s="94" t="s">
         <v>269</v>
       </c>
       <c r="P3" s="112" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q3" s="112" t="s">
         <v>1038</v>
-      </c>
-      <c r="Q3" s="112" t="s">
-        <v>1039</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>66</v>
@@ -9485,82 +9450,82 @@
       </c>
       <c r="AB3" s="60"/>
       <c r="AC3" s="119" t="s">
+        <v>967</v>
+      </c>
+      <c r="AD3" s="112" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE3" s="112" t="s">
         <v>968</v>
       </c>
-      <c r="AD3" s="112" t="s">
+      <c r="AF3" s="112" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG3" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="AE3" s="112" t="s">
+      <c r="AH3" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI3" s="112" t="s">
         <v>969</v>
-      </c>
-      <c r="AF3" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG3" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH3" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI3" s="112" t="s">
-        <v>970</v>
       </c>
       <c r="AP3" s="106"/>
     </row>
     <row r="4" spans="2:42" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="99" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C4" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="96" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="E4" s="97" t="s">
         <v>377</v>
       </c>
-      <c r="E4" s="97" t="s">
-        <v>378</v>
-      </c>
       <c r="F4" s="99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G4" s="97" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="97" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="97" t="s">
         <v>379</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="J4" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="K4" s="104" t="s">
         <v>380</v>
       </c>
-      <c r="J4" s="104" t="s">
-        <v>634</v>
-      </c>
-      <c r="K4" s="104" t="s">
+      <c r="L4" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="M4" s="96" t="s">
         <v>382</v>
-      </c>
-      <c r="M4" s="96" t="s">
-        <v>383</v>
       </c>
       <c r="N4" s="108">
         <v>1200</v>
       </c>
       <c r="P4" s="117" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="S4" s="13">
         <v>11</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="W4" s="13">
         <v>11</v>
@@ -9569,7 +9534,7 @@
         <v>87</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Z4" s="13">
         <v>1540</v>
@@ -9584,11 +9549,11 @@
       <c r="AD4" s="118">
         <v>45575</v>
       </c>
-      <c r="AE4" s="137" t="s">
-        <v>926</v>
+      <c r="AE4" s="127" t="s">
+        <v>925</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AG4" s="13">
         <v>1540</v>
@@ -9597,56 +9562,56 @@
         <v>5</v>
       </c>
       <c r="AI4" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK4" s="115"/>
       <c r="AP4" s="126"/>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B5" s="100" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C5" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="E5" s="98" t="s">
         <v>385</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="F5" s="100" t="s">
+        <v>592</v>
+      </c>
+      <c r="G5" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="100" t="s">
-        <v>593</v>
-      </c>
-      <c r="G5" s="98" t="s">
+      <c r="H5" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="I5" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="J5" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="K5" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="J5" s="105" t="s">
-        <v>635</v>
-      </c>
-      <c r="K5" s="105" t="s">
+      <c r="L5" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="L5" s="105" t="s">
+      <c r="M5" s="95" t="s">
         <v>391</v>
-      </c>
-      <c r="M5" s="95" t="s">
-        <v>392</v>
       </c>
       <c r="N5" s="109">
         <v>350</v>
       </c>
       <c r="P5" s="117" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S5" s="13">
         <v>12</v>
@@ -9655,7 +9620,7 @@
         <v>95</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="W5" s="13">
         <v>13</v>
@@ -9679,11 +9644,11 @@
       <c r="AD5" s="118">
         <v>45576</v>
       </c>
-      <c r="AE5" s="137" t="s">
-        <v>927</v>
+      <c r="AE5" s="127" t="s">
+        <v>926</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AG5" s="13">
         <v>1200</v>
@@ -9692,56 +9657,56 @@
         <v>3</v>
       </c>
       <c r="AI5" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK5" s="115"/>
       <c r="AP5" s="126"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B6" s="100" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C6" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="E6" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="F6" s="100" t="s">
+        <v>593</v>
+      </c>
+      <c r="G6" s="98" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="100" t="s">
-        <v>594</v>
-      </c>
-      <c r="G6" s="98" t="s">
+      <c r="H6" s="98" t="s">
         <v>396</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="I6" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="J6" s="105" t="s">
+        <v>635</v>
+      </c>
+      <c r="K6" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="L6" s="105" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="105" t="s">
-        <v>399</v>
-      </c>
-      <c r="L6" s="105" t="s">
-        <v>637</v>
-      </c>
       <c r="M6" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N6" s="109">
         <v>5000</v>
       </c>
       <c r="P6" s="117" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S6" s="13">
         <v>13</v>
@@ -9750,7 +9715,7 @@
         <v>73</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="W6" s="13">
         <v>13</v>
@@ -9774,11 +9739,11 @@
       <c r="AD6" s="118">
         <v>45577</v>
       </c>
-      <c r="AE6" s="137" t="s">
-        <v>928</v>
+      <c r="AE6" s="127" t="s">
+        <v>927</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AG6" s="13">
         <v>1300</v>
@@ -9787,47 +9752,47 @@
         <v>7</v>
       </c>
       <c r="AI6" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK6" s="115"/>
       <c r="AP6" s="126"/>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B7" s="100" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C7" s="95" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="98" t="s">
         <v>401</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="F7" s="100" t="s">
+        <v>594</v>
+      </c>
+      <c r="G7" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="100" t="s">
-        <v>595</v>
-      </c>
-      <c r="G7" s="98" t="s">
+      <c r="H7" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="I7" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="J7" s="105" t="s">
+        <v>637</v>
+      </c>
+      <c r="K7" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="J7" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="K7" s="105" t="s">
-        <v>406</v>
-      </c>
       <c r="L7" s="105" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N7" s="109">
         <v>4200</v>
@@ -9840,7 +9805,7 @@
         <v>99</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="W7" s="13">
         <v>21</v>
@@ -9864,11 +9829,11 @@
       <c r="AD7" s="118">
         <v>45578</v>
       </c>
-      <c r="AE7" s="137" t="s">
-        <v>929</v>
+      <c r="AE7" s="127" t="s">
+        <v>928</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AG7" s="13">
         <v>900</v>
@@ -9877,47 +9842,47 @@
         <v>10</v>
       </c>
       <c r="AI7" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK7" s="115"/>
       <c r="AP7" s="126"/>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B8" s="100" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C8" s="95" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="E8" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="F8" s="100" t="s">
+        <v>595</v>
+      </c>
+      <c r="G8" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="F8" s="100" t="s">
-        <v>596</v>
-      </c>
-      <c r="G8" s="98" t="s">
+      <c r="H8" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="I8" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="J8" s="105" t="s">
+        <v>638</v>
+      </c>
+      <c r="K8" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="L8" s="105" t="s">
         <v>639</v>
       </c>
-      <c r="K8" s="105" t="s">
-        <v>413</v>
-      </c>
-      <c r="L8" s="105" t="s">
-        <v>640</v>
-      </c>
       <c r="M8" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N8" s="109">
         <v>850</v>
@@ -9930,7 +9895,7 @@
         <v>103</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="W8" s="13">
         <v>22</v>
@@ -9954,11 +9919,11 @@
       <c r="AD8" s="118">
         <v>45579</v>
       </c>
-      <c r="AE8" s="137" t="s">
-        <v>930</v>
+      <c r="AE8" s="127" t="s">
+        <v>929</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AG8" s="13">
         <v>400</v>
@@ -9967,47 +9932,47 @@
         <v>20</v>
       </c>
       <c r="AI8" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK8" s="115"/>
       <c r="AP8" s="126"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B9" s="100" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C9" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="E9" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="F9" s="100" t="s">
+        <v>596</v>
+      </c>
+      <c r="G9" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="F9" s="100" t="s">
-        <v>597</v>
-      </c>
-      <c r="G9" s="98" t="s">
+      <c r="H9" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="I9" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="J9" s="105" t="s">
+        <v>640</v>
+      </c>
+      <c r="K9" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="L9" s="105" t="s">
         <v>641</v>
       </c>
-      <c r="K9" s="105" t="s">
-        <v>420</v>
-      </c>
-      <c r="L9" s="105" t="s">
-        <v>642</v>
-      </c>
       <c r="M9" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N9" s="109">
         <v>2900</v>
@@ -10020,7 +9985,7 @@
         <v>86</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="W9" s="13">
         <v>12</v>
@@ -10044,11 +10009,11 @@
       <c r="AD9" s="118">
         <v>45580</v>
       </c>
-      <c r="AE9" s="137" t="s">
-        <v>931</v>
+      <c r="AE9" s="127" t="s">
+        <v>930</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AG9" s="13">
         <v>500</v>
@@ -10057,47 +10022,47 @@
         <v>15</v>
       </c>
       <c r="AI9" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK9" s="115"/>
       <c r="AP9" s="126"/>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B10" s="100" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="98" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>597</v>
+      </c>
+      <c r="G10" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="F10" s="100" t="s">
-        <v>598</v>
-      </c>
-      <c r="G10" s="98" t="s">
+      <c r="H10" s="98" t="s">
         <v>423</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="I10" s="98" t="s">
         <v>424</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="J10" s="105" t="s">
+        <v>642</v>
+      </c>
+      <c r="K10" s="105" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="L10" s="105" t="s">
         <v>643</v>
       </c>
-      <c r="K10" s="105" t="s">
-        <v>426</v>
-      </c>
-      <c r="L10" s="105" t="s">
-        <v>644</v>
-      </c>
       <c r="M10" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N10" s="109">
         <v>420</v>
@@ -10110,7 +10075,7 @@
         <v>91</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="W10" s="13">
         <v>15</v>
@@ -10134,11 +10099,11 @@
       <c r="AD10" s="118">
         <v>45581</v>
       </c>
-      <c r="AE10" s="137" t="s">
-        <v>932</v>
+      <c r="AE10" s="127" t="s">
+        <v>931</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AG10" s="13">
         <v>2500</v>
@@ -10147,54 +10112,54 @@
         <v>4</v>
       </c>
       <c r="AI10" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK10" s="115"/>
       <c r="AP10" s="126"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B11" s="100" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C11" s="95" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="E11" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>429</v>
-      </c>
       <c r="F11" s="100" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G11" s="98" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="I11" s="98" t="s">
         <v>430</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="J11" s="105" t="s">
+        <v>644</v>
+      </c>
+      <c r="K11" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="L11" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="K11" s="105" t="s">
-        <v>432</v>
-      </c>
-      <c r="L11" s="105" t="s">
-        <v>646</v>
-      </c>
       <c r="M11" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N11" s="109">
         <v>2300</v>
       </c>
       <c r="P11" s="116"/>
       <c r="V11" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="W11" s="13">
         <v>20</v>
@@ -10217,11 +10182,11 @@
       <c r="AD11" s="118">
         <v>45582</v>
       </c>
-      <c r="AE11" s="137" t="s">
-        <v>933</v>
+      <c r="AE11" s="127" t="s">
+        <v>932</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AG11" s="13">
         <v>300</v>
@@ -10230,54 +10195,54 @@
         <v>25</v>
       </c>
       <c r="AI11" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK11" s="115"/>
       <c r="AP11" s="126"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B12" s="100" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C12" s="95" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="E12" s="98" t="s">
         <v>434</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="F12" s="100" t="s">
+        <v>599</v>
+      </c>
+      <c r="G12" s="98" t="s">
         <v>435</v>
       </c>
-      <c r="F12" s="100" t="s">
-        <v>600</v>
-      </c>
-      <c r="G12" s="98" t="s">
+      <c r="H12" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="I12" s="98" t="s">
         <v>437</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="J12" s="105" t="s">
+        <v>646</v>
+      </c>
+      <c r="K12" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="L12" s="105" t="s">
         <v>647</v>
       </c>
-      <c r="K12" s="105" t="s">
-        <v>439</v>
-      </c>
-      <c r="L12" s="105" t="s">
-        <v>648</v>
-      </c>
       <c r="M12" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N12" s="109">
         <v>800</v>
       </c>
       <c r="P12" s="116"/>
       <c r="V12" s="13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="W12" s="13">
         <v>13</v>
@@ -10300,11 +10265,11 @@
       <c r="AD12" s="118">
         <v>45583</v>
       </c>
-      <c r="AE12" s="137" t="s">
-        <v>934</v>
+      <c r="AE12" s="127" t="s">
+        <v>933</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AG12" s="13">
         <v>1100</v>
@@ -10313,54 +10278,54 @@
         <v>2</v>
       </c>
       <c r="AI12" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK12" s="115"/>
       <c r="AP12" s="126"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B13" s="100" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C13" s="95" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="E13" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="F13" s="100" t="s">
+        <v>600</v>
+      </c>
+      <c r="G13" s="98" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="100" t="s">
-        <v>601</v>
-      </c>
-      <c r="G13" s="98" t="s">
+      <c r="H13" s="98" t="s">
         <v>443</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="I13" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="J13" s="105" t="s">
+        <v>648</v>
+      </c>
+      <c r="K13" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="L13" s="105" t="s">
         <v>649</v>
       </c>
-      <c r="K13" s="105" t="s">
-        <v>446</v>
-      </c>
-      <c r="L13" s="105" t="s">
-        <v>650</v>
-      </c>
       <c r="M13" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N13" s="109">
         <v>4600</v>
       </c>
       <c r="P13" s="116"/>
       <c r="V13" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="W13" s="13">
         <v>13</v>
@@ -10383,11 +10348,11 @@
       <c r="AD13" s="118">
         <v>45584</v>
       </c>
-      <c r="AE13" s="137" t="s">
-        <v>935</v>
+      <c r="AE13" s="127" t="s">
+        <v>934</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AG13" s="13">
         <v>150</v>
@@ -10396,63 +10361,63 @@
         <v>50</v>
       </c>
       <c r="AI13" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK13" s="115"/>
       <c r="AP13" s="126"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B14" s="100" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C14" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="E14" s="98" t="s">
         <v>448</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="F14" s="100" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="F14" s="100" t="s">
-        <v>602</v>
-      </c>
-      <c r="G14" s="98" t="s">
+      <c r="H14" s="98" t="s">
         <v>450</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="I14" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="J14" s="105" t="s">
+        <v>650</v>
+      </c>
+      <c r="K14" s="105" t="s">
         <v>452</v>
       </c>
-      <c r="J14" s="105" t="s">
+      <c r="L14" s="105" t="s">
         <v>651</v>
       </c>
-      <c r="K14" s="105" t="s">
-        <v>453</v>
-      </c>
-      <c r="L14" s="105" t="s">
-        <v>652</v>
-      </c>
       <c r="M14" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N14" s="109">
         <v>1500</v>
       </c>
       <c r="P14" s="116"/>
       <c r="V14" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="W14" s="13">
         <v>11</v>
       </c>
       <c r="X14" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>984</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>985</v>
       </c>
       <c r="Z14" s="13">
         <v>1800</v>
@@ -10466,11 +10431,11 @@
       <c r="AD14" s="118">
         <v>45585</v>
       </c>
-      <c r="AE14" s="137" t="s">
-        <v>936</v>
+      <c r="AE14" s="127" t="s">
+        <v>935</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AG14" s="13">
         <v>1800</v>
@@ -10479,63 +10444,63 @@
         <v>6</v>
       </c>
       <c r="AI14" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK14" s="115"/>
       <c r="AP14" s="126"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B15" s="100" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C15" s="95" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>454</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="E15" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="F15" s="100" t="s">
+        <v>602</v>
+      </c>
+      <c r="G15" s="98" t="s">
         <v>456</v>
       </c>
-      <c r="F15" s="100" t="s">
-        <v>603</v>
-      </c>
-      <c r="G15" s="98" t="s">
+      <c r="H15" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="H15" s="98" t="s">
+      <c r="I15" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="J15" s="105" t="s">
+        <v>652</v>
+      </c>
+      <c r="K15" s="105" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="105" t="s">
-        <v>653</v>
-      </c>
-      <c r="K15" s="105" t="s">
+      <c r="L15" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="L15" s="105" t="s">
-        <v>461</v>
-      </c>
       <c r="M15" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N15" s="109">
         <v>990</v>
       </c>
       <c r="P15" s="116"/>
       <c r="V15" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="W15" s="13">
         <v>13</v>
       </c>
       <c r="X15" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="Y15" s="13" t="s">
         <v>987</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>988</v>
       </c>
       <c r="Z15" s="13">
         <v>2000</v>
@@ -10549,11 +10514,11 @@
       <c r="AD15" s="118">
         <v>45586</v>
       </c>
-      <c r="AE15" s="137" t="s">
-        <v>937</v>
+      <c r="AE15" s="127" t="s">
+        <v>936</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AG15" s="13">
         <v>2000</v>
@@ -10562,63 +10527,63 @@
         <v>3</v>
       </c>
       <c r="AI15" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK15" s="115"/>
       <c r="AP15" s="126"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B16" s="100" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C16" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="D16" s="95" t="s">
         <v>462</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="E16" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="F16" s="100" t="s">
+        <v>603</v>
+      </c>
+      <c r="G16" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="F16" s="100" t="s">
-        <v>604</v>
-      </c>
-      <c r="G16" s="98" t="s">
+      <c r="H16" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="I16" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="J16" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="K16" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="J16" s="105" t="s">
-        <v>654</v>
-      </c>
-      <c r="K16" s="105" t="s">
-        <v>468</v>
-      </c>
       <c r="L16" s="105" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M16" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N16" s="109">
         <v>3000</v>
       </c>
       <c r="P16" s="116"/>
       <c r="V16" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="W16" s="13">
         <v>13</v>
       </c>
       <c r="X16" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="Y16" s="13" t="s">
         <v>990</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>991</v>
       </c>
       <c r="Z16" s="13">
         <v>1500</v>
@@ -10632,11 +10597,11 @@
       <c r="AD16" s="118">
         <v>45587</v>
       </c>
-      <c r="AE16" s="137" t="s">
-        <v>938</v>
+      <c r="AE16" s="127" t="s">
+        <v>937</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AG16" s="13">
         <v>1500</v>
@@ -10645,54 +10610,54 @@
         <v>8</v>
       </c>
       <c r="AI16" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK16" s="115"/>
       <c r="AP16" s="126"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B17" s="100" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C17" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" s="95" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="E17" s="98" t="s">
         <v>470</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="F17" s="100" t="s">
+        <v>599</v>
+      </c>
+      <c r="G17" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="F17" s="100" t="s">
-        <v>600</v>
-      </c>
-      <c r="G17" s="98" t="s">
+      <c r="H17" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="I17" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="J17" s="105" t="s">
+        <v>654</v>
+      </c>
+      <c r="K17" s="105" t="s">
         <v>474</v>
       </c>
-      <c r="J17" s="105" t="s">
-        <v>655</v>
-      </c>
-      <c r="K17" s="105" t="s">
+      <c r="L17" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="L17" s="105" t="s">
-        <v>476</v>
-      </c>
       <c r="M17" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N17" s="109">
         <v>470</v>
       </c>
       <c r="P17" s="116"/>
       <c r="V17" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="W17" s="13">
         <v>21</v>
@@ -10701,7 +10666,7 @@
         <v>92</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Z17" s="13">
         <v>600</v>
@@ -10715,11 +10680,11 @@
       <c r="AD17" s="118">
         <v>45588</v>
       </c>
-      <c r="AE17" s="137" t="s">
-        <v>939</v>
+      <c r="AE17" s="127" t="s">
+        <v>938</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AG17" s="13">
         <v>600</v>
@@ -10728,54 +10693,54 @@
         <v>12</v>
       </c>
       <c r="AI17" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK17" s="115"/>
       <c r="AP17" s="126"/>
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B18" s="100" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C18" s="95" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="E18" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="F18" s="100" t="s">
+        <v>604</v>
+      </c>
+      <c r="G18" s="98" t="s">
         <v>479</v>
       </c>
-      <c r="F18" s="100" t="s">
-        <v>605</v>
-      </c>
-      <c r="G18" s="98" t="s">
+      <c r="H18" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="I18" s="98" t="s">
         <v>481</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="J18" s="105" t="s">
+        <v>655</v>
+      </c>
+      <c r="K18" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="J18" s="105" t="s">
-        <v>656</v>
-      </c>
-      <c r="K18" s="105" t="s">
+      <c r="L18" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="L18" s="105" t="s">
-        <v>484</v>
-      </c>
       <c r="M18" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N18" s="109">
         <v>5200</v>
       </c>
       <c r="P18" s="116"/>
       <c r="V18" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="W18" s="13">
         <v>22</v>
@@ -10784,7 +10749,7 @@
         <v>87</v>
       </c>
       <c r="Y18" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="Z18" s="13">
         <v>450</v>
@@ -10798,11 +10763,11 @@
       <c r="AD18" s="118">
         <v>45589</v>
       </c>
-      <c r="AE18" s="137" t="s">
-        <v>940</v>
+      <c r="AE18" s="127" t="s">
+        <v>939</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AG18" s="13">
         <v>450</v>
@@ -10811,63 +10776,63 @@
         <v>18</v>
       </c>
       <c r="AI18" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK18" s="115"/>
       <c r="AP18" s="126"/>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B19" s="100" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C19" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" s="95" t="s">
         <v>485</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="E19" s="98" t="s">
         <v>486</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="F19" s="100" t="s">
+        <v>596</v>
+      </c>
+      <c r="G19" s="98" t="s">
         <v>487</v>
       </c>
-      <c r="F19" s="100" t="s">
-        <v>597</v>
-      </c>
-      <c r="G19" s="98" t="s">
+      <c r="H19" s="98" t="s">
         <v>488</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="I19" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="J19" s="105" t="s">
+        <v>656</v>
+      </c>
+      <c r="K19" s="105" t="s">
         <v>490</v>
       </c>
-      <c r="J19" s="105" t="s">
-        <v>657</v>
-      </c>
-      <c r="K19" s="105" t="s">
+      <c r="L19" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="L19" s="105" t="s">
-        <v>492</v>
-      </c>
       <c r="M19" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N19" s="109">
         <v>800</v>
       </c>
       <c r="P19" s="116"/>
       <c r="V19" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="W19" s="13">
         <v>12</v>
       </c>
       <c r="X19" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y19" s="13" t="s">
         <v>997</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>998</v>
       </c>
       <c r="Z19" s="13">
         <v>550</v>
@@ -10881,11 +10846,11 @@
       <c r="AD19" s="118">
         <v>45590</v>
       </c>
-      <c r="AE19" s="137" t="s">
-        <v>941</v>
+      <c r="AE19" s="127" t="s">
+        <v>940</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AG19" s="13">
         <v>550</v>
@@ -10894,63 +10859,63 @@
         <v>7</v>
       </c>
       <c r="AI19" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK19" s="115"/>
       <c r="AP19" s="126"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B20" s="100" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C20" s="95" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="95" t="s">
         <v>493</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="E20" s="98" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="F20" s="100" t="s">
+        <v>605</v>
+      </c>
+      <c r="G20" s="98" t="s">
         <v>495</v>
       </c>
-      <c r="F20" s="100" t="s">
-        <v>606</v>
-      </c>
-      <c r="G20" s="98" t="s">
+      <c r="H20" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="H20" s="98" t="s">
+      <c r="I20" s="98" t="s">
         <v>497</v>
       </c>
-      <c r="I20" s="98" t="s">
+      <c r="J20" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="K20" s="105" t="s">
         <v>498</v>
       </c>
-      <c r="J20" s="105" t="s">
-        <v>658</v>
-      </c>
-      <c r="K20" s="105" t="s">
-        <v>499</v>
-      </c>
       <c r="L20" s="105" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M20" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N20" s="109">
         <v>1600</v>
       </c>
       <c r="P20" s="116"/>
       <c r="V20" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="W20" s="13">
         <v>15</v>
       </c>
       <c r="X20" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="Y20" s="13" t="s">
         <v>1000</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>1001</v>
       </c>
       <c r="Z20" s="13">
         <v>2800</v>
@@ -10964,11 +10929,11 @@
       <c r="AD20" s="118">
         <v>45591</v>
       </c>
-      <c r="AE20" s="137" t="s">
-        <v>942</v>
+      <c r="AE20" s="127" t="s">
+        <v>941</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AG20" s="13">
         <v>2800</v>
@@ -10977,63 +10942,63 @@
         <v>3</v>
       </c>
       <c r="AI20" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK20" s="115"/>
       <c r="AP20" s="126"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B21" s="100" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C21" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" s="95" t="s">
         <v>500</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="E21" s="98" t="s">
         <v>501</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="F21" s="100" t="s">
+        <v>604</v>
+      </c>
+      <c r="G21" s="98" t="s">
         <v>502</v>
       </c>
-      <c r="F21" s="100" t="s">
-        <v>605</v>
-      </c>
-      <c r="G21" s="98" t="s">
+      <c r="H21" s="98" t="s">
         <v>503</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="I21" s="98" t="s">
         <v>504</v>
       </c>
-      <c r="I21" s="98" t="s">
+      <c r="J21" s="105" t="s">
+        <v>658</v>
+      </c>
+      <c r="K21" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="L21" s="105" t="s">
         <v>659</v>
       </c>
-      <c r="K21" s="105" t="s">
-        <v>506</v>
-      </c>
-      <c r="L21" s="105" t="s">
-        <v>660</v>
-      </c>
       <c r="M21" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N21" s="109">
         <v>2400</v>
       </c>
       <c r="P21" s="116"/>
       <c r="V21" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="W21" s="13">
         <v>20</v>
       </c>
       <c r="X21" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Y21" s="13" t="s">
         <v>1003</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>1004</v>
       </c>
       <c r="Z21" s="13">
         <v>350</v>
@@ -11047,11 +11012,11 @@
       <c r="AD21" s="118">
         <v>45592</v>
       </c>
-      <c r="AE21" s="137" t="s">
-        <v>943</v>
+      <c r="AE21" s="127" t="s">
+        <v>942</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AG21" s="13">
         <v>350</v>
@@ -11060,63 +11025,63 @@
         <v>22</v>
       </c>
       <c r="AI21" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK21" s="115"/>
       <c r="AP21" s="126"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B22" s="100" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C22" s="95" t="s">
+        <v>506</v>
+      </c>
+      <c r="D22" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="E22" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="F22" s="100" t="s">
+        <v>606</v>
+      </c>
+      <c r="G22" s="98" t="s">
         <v>509</v>
       </c>
-      <c r="F22" s="100" t="s">
-        <v>607</v>
-      </c>
-      <c r="G22" s="98" t="s">
+      <c r="H22" s="98" t="s">
         <v>510</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="I22" s="98" t="s">
         <v>511</v>
       </c>
-      <c r="I22" s="98" t="s">
+      <c r="J22" s="105" t="s">
+        <v>660</v>
+      </c>
+      <c r="K22" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="J22" s="105" t="s">
-        <v>661</v>
-      </c>
-      <c r="K22" s="105" t="s">
+      <c r="L22" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="L22" s="105" t="s">
-        <v>514</v>
-      </c>
       <c r="M22" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N22" s="109">
         <v>920</v>
       </c>
       <c r="P22" s="116"/>
       <c r="V22" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W22" s="13">
         <v>13</v>
       </c>
       <c r="X22" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Y22" s="13" t="s">
         <v>1006</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>1007</v>
       </c>
       <c r="Z22" s="13">
         <v>750</v>
@@ -11130,11 +11095,11 @@
       <c r="AD22" s="118">
         <v>45593</v>
       </c>
-      <c r="AE22" s="137" t="s">
-        <v>944</v>
+      <c r="AE22" s="127" t="s">
+        <v>943</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AG22" s="13">
         <v>750</v>
@@ -11143,63 +11108,63 @@
         <v>14</v>
       </c>
       <c r="AI22" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK22" s="115"/>
       <c r="AP22" s="126"/>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B23" s="100" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C23" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D23" s="95" t="s">
         <v>515</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="E23" s="98" t="s">
         <v>516</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="F23" s="100" t="s">
+        <v>607</v>
+      </c>
+      <c r="G23" s="98" t="s">
         <v>517</v>
       </c>
-      <c r="F23" s="100" t="s">
-        <v>608</v>
-      </c>
-      <c r="G23" s="98" t="s">
+      <c r="H23" s="98" t="s">
         <v>518</v>
       </c>
-      <c r="H23" s="98" t="s">
+      <c r="I23" s="98" t="s">
         <v>519</v>
       </c>
-      <c r="I23" s="98" t="s">
+      <c r="J23" s="105" t="s">
+        <v>661</v>
+      </c>
+      <c r="K23" s="105" t="s">
         <v>520</v>
       </c>
-      <c r="J23" s="105" t="s">
-        <v>662</v>
-      </c>
-      <c r="K23" s="105" t="s">
+      <c r="L23" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="L23" s="105" t="s">
-        <v>522</v>
-      </c>
       <c r="M23" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N23" s="109">
         <v>3400</v>
       </c>
       <c r="P23" s="116"/>
       <c r="V23" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="W23" s="13">
         <v>13</v>
       </c>
       <c r="X23" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y23" s="13" t="s">
         <v>1009</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>1010</v>
       </c>
       <c r="Z23" s="13">
         <v>850</v>
@@ -11213,11 +11178,11 @@
       <c r="AD23" s="118">
         <v>45594</v>
       </c>
-      <c r="AE23" s="137" t="s">
-        <v>945</v>
+      <c r="AE23" s="127" t="s">
+        <v>944</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AG23" s="13">
         <v>850</v>
@@ -11226,62 +11191,62 @@
         <v>9</v>
       </c>
       <c r="AI23" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK23" s="115"/>
       <c r="AP23" s="126"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B24" s="100" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C24" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="95" t="s">
         <v>524</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="E24" s="98" t="s">
         <v>525</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="F24" s="100" t="s">
+        <v>608</v>
+      </c>
+      <c r="G24" s="98" t="s">
         <v>526</v>
       </c>
-      <c r="F24" s="100" t="s">
-        <v>609</v>
-      </c>
-      <c r="G24" s="98" t="s">
+      <c r="H24" s="98" t="s">
         <v>527</v>
       </c>
-      <c r="H24" s="98" t="s">
+      <c r="I24" s="98" t="s">
         <v>528</v>
       </c>
-      <c r="I24" s="98" t="s">
+      <c r="J24" s="105" t="s">
+        <v>617</v>
+      </c>
+      <c r="K24" s="105" t="s">
         <v>529</v>
       </c>
-      <c r="J24" s="105" t="s">
+      <c r="L24" s="105" t="s">
         <v>618</v>
       </c>
-      <c r="K24" s="105" t="s">
-        <v>530</v>
-      </c>
-      <c r="L24" s="105" t="s">
-        <v>619</v>
-      </c>
       <c r="M24" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N24" s="109">
         <v>1500</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="W24" s="13">
         <v>11</v>
       </c>
       <c r="X24" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Y24" s="13" t="s">
         <v>1012</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>1013</v>
       </c>
       <c r="Z24" s="13">
         <v>3200</v>
@@ -11295,11 +11260,11 @@
       <c r="AD24" s="118">
         <v>45595</v>
       </c>
-      <c r="AE24" s="137" t="s">
-        <v>946</v>
+      <c r="AE24" s="127" t="s">
+        <v>945</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AG24" s="13">
         <v>3200</v>
@@ -11308,62 +11273,62 @@
         <v>2</v>
       </c>
       <c r="AI24" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK24" s="115"/>
       <c r="AP24" s="126"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B25" s="100" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C25" s="95" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="95" t="s">
         <v>531</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="E25" s="98" t="s">
         <v>532</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="F25" s="100" t="s">
+        <v>609</v>
+      </c>
+      <c r="G25" s="98" t="s">
         <v>533</v>
       </c>
-      <c r="F25" s="100" t="s">
-        <v>610</v>
-      </c>
-      <c r="G25" s="98" t="s">
+      <c r="H25" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="H25" s="98" t="s">
+      <c r="I25" s="98" t="s">
         <v>535</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="J25" s="105" t="s">
+        <v>619</v>
+      </c>
+      <c r="K25" s="105" t="s">
         <v>536</v>
       </c>
-      <c r="J25" s="105" t="s">
-        <v>620</v>
-      </c>
-      <c r="K25" s="105" t="s">
+      <c r="L25" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="L25" s="105" t="s">
-        <v>538</v>
-      </c>
       <c r="M25" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N25" s="109">
         <v>800</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="W25" s="13">
         <v>13</v>
       </c>
       <c r="X25" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Y25" s="13" t="s">
         <v>1015</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>1016</v>
       </c>
       <c r="Z25" s="13">
         <v>2500</v>
@@ -11377,11 +11342,11 @@
       <c r="AD25" s="118">
         <v>45596</v>
       </c>
-      <c r="AE25" s="137" t="s">
-        <v>947</v>
+      <c r="AE25" s="127" t="s">
+        <v>946</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AG25" s="13">
         <v>2500</v>
@@ -11390,62 +11355,62 @@
         <v>5</v>
       </c>
       <c r="AI25" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK25" s="115"/>
       <c r="AP25" s="126"/>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B26" s="100" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C26" s="95" t="s">
+        <v>538</v>
+      </c>
+      <c r="D26" s="95" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="E26" s="98" t="s">
         <v>540</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="F26" s="100" t="s">
+        <v>610</v>
+      </c>
+      <c r="G26" s="98" t="s">
         <v>541</v>
       </c>
-      <c r="F26" s="100" t="s">
-        <v>611</v>
-      </c>
-      <c r="G26" s="98" t="s">
+      <c r="H26" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="H26" s="98" t="s">
+      <c r="I26" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="I26" s="98" t="s">
+      <c r="J26" s="105" t="s">
+        <v>620</v>
+      </c>
+      <c r="K26" s="105" t="s">
         <v>544</v>
       </c>
-      <c r="J26" s="105" t="s">
+      <c r="L26" s="105" t="s">
         <v>621</v>
       </c>
-      <c r="K26" s="105" t="s">
-        <v>545</v>
-      </c>
-      <c r="L26" s="105" t="s">
-        <v>622</v>
-      </c>
       <c r="M26" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N26" s="109">
         <v>3100</v>
       </c>
       <c r="V26" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="W26" s="13">
         <v>13</v>
       </c>
       <c r="X26" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y26" s="13" t="s">
         <v>1018</v>
-      </c>
-      <c r="Y26" s="13" t="s">
-        <v>1019</v>
       </c>
       <c r="Z26" s="13">
         <v>1800</v>
@@ -11459,11 +11424,11 @@
       <c r="AD26" s="118">
         <v>45597</v>
       </c>
-      <c r="AE26" s="137" t="s">
-        <v>948</v>
+      <c r="AE26" s="127" t="s">
+        <v>947</v>
       </c>
       <c r="AF26" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AG26" s="13">
         <v>1800</v>
@@ -11472,62 +11437,62 @@
         <v>6</v>
       </c>
       <c r="AI26" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK26" s="115"/>
       <c r="AP26" s="126"/>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B27" s="100" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C27" s="95" t="s">
+        <v>545</v>
+      </c>
+      <c r="D27" s="95" t="s">
         <v>546</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="E27" s="98" t="s">
         <v>547</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="F27" s="100" t="s">
+        <v>611</v>
+      </c>
+      <c r="G27" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="F27" s="100" t="s">
-        <v>612</v>
-      </c>
-      <c r="G27" s="98" t="s">
+      <c r="H27" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="H27" s="98" t="s">
+      <c r="I27" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="I27" s="98" t="s">
+      <c r="J27" s="105" t="s">
+        <v>622</v>
+      </c>
+      <c r="K27" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="J27" s="105" t="s">
-        <v>623</v>
-      </c>
-      <c r="K27" s="105" t="s">
+      <c r="L27" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="L27" s="105" t="s">
-        <v>553</v>
-      </c>
       <c r="M27" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N27" s="109">
         <v>4000</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W27" s="13">
         <v>21</v>
       </c>
       <c r="X27" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Y27" s="13" t="s">
         <v>1021</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>1022</v>
       </c>
       <c r="Z27" s="13">
         <v>850</v>
@@ -11541,11 +11506,11 @@
       <c r="AD27" s="118">
         <v>45598</v>
       </c>
-      <c r="AE27" s="137" t="s">
-        <v>949</v>
+      <c r="AE27" s="127" t="s">
+        <v>948</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AG27" s="13">
         <v>850</v>
@@ -11554,62 +11519,62 @@
         <v>10</v>
       </c>
       <c r="AI27" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK27" s="115"/>
       <c r="AP27" s="126"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B28" s="100" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C28" s="95" t="s">
+        <v>553</v>
+      </c>
+      <c r="D28" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="E28" s="98" t="s">
         <v>555</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="F28" s="100" t="s">
+        <v>612</v>
+      </c>
+      <c r="G28" s="98" t="s">
         <v>556</v>
       </c>
-      <c r="F28" s="100" t="s">
-        <v>613</v>
-      </c>
-      <c r="G28" s="98" t="s">
+      <c r="H28" s="98" t="s">
         <v>557</v>
       </c>
-      <c r="H28" s="98" t="s">
+      <c r="I28" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="I28" s="98" t="s">
+      <c r="J28" s="105" t="s">
+        <v>623</v>
+      </c>
+      <c r="K28" s="105" t="s">
         <v>559</v>
       </c>
-      <c r="J28" s="105" t="s">
+      <c r="L28" s="105" t="s">
         <v>624</v>
       </c>
-      <c r="K28" s="105" t="s">
-        <v>560</v>
-      </c>
-      <c r="L28" s="105" t="s">
-        <v>625</v>
-      </c>
       <c r="M28" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N28" s="109">
         <v>1200</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W28" s="13">
         <v>22</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Y28" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Z28" s="13">
         <v>500</v>
@@ -11623,11 +11588,11 @@
       <c r="AD28" s="118">
         <v>45599</v>
       </c>
-      <c r="AE28" s="137" t="s">
-        <v>950</v>
+      <c r="AE28" s="127" t="s">
+        <v>949</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AG28" s="13">
         <v>500</v>
@@ -11636,53 +11601,53 @@
         <v>15</v>
       </c>
       <c r="AI28" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK28" s="115"/>
       <c r="AP28" s="126"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B29" s="100" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C29" s="95" t="s">
+        <v>560</v>
+      </c>
+      <c r="D29" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="E29" s="98" t="s">
         <v>562</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="F29" s="100" t="s">
+        <v>613</v>
+      </c>
+      <c r="G29" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="F29" s="100" t="s">
-        <v>614</v>
-      </c>
-      <c r="G29" s="98" t="s">
+      <c r="H29" s="98" t="s">
         <v>564</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="I29" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="J29" s="105" t="s">
+        <v>625</v>
+      </c>
+      <c r="K29" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="J29" s="105" t="s">
-        <v>626</v>
-      </c>
-      <c r="K29" s="105" t="s">
+      <c r="L29" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="L29" s="105" t="s">
-        <v>568</v>
-      </c>
       <c r="M29" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N29" s="109">
         <v>700</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W29" s="13">
         <v>12</v>
@@ -11691,7 +11656,7 @@
         <v>97</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Z29" s="13">
         <v>750</v>
@@ -11705,11 +11670,11 @@
       <c r="AD29" s="118">
         <v>45600</v>
       </c>
-      <c r="AE29" s="137" t="s">
-        <v>951</v>
+      <c r="AE29" s="127" t="s">
+        <v>950</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AG29" s="13">
         <v>750</v>
@@ -11718,62 +11683,62 @@
         <v>20</v>
       </c>
       <c r="AI29" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK29" s="115"/>
       <c r="AP29" s="126"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C30" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" s="95" t="s">
         <v>569</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="E30" s="98" t="s">
         <v>570</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="F30" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="G30" s="98" t="s">
         <v>571</v>
       </c>
-      <c r="F30" s="100" t="s">
-        <v>615</v>
-      </c>
-      <c r="G30" s="98" t="s">
+      <c r="H30" s="98" t="s">
         <v>572</v>
       </c>
-      <c r="H30" s="98" t="s">
+      <c r="I30" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J30" s="105" t="s">
+        <v>626</v>
+      </c>
+      <c r="K30" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="I30" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J30" s="105" t="s">
+      <c r="L30" s="105" t="s">
         <v>627</v>
       </c>
-      <c r="K30" s="105" t="s">
-        <v>574</v>
-      </c>
-      <c r="L30" s="105" t="s">
-        <v>628</v>
-      </c>
       <c r="M30" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N30" s="109">
         <v>1100</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W30" s="13">
         <v>15</v>
       </c>
       <c r="X30" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Y30" s="13" t="s">
         <v>1028</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>1029</v>
       </c>
       <c r="Z30" s="13">
         <v>3000</v>
@@ -11787,11 +11752,11 @@
       <c r="AD30" s="118">
         <v>45601</v>
       </c>
-      <c r="AE30" s="137" t="s">
-        <v>952</v>
+      <c r="AE30" s="127" t="s">
+        <v>951</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AG30" s="13">
         <v>3000</v>
@@ -11800,62 +11765,62 @@
         <v>3</v>
       </c>
       <c r="AI30" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK30" s="115"/>
       <c r="AP30" s="126"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B31" s="100" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C31" s="95" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="95" t="s">
         <v>575</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="E31" s="98" t="s">
         <v>576</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="F31" s="100" t="s">
+        <v>615</v>
+      </c>
+      <c r="G31" s="98" t="s">
         <v>577</v>
       </c>
-      <c r="F31" s="100" t="s">
-        <v>616</v>
-      </c>
-      <c r="G31" s="98" t="s">
+      <c r="H31" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="H31" s="98" t="s">
+      <c r="I31" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J31" s="105" t="s">
+        <v>628</v>
+      </c>
+      <c r="K31" s="105" t="s">
         <v>579</v>
       </c>
-      <c r="I31" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J31" s="105" t="s">
+      <c r="L31" s="105" t="s">
         <v>629</v>
       </c>
-      <c r="K31" s="105" t="s">
-        <v>580</v>
-      </c>
-      <c r="L31" s="105" t="s">
-        <v>630</v>
-      </c>
       <c r="M31" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N31" s="109">
         <v>520</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="W31" s="13">
         <v>20</v>
       </c>
       <c r="X31" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Y31" s="13" t="s">
         <v>1031</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="Z31" s="13">
         <v>400</v>
@@ -11869,11 +11834,11 @@
       <c r="AD31" s="118">
         <v>45602</v>
       </c>
-      <c r="AE31" s="137" t="s">
-        <v>953</v>
+      <c r="AE31" s="127" t="s">
+        <v>952</v>
       </c>
       <c r="AF31" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AG31" s="13">
         <v>400</v>
@@ -11882,53 +11847,53 @@
         <v>28</v>
       </c>
       <c r="AI31" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK31" s="115"/>
       <c r="AP31" s="126"/>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B32" s="100" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C32" s="95" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" s="95" t="s">
         <v>581</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="E32" s="98" t="s">
         <v>582</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="F32" s="100" t="s">
+        <v>613</v>
+      </c>
+      <c r="G32" s="98" t="s">
         <v>583</v>
       </c>
-      <c r="F32" s="100" t="s">
-        <v>614</v>
-      </c>
-      <c r="G32" s="98" t="s">
+      <c r="H32" s="98" t="s">
         <v>584</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="I32" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J32" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="K32" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I32" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J32" s="105" t="s">
-        <v>631</v>
-      </c>
-      <c r="K32" s="105" t="s">
-        <v>586</v>
-      </c>
       <c r="L32" s="105" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M32" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N32" s="109">
         <v>2100</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W32" s="13">
         <v>13</v>
@@ -11937,7 +11902,7 @@
         <v>74</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Z32" s="13">
         <v>2500</v>
@@ -11951,11 +11916,11 @@
       <c r="AD32" s="118">
         <v>45603</v>
       </c>
-      <c r="AE32" s="137" t="s">
-        <v>954</v>
+      <c r="AE32" s="127" t="s">
+        <v>953</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AG32" s="13">
         <v>2500</v>
@@ -11964,53 +11929,53 @@
         <v>5</v>
       </c>
       <c r="AI32" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK32" s="115"/>
       <c r="AP32" s="126"/>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B33" s="100" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C33" s="95" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E33" s="98" t="s">
         <v>587</v>
       </c>
-      <c r="D33" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E33" s="98" t="s">
+      <c r="F33" s="100" t="s">
+        <v>616</v>
+      </c>
+      <c r="G33" s="98" t="s">
         <v>588</v>
       </c>
-      <c r="F33" s="100" t="s">
-        <v>617</v>
-      </c>
-      <c r="G33" s="98" t="s">
+      <c r="H33" s="98" t="s">
         <v>589</v>
       </c>
-      <c r="H33" s="98" t="s">
+      <c r="I33" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J33" s="105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K33" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="I33" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J33" s="105" t="s">
+      <c r="L33" s="105" t="s">
         <v>632</v>
       </c>
-      <c r="K33" s="105" t="s">
-        <v>591</v>
-      </c>
-      <c r="L33" s="105" t="s">
-        <v>633</v>
-      </c>
       <c r="M33" s="95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N33" s="109">
         <v>3000</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="W33" s="13">
         <v>13</v>
@@ -12019,7 +11984,7 @@
         <v>109</v>
       </c>
       <c r="Y33" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Z33" s="13">
         <v>1700</v>
@@ -12033,11 +11998,11 @@
       <c r="AD33" s="118">
         <v>45604</v>
       </c>
-      <c r="AE33" s="137" t="s">
-        <v>955</v>
+      <c r="AE33" s="127" t="s">
+        <v>954</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AG33" s="13">
         <v>1700</v>
@@ -12046,2089 +12011,2089 @@
         <v>7</v>
       </c>
       <c r="AI33" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK33" s="115"/>
       <c r="AP33" s="126"/>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B34" s="95" t="s">
+        <v>662</v>
+      </c>
+      <c r="C34" s="95" t="s">
         <v>663</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="D34" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="E34" s="98" t="s">
+        <v>875</v>
+      </c>
+      <c r="F34" s="100" t="s">
         <v>665</v>
       </c>
-      <c r="E34" s="98" t="s">
-        <v>876</v>
-      </c>
-      <c r="F34" s="100" t="s">
+      <c r="G34" s="98" t="s">
         <v>666</v>
       </c>
-      <c r="G34" s="98" t="s">
+      <c r="H34" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="H34" s="98" t="s">
+      <c r="I34" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J34" s="105" t="s">
+        <v>633</v>
+      </c>
+      <c r="K34" s="105" t="s">
         <v>668</v>
       </c>
-      <c r="I34" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="J34" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K34" s="105" t="s">
+      <c r="L34" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="M34" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N34" s="109" t="s">
         <v>669</v>
-      </c>
-      <c r="L34" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="M34" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N34" s="109" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B35" s="95" t="s">
+        <v>670</v>
+      </c>
+      <c r="C35" s="95" t="s">
         <v>671</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="D35" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>876</v>
+      </c>
+      <c r="F35" s="100" t="s">
         <v>672</v>
       </c>
-      <c r="D35" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="E35" s="98" t="s">
-        <v>877</v>
-      </c>
-      <c r="F35" s="100" t="s">
+      <c r="G35" s="98" t="s">
         <v>673</v>
       </c>
-      <c r="G35" s="98" t="s">
+      <c r="H35" s="98" t="s">
         <v>674</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="I35" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J35" s="105" t="s">
         <v>675</v>
       </c>
-      <c r="I35" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J35" s="105" t="s">
+      <c r="K35" s="105" t="s">
         <v>676</v>
       </c>
-      <c r="K35" s="105" t="s">
+      <c r="L35" s="105" t="s">
         <v>677</v>
       </c>
-      <c r="L35" s="105" t="s">
+      <c r="M35" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N35" s="109" t="s">
         <v>678</v>
-      </c>
-      <c r="M35" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N35" s="109" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B36" s="95" t="s">
+        <v>679</v>
+      </c>
+      <c r="C36" s="95" t="s">
         <v>680</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="D36" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>877</v>
+      </c>
+      <c r="F36" s="100" t="s">
         <v>681</v>
       </c>
-      <c r="D36" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E36" s="98" t="s">
-        <v>878</v>
-      </c>
-      <c r="F36" s="100" t="s">
+      <c r="G36" s="98" t="s">
         <v>682</v>
       </c>
-      <c r="G36" s="98" t="s">
+      <c r="H36" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="I36" s="98" t="s">
         <v>684</v>
       </c>
-      <c r="I36" s="98" t="s">
+      <c r="J36" s="105" t="s">
         <v>685</v>
       </c>
-      <c r="J36" s="105" t="s">
+      <c r="K36" s="105" t="s">
         <v>686</v>
       </c>
-      <c r="K36" s="105" t="s">
+      <c r="L36" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="M36" s="95" t="s">
         <v>687</v>
       </c>
-      <c r="L36" s="105" t="s">
-        <v>568</v>
-      </c>
-      <c r="M36" s="95" t="s">
+      <c r="N36" s="109" t="s">
         <v>688</v>
-      </c>
-      <c r="N36" s="109" t="s">
-        <v>689</v>
       </c>
       <c r="AD36" s="115"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B37" s="95" t="s">
+        <v>689</v>
+      </c>
+      <c r="C37" s="95" t="s">
         <v>690</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="D37" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>878</v>
+      </c>
+      <c r="F37" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="D37" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>879</v>
-      </c>
-      <c r="F37" s="100" t="s">
+      <c r="G37" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H37" s="98" t="s">
         <v>692</v>
       </c>
-      <c r="G37" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="H37" s="98" t="s">
+      <c r="I37" s="98" t="s">
         <v>693</v>
       </c>
-      <c r="I37" s="98" t="s">
+      <c r="J37" s="105" t="s">
         <v>694</v>
       </c>
-      <c r="J37" s="105" t="s">
+      <c r="K37" s="105" t="s">
         <v>695</v>
       </c>
-      <c r="K37" s="105" t="s">
+      <c r="L37" s="105" t="s">
         <v>696</v>
       </c>
-      <c r="L37" s="105" t="s">
+      <c r="M37" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N37" s="109" t="s">
         <v>697</v>
-      </c>
-      <c r="M37" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N37" s="109" t="s">
-        <v>698</v>
       </c>
       <c r="AD37" s="115"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B38" s="95" t="s">
+        <v>698</v>
+      </c>
+      <c r="C38" s="95" t="s">
         <v>699</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="D38" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="E38" s="98" t="s">
+        <v>879</v>
+      </c>
+      <c r="F38" s="100" t="s">
         <v>701</v>
       </c>
-      <c r="E38" s="98" t="s">
-        <v>880</v>
-      </c>
-      <c r="F38" s="100" t="s">
+      <c r="G38" s="98" t="s">
         <v>702</v>
       </c>
-      <c r="G38" s="98" t="s">
+      <c r="H38" s="98" t="s">
         <v>703</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="I38" s="98" t="s">
         <v>704</v>
       </c>
-      <c r="I38" s="98" t="s">
+      <c r="J38" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="K38" s="105" t="s">
         <v>705</v>
       </c>
-      <c r="J38" s="105" t="s">
-        <v>631</v>
-      </c>
-      <c r="K38" s="105" t="s">
+      <c r="L38" s="105" t="s">
         <v>706</v>
       </c>
-      <c r="L38" s="105" t="s">
+      <c r="M38" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N38" s="109" t="s">
         <v>707</v>
-      </c>
-      <c r="M38" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N38" s="109" t="s">
-        <v>708</v>
       </c>
       <c r="AD38" s="115"/>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B39" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="C39" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="D39" s="95" t="s">
         <v>710</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="E39" s="98" t="s">
+        <v>880</v>
+      </c>
+      <c r="F39" s="100" t="s">
         <v>711</v>
       </c>
-      <c r="E39" s="98" t="s">
-        <v>881</v>
-      </c>
-      <c r="F39" s="100" t="s">
+      <c r="G39" s="98" t="s">
         <v>712</v>
       </c>
-      <c r="G39" s="98" t="s">
+      <c r="H39" s="98" t="s">
         <v>713</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="I39" s="98" t="s">
         <v>714</v>
       </c>
-      <c r="I39" s="98" t="s">
+      <c r="J39" s="105" t="s">
         <v>715</v>
       </c>
-      <c r="J39" s="105" t="s">
+      <c r="K39" s="105" t="s">
         <v>716</v>
       </c>
-      <c r="K39" s="105" t="s">
+      <c r="L39" s="105" t="s">
         <v>717</v>
       </c>
-      <c r="L39" s="105" t="s">
+      <c r="M39" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N39" s="109" t="s">
         <v>718</v>
-      </c>
-      <c r="M39" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N39" s="109" t="s">
-        <v>719</v>
       </c>
       <c r="AD39" s="115"/>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B40" s="95" t="s">
+        <v>719</v>
+      </c>
+      <c r="C40" s="95" t="s">
         <v>720</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="D40" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="E40" s="98" t="s">
+        <v>881</v>
+      </c>
+      <c r="F40" s="100" t="s">
         <v>721</v>
       </c>
-      <c r="D40" s="95" t="s">
-        <v>525</v>
-      </c>
-      <c r="E40" s="98" t="s">
-        <v>882</v>
-      </c>
-      <c r="F40" s="100" t="s">
+      <c r="G40" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="G40" s="98" t="s">
+      <c r="H40" s="98" t="s">
         <v>723</v>
       </c>
-      <c r="H40" s="98" t="s">
+      <c r="I40" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="I40" s="98" t="s">
+      <c r="J40" s="105" t="s">
         <v>725</v>
       </c>
-      <c r="J40" s="105" t="s">
+      <c r="K40" s="105" t="s">
         <v>726</v>
       </c>
-      <c r="K40" s="105" t="s">
+      <c r="L40" s="105" t="s">
         <v>727</v>
       </c>
-      <c r="L40" s="105" t="s">
+      <c r="M40" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N40" s="109" t="s">
         <v>728</v>
-      </c>
-      <c r="M40" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N40" s="109" t="s">
-        <v>729</v>
       </c>
       <c r="AD40" s="115"/>
     </row>
     <row r="41" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B41" s="95" t="s">
+        <v>729</v>
+      </c>
+      <c r="C41" s="95" t="s">
         <v>730</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="D41" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41" s="98" t="s">
+        <v>882</v>
+      </c>
+      <c r="F41" s="100" t="s">
         <v>731</v>
       </c>
-      <c r="D41" s="95" t="s">
-        <v>562</v>
-      </c>
-      <c r="E41" s="98" t="s">
-        <v>883</v>
-      </c>
-      <c r="F41" s="100" t="s">
+      <c r="G41" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="H41" s="98" t="s">
         <v>732</v>
       </c>
-      <c r="G41" s="98" t="s">
-        <v>510</v>
-      </c>
-      <c r="H41" s="98" t="s">
+      <c r="I41" s="98" t="s">
         <v>733</v>
       </c>
-      <c r="I41" s="98" t="s">
+      <c r="J41" s="105" t="s">
         <v>734</v>
       </c>
-      <c r="J41" s="105" t="s">
+      <c r="K41" s="105" t="s">
         <v>735</v>
       </c>
-      <c r="K41" s="105" t="s">
+      <c r="L41" s="105" t="s">
         <v>736</v>
       </c>
-      <c r="L41" s="105" t="s">
+      <c r="M41" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N41" s="109" t="s">
         <v>737</v>
-      </c>
-      <c r="M41" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N41" s="109" t="s">
-        <v>738</v>
       </c>
       <c r="AD41" s="115"/>
     </row>
     <row r="42" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B42" s="95" t="s">
+        <v>738</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D42" s="95" t="s">
+        <v>575</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>883</v>
+      </c>
+      <c r="F42" s="100" t="s">
         <v>739</v>
       </c>
-      <c r="C42" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="D42" s="95" t="s">
-        <v>576</v>
-      </c>
-      <c r="E42" s="98" t="s">
-        <v>884</v>
-      </c>
-      <c r="F42" s="100" t="s">
+      <c r="G42" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="H42" s="98" t="s">
         <v>740</v>
       </c>
-      <c r="G42" s="98" t="s">
-        <v>589</v>
-      </c>
-      <c r="H42" s="98" t="s">
+      <c r="I42" s="98" t="s">
         <v>741</v>
       </c>
-      <c r="I42" s="98" t="s">
+      <c r="J42" s="105" t="s">
         <v>742</v>
       </c>
-      <c r="J42" s="105" t="s">
+      <c r="K42" s="105" t="s">
         <v>743</v>
       </c>
-      <c r="K42" s="105" t="s">
+      <c r="L42" s="105" t="s">
         <v>744</v>
       </c>
-      <c r="L42" s="105" t="s">
+      <c r="M42" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N42" s="109" t="s">
         <v>745</v>
-      </c>
-      <c r="M42" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N42" s="109" t="s">
-        <v>746</v>
       </c>
       <c r="AD42" s="115"/>
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B43" s="95" t="s">
+        <v>746</v>
+      </c>
+      <c r="C43" s="95" t="s">
         <v>747</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="D43" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="E43" s="98" t="s">
+        <v>884</v>
+      </c>
+      <c r="F43" s="100" t="s">
         <v>748</v>
       </c>
-      <c r="D43" s="95" t="s">
-        <v>555</v>
-      </c>
-      <c r="E43" s="98" t="s">
-        <v>885</v>
-      </c>
-      <c r="F43" s="100" t="s">
+      <c r="G43" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="H43" s="98" t="s">
         <v>749</v>
       </c>
-      <c r="G43" s="98" t="s">
-        <v>518</v>
-      </c>
-      <c r="H43" s="98" t="s">
+      <c r="I43" s="98" t="s">
         <v>750</v>
       </c>
-      <c r="I43" s="98" t="s">
+      <c r="J43" s="105" t="s">
         <v>751</v>
       </c>
-      <c r="J43" s="105" t="s">
+      <c r="K43" s="105" t="s">
         <v>752</v>
       </c>
-      <c r="K43" s="105" t="s">
+      <c r="L43" s="105" t="s">
         <v>753</v>
       </c>
-      <c r="L43" s="105" t="s">
+      <c r="M43" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N43" s="109" t="s">
         <v>754</v>
-      </c>
-      <c r="M43" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N43" s="109" t="s">
-        <v>755</v>
       </c>
       <c r="AD43" s="115"/>
     </row>
     <row r="44" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B44" s="95" t="s">
+        <v>755</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>663</v>
+      </c>
+      <c r="D44" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="E44" s="98" t="s">
+        <v>885</v>
+      </c>
+      <c r="F44" s="100" t="s">
         <v>756</v>
       </c>
-      <c r="C44" s="95" t="s">
-        <v>664</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>665</v>
-      </c>
-      <c r="E44" s="98" t="s">
-        <v>886</v>
-      </c>
-      <c r="F44" s="100" t="s">
+      <c r="G44" s="98" t="s">
+        <v>666</v>
+      </c>
+      <c r="H44" s="98" t="s">
+        <v>667</v>
+      </c>
+      <c r="I44" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J44" s="105" t="s">
+        <v>633</v>
+      </c>
+      <c r="K44" s="105" t="s">
+        <v>668</v>
+      </c>
+      <c r="L44" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N44" s="109" t="s">
         <v>757</v>
-      </c>
-      <c r="G44" s="98" t="s">
-        <v>667</v>
-      </c>
-      <c r="H44" s="98" t="s">
-        <v>668</v>
-      </c>
-      <c r="I44" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="J44" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K44" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="L44" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="M44" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N44" s="109" t="s">
-        <v>758</v>
       </c>
       <c r="AD44" s="115"/>
     </row>
     <row r="45" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B45" s="95" t="s">
+        <v>758</v>
+      </c>
+      <c r="C45" s="95" t="s">
+        <v>671</v>
+      </c>
+      <c r="D45" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E45" s="98" t="s">
+        <v>886</v>
+      </c>
+      <c r="F45" s="100" t="s">
         <v>759</v>
       </c>
-      <c r="C45" s="95" t="s">
-        <v>672</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="E45" s="98" t="s">
-        <v>887</v>
-      </c>
-      <c r="F45" s="100" t="s">
+      <c r="G45" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="H45" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="I45" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J45" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="K45" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="L45" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="M45" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N45" s="109" t="s">
         <v>760</v>
-      </c>
-      <c r="G45" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="H45" s="98" t="s">
-        <v>675</v>
-      </c>
-      <c r="I45" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J45" s="105" t="s">
-        <v>676</v>
-      </c>
-      <c r="K45" s="105" t="s">
-        <v>677</v>
-      </c>
-      <c r="L45" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="M45" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N45" s="109" t="s">
-        <v>761</v>
       </c>
       <c r="AD45" s="115"/>
     </row>
     <row r="46" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B46" s="95" t="s">
+        <v>761</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>680</v>
+      </c>
+      <c r="D46" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="98" t="s">
+        <v>887</v>
+      </c>
+      <c r="F46" s="100" t="s">
         <v>762</v>
       </c>
-      <c r="C46" s="95" t="s">
-        <v>681</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E46" s="98" t="s">
-        <v>888</v>
-      </c>
-      <c r="F46" s="100" t="s">
+      <c r="G46" s="98" t="s">
+        <v>682</v>
+      </c>
+      <c r="H46" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="I46" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="J46" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="K46" s="105" t="s">
+        <v>686</v>
+      </c>
+      <c r="L46" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="M46" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N46" s="109" t="s">
         <v>763</v>
-      </c>
-      <c r="G46" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="H46" s="98" t="s">
-        <v>684</v>
-      </c>
-      <c r="I46" s="98" t="s">
-        <v>685</v>
-      </c>
-      <c r="J46" s="105" t="s">
-        <v>686</v>
-      </c>
-      <c r="K46" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="L46" s="105" t="s">
-        <v>568</v>
-      </c>
-      <c r="M46" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N46" s="109" t="s">
-        <v>764</v>
       </c>
       <c r="AD46" s="115"/>
     </row>
     <row r="47" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B47" s="95" t="s">
+        <v>764</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="D47" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E47" s="98" t="s">
+        <v>888</v>
+      </c>
+      <c r="F47" s="100" t="s">
         <v>765</v>
       </c>
-      <c r="C47" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="D47" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E47" s="98" t="s">
-        <v>889</v>
-      </c>
-      <c r="F47" s="100" t="s">
+      <c r="G47" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H47" s="98" t="s">
+        <v>692</v>
+      </c>
+      <c r="I47" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J47" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="K47" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="L47" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="M47" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N47" s="109" t="s">
         <v>766</v>
-      </c>
-      <c r="G47" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="H47" s="98" t="s">
-        <v>693</v>
-      </c>
-      <c r="I47" s="98" t="s">
-        <v>694</v>
-      </c>
-      <c r="J47" s="105" t="s">
-        <v>695</v>
-      </c>
-      <c r="K47" s="105" t="s">
-        <v>696</v>
-      </c>
-      <c r="L47" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="M47" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N47" s="109" t="s">
-        <v>767</v>
       </c>
       <c r="AD47" s="115"/>
     </row>
     <row r="48" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B48" s="95" t="s">
+        <v>767</v>
+      </c>
+      <c r="C48" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="E48" s="98" t="s">
+        <v>889</v>
+      </c>
+      <c r="F48" s="100" t="s">
         <v>768</v>
       </c>
-      <c r="C48" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="D48" s="95" t="s">
-        <v>701</v>
-      </c>
-      <c r="E48" s="98" t="s">
-        <v>890</v>
-      </c>
-      <c r="F48" s="100" t="s">
+      <c r="G48" s="98" t="s">
+        <v>702</v>
+      </c>
+      <c r="H48" s="98" t="s">
+        <v>703</v>
+      </c>
+      <c r="I48" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="J48" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="K48" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="L48" s="105" t="s">
+        <v>706</v>
+      </c>
+      <c r="M48" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N48" s="109" t="s">
         <v>769</v>
-      </c>
-      <c r="G48" s="98" t="s">
-        <v>703</v>
-      </c>
-      <c r="H48" s="98" t="s">
-        <v>704</v>
-      </c>
-      <c r="I48" s="98" t="s">
-        <v>705</v>
-      </c>
-      <c r="J48" s="105" t="s">
-        <v>631</v>
-      </c>
-      <c r="K48" s="105" t="s">
-        <v>706</v>
-      </c>
-      <c r="L48" s="105" t="s">
-        <v>707</v>
-      </c>
-      <c r="M48" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N48" s="109" t="s">
-        <v>770</v>
       </c>
       <c r="AD48" s="115"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B49" s="95" t="s">
+        <v>770</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="E49" s="98" t="s">
+        <v>890</v>
+      </c>
+      <c r="F49" s="100" t="s">
         <v>771</v>
       </c>
-      <c r="C49" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="D49" s="95" t="s">
-        <v>711</v>
-      </c>
-      <c r="E49" s="98" t="s">
-        <v>891</v>
-      </c>
-      <c r="F49" s="100" t="s">
+      <c r="G49" s="98" t="s">
+        <v>712</v>
+      </c>
+      <c r="H49" s="98" t="s">
+        <v>713</v>
+      </c>
+      <c r="I49" s="98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J49" s="105" t="s">
+        <v>715</v>
+      </c>
+      <c r="K49" s="105" t="s">
+        <v>716</v>
+      </c>
+      <c r="L49" s="105" t="s">
+        <v>717</v>
+      </c>
+      <c r="M49" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N49" s="109" t="s">
         <v>772</v>
-      </c>
-      <c r="G49" s="98" t="s">
-        <v>713</v>
-      </c>
-      <c r="H49" s="98" t="s">
-        <v>714</v>
-      </c>
-      <c r="I49" s="98" t="s">
-        <v>715</v>
-      </c>
-      <c r="J49" s="105" t="s">
-        <v>716</v>
-      </c>
-      <c r="K49" s="105" t="s">
-        <v>717</v>
-      </c>
-      <c r="L49" s="105" t="s">
-        <v>718</v>
-      </c>
-      <c r="M49" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N49" s="109" t="s">
-        <v>773</v>
       </c>
       <c r="AD49" s="115"/>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B50" s="95" t="s">
+        <v>773</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>720</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="E50" s="98" t="s">
+        <v>891</v>
+      </c>
+      <c r="F50" s="100" t="s">
         <v>774</v>
       </c>
-      <c r="C50" s="95" t="s">
-        <v>721</v>
-      </c>
-      <c r="D50" s="95" t="s">
-        <v>525</v>
-      </c>
-      <c r="E50" s="98" t="s">
-        <v>892</v>
-      </c>
-      <c r="F50" s="100" t="s">
+      <c r="G50" s="98" t="s">
+        <v>722</v>
+      </c>
+      <c r="H50" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="I50" s="98" t="s">
+        <v>724</v>
+      </c>
+      <c r="J50" s="105" t="s">
+        <v>725</v>
+      </c>
+      <c r="K50" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="L50" s="105" t="s">
+        <v>727</v>
+      </c>
+      <c r="M50" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N50" s="109" t="s">
         <v>775</v>
-      </c>
-      <c r="G50" s="98" t="s">
-        <v>723</v>
-      </c>
-      <c r="H50" s="98" t="s">
-        <v>724</v>
-      </c>
-      <c r="I50" s="98" t="s">
-        <v>725</v>
-      </c>
-      <c r="J50" s="105" t="s">
-        <v>726</v>
-      </c>
-      <c r="K50" s="105" t="s">
-        <v>727</v>
-      </c>
-      <c r="L50" s="105" t="s">
-        <v>728</v>
-      </c>
-      <c r="M50" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N50" s="109" t="s">
-        <v>776</v>
       </c>
       <c r="AD50" s="115"/>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B51" s="95" t="s">
+        <v>776</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>730</v>
+      </c>
+      <c r="D51" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="E51" s="98" t="s">
+        <v>892</v>
+      </c>
+      <c r="F51" s="100" t="s">
         <v>777</v>
       </c>
-      <c r="C51" s="95" t="s">
-        <v>731</v>
-      </c>
-      <c r="D51" s="95" t="s">
-        <v>562</v>
-      </c>
-      <c r="E51" s="98" t="s">
-        <v>893</v>
-      </c>
-      <c r="F51" s="100" t="s">
+      <c r="G51" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="H51" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="I51" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="J51" s="105" t="s">
+        <v>734</v>
+      </c>
+      <c r="K51" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="L51" s="105" t="s">
+        <v>736</v>
+      </c>
+      <c r="M51" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N51" s="109" t="s">
         <v>778</v>
-      </c>
-      <c r="G51" s="98" t="s">
-        <v>510</v>
-      </c>
-      <c r="H51" s="98" t="s">
-        <v>733</v>
-      </c>
-      <c r="I51" s="98" t="s">
-        <v>734</v>
-      </c>
-      <c r="J51" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="K51" s="105" t="s">
-        <v>736</v>
-      </c>
-      <c r="L51" s="105" t="s">
-        <v>737</v>
-      </c>
-      <c r="M51" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N51" s="109" t="s">
-        <v>779</v>
       </c>
       <c r="AD51" s="115"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B52" s="95" t="s">
+        <v>779</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>575</v>
+      </c>
+      <c r="E52" s="98" t="s">
+        <v>893</v>
+      </c>
+      <c r="F52" s="100" t="s">
         <v>780</v>
       </c>
-      <c r="C52" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>576</v>
-      </c>
-      <c r="E52" s="98" t="s">
-        <v>894</v>
-      </c>
-      <c r="F52" s="100" t="s">
+      <c r="G52" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="H52" s="98" t="s">
+        <v>740</v>
+      </c>
+      <c r="I52" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="J52" s="105" t="s">
+        <v>742</v>
+      </c>
+      <c r="K52" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="L52" s="105" t="s">
+        <v>744</v>
+      </c>
+      <c r="M52" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N52" s="109" t="s">
         <v>781</v>
-      </c>
-      <c r="G52" s="98" t="s">
-        <v>589</v>
-      </c>
-      <c r="H52" s="98" t="s">
-        <v>741</v>
-      </c>
-      <c r="I52" s="98" t="s">
-        <v>742</v>
-      </c>
-      <c r="J52" s="105" t="s">
-        <v>743</v>
-      </c>
-      <c r="K52" s="105" t="s">
-        <v>744</v>
-      </c>
-      <c r="L52" s="105" t="s">
-        <v>745</v>
-      </c>
-      <c r="M52" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N52" s="109" t="s">
-        <v>782</v>
       </c>
       <c r="AD52" s="115"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B53" s="95" t="s">
+        <v>782</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="D53" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="E53" s="98" t="s">
+        <v>894</v>
+      </c>
+      <c r="F53" s="100" t="s">
         <v>783</v>
       </c>
-      <c r="C53" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="D53" s="95" t="s">
-        <v>555</v>
-      </c>
-      <c r="E53" s="98" t="s">
-        <v>895</v>
-      </c>
-      <c r="F53" s="100" t="s">
+      <c r="G53" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="H53" s="98" t="s">
+        <v>749</v>
+      </c>
+      <c r="I53" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="J53" s="105" t="s">
+        <v>751</v>
+      </c>
+      <c r="K53" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="L53" s="105" t="s">
+        <v>753</v>
+      </c>
+      <c r="M53" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N53" s="109" t="s">
         <v>784</v>
-      </c>
-      <c r="G53" s="98" t="s">
-        <v>518</v>
-      </c>
-      <c r="H53" s="98" t="s">
-        <v>750</v>
-      </c>
-      <c r="I53" s="98" t="s">
-        <v>751</v>
-      </c>
-      <c r="J53" s="105" t="s">
-        <v>752</v>
-      </c>
-      <c r="K53" s="105" t="s">
-        <v>753</v>
-      </c>
-      <c r="L53" s="105" t="s">
-        <v>754</v>
-      </c>
-      <c r="M53" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N53" s="109" t="s">
-        <v>785</v>
       </c>
       <c r="AD53" s="115"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B54" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>663</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="E54" s="98" t="s">
+        <v>895</v>
+      </c>
+      <c r="F54" s="100" t="s">
         <v>786</v>
       </c>
-      <c r="C54" s="95" t="s">
-        <v>664</v>
-      </c>
-      <c r="D54" s="95" t="s">
-        <v>665</v>
-      </c>
-      <c r="E54" s="98" t="s">
-        <v>896</v>
-      </c>
-      <c r="F54" s="100" t="s">
+      <c r="G54" s="98" t="s">
+        <v>666</v>
+      </c>
+      <c r="H54" s="98" t="s">
+        <v>667</v>
+      </c>
+      <c r="I54" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J54" s="105" t="s">
+        <v>633</v>
+      </c>
+      <c r="K54" s="105" t="s">
+        <v>668</v>
+      </c>
+      <c r="L54" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="M54" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N54" s="109" t="s">
         <v>787</v>
-      </c>
-      <c r="G54" s="98" t="s">
-        <v>667</v>
-      </c>
-      <c r="H54" s="98" t="s">
-        <v>668</v>
-      </c>
-      <c r="I54" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="J54" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K54" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="L54" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="M54" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N54" s="109" t="s">
-        <v>788</v>
       </c>
       <c r="AD54" s="115"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B55" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="C55" s="95" t="s">
+        <v>671</v>
+      </c>
+      <c r="D55" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E55" s="98" t="s">
+        <v>896</v>
+      </c>
+      <c r="F55" s="100" t="s">
         <v>789</v>
       </c>
-      <c r="C55" s="95" t="s">
-        <v>672</v>
-      </c>
-      <c r="D55" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="E55" s="98" t="s">
-        <v>897</v>
-      </c>
-      <c r="F55" s="100" t="s">
+      <c r="G55" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="H55" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="I55" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J55" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="K55" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="L55" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="M55" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N55" s="109" t="s">
         <v>790</v>
-      </c>
-      <c r="G55" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="H55" s="98" t="s">
-        <v>675</v>
-      </c>
-      <c r="I55" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J55" s="105" t="s">
-        <v>676</v>
-      </c>
-      <c r="K55" s="105" t="s">
-        <v>677</v>
-      </c>
-      <c r="L55" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="M55" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N55" s="109" t="s">
-        <v>791</v>
       </c>
       <c r="AD55" s="115"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B56" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>680</v>
+      </c>
+      <c r="D56" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>897</v>
+      </c>
+      <c r="F56" s="100" t="s">
         <v>792</v>
       </c>
-      <c r="C56" s="95" t="s">
-        <v>681</v>
-      </c>
-      <c r="D56" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E56" s="98" t="s">
-        <v>898</v>
-      </c>
-      <c r="F56" s="100" t="s">
+      <c r="G56" s="98" t="s">
+        <v>682</v>
+      </c>
+      <c r="H56" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="I56" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="J56" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="K56" s="105" t="s">
+        <v>686</v>
+      </c>
+      <c r="L56" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="M56" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N56" s="109" t="s">
         <v>793</v>
-      </c>
-      <c r="G56" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="H56" s="98" t="s">
-        <v>684</v>
-      </c>
-      <c r="I56" s="98" t="s">
-        <v>685</v>
-      </c>
-      <c r="J56" s="105" t="s">
-        <v>686</v>
-      </c>
-      <c r="K56" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="L56" s="105" t="s">
-        <v>568</v>
-      </c>
-      <c r="M56" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N56" s="109" t="s">
-        <v>794</v>
       </c>
       <c r="AD56" s="115"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B57" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="D57" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="F57" s="100" t="s">
         <v>795</v>
       </c>
-      <c r="C57" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="D57" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E57" s="98" t="s">
-        <v>899</v>
-      </c>
-      <c r="F57" s="100" t="s">
+      <c r="G57" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H57" s="98" t="s">
+        <v>692</v>
+      </c>
+      <c r="I57" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J57" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="K57" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="L57" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="M57" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N57" s="109" t="s">
         <v>796</v>
-      </c>
-      <c r="G57" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="H57" s="98" t="s">
-        <v>693</v>
-      </c>
-      <c r="I57" s="98" t="s">
-        <v>694</v>
-      </c>
-      <c r="J57" s="105" t="s">
-        <v>695</v>
-      </c>
-      <c r="K57" s="105" t="s">
-        <v>696</v>
-      </c>
-      <c r="L57" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="M57" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N57" s="109" t="s">
-        <v>797</v>
       </c>
       <c r="AD57" s="115"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B58" s="95" t="s">
+        <v>797</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="D58" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="E58" s="98" t="s">
+        <v>899</v>
+      </c>
+      <c r="F58" s="100" t="s">
         <v>798</v>
       </c>
-      <c r="C58" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="D58" s="95" t="s">
-        <v>701</v>
-      </c>
-      <c r="E58" s="98" t="s">
-        <v>900</v>
-      </c>
-      <c r="F58" s="100" t="s">
+      <c r="G58" s="98" t="s">
+        <v>702</v>
+      </c>
+      <c r="H58" s="98" t="s">
+        <v>703</v>
+      </c>
+      <c r="I58" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="J58" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="K58" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="L58" s="105" t="s">
+        <v>706</v>
+      </c>
+      <c r="M58" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N58" s="109" t="s">
         <v>799</v>
-      </c>
-      <c r="G58" s="98" t="s">
-        <v>703</v>
-      </c>
-      <c r="H58" s="98" t="s">
-        <v>704</v>
-      </c>
-      <c r="I58" s="98" t="s">
-        <v>705</v>
-      </c>
-      <c r="J58" s="105" t="s">
-        <v>631</v>
-      </c>
-      <c r="K58" s="105" t="s">
-        <v>706</v>
-      </c>
-      <c r="L58" s="105" t="s">
-        <v>707</v>
-      </c>
-      <c r="M58" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N58" s="109" t="s">
-        <v>800</v>
       </c>
       <c r="AD58" s="115"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B59" s="95" t="s">
+        <v>800</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="E59" s="98" t="s">
+        <v>900</v>
+      </c>
+      <c r="F59" s="100" t="s">
         <v>801</v>
       </c>
-      <c r="C59" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="D59" s="95" t="s">
-        <v>711</v>
-      </c>
-      <c r="E59" s="98" t="s">
-        <v>901</v>
-      </c>
-      <c r="F59" s="100" t="s">
+      <c r="G59" s="98" t="s">
+        <v>712</v>
+      </c>
+      <c r="H59" s="98" t="s">
+        <v>713</v>
+      </c>
+      <c r="I59" s="98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J59" s="105" t="s">
+        <v>715</v>
+      </c>
+      <c r="K59" s="105" t="s">
+        <v>716</v>
+      </c>
+      <c r="L59" s="105" t="s">
+        <v>717</v>
+      </c>
+      <c r="M59" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N59" s="109" t="s">
         <v>802</v>
-      </c>
-      <c r="G59" s="98" t="s">
-        <v>713</v>
-      </c>
-      <c r="H59" s="98" t="s">
-        <v>714</v>
-      </c>
-      <c r="I59" s="98" t="s">
-        <v>715</v>
-      </c>
-      <c r="J59" s="105" t="s">
-        <v>716</v>
-      </c>
-      <c r="K59" s="105" t="s">
-        <v>717</v>
-      </c>
-      <c r="L59" s="105" t="s">
-        <v>718</v>
-      </c>
-      <c r="M59" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N59" s="109" t="s">
-        <v>803</v>
       </c>
       <c r="AD59" s="115"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B60" s="95" t="s">
+        <v>803</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>720</v>
+      </c>
+      <c r="D60" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="E60" s="98" t="s">
+        <v>901</v>
+      </c>
+      <c r="F60" s="100" t="s">
         <v>804</v>
       </c>
-      <c r="C60" s="95" t="s">
-        <v>721</v>
-      </c>
-      <c r="D60" s="95" t="s">
-        <v>525</v>
-      </c>
-      <c r="E60" s="98" t="s">
-        <v>902</v>
-      </c>
-      <c r="F60" s="100" t="s">
+      <c r="G60" s="98" t="s">
+        <v>722</v>
+      </c>
+      <c r="H60" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="I60" s="98" t="s">
+        <v>724</v>
+      </c>
+      <c r="J60" s="105" t="s">
+        <v>725</v>
+      </c>
+      <c r="K60" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="L60" s="105" t="s">
+        <v>727</v>
+      </c>
+      <c r="M60" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N60" s="109" t="s">
         <v>805</v>
-      </c>
-      <c r="G60" s="98" t="s">
-        <v>723</v>
-      </c>
-      <c r="H60" s="98" t="s">
-        <v>724</v>
-      </c>
-      <c r="I60" s="98" t="s">
-        <v>725</v>
-      </c>
-      <c r="J60" s="105" t="s">
-        <v>726</v>
-      </c>
-      <c r="K60" s="105" t="s">
-        <v>727</v>
-      </c>
-      <c r="L60" s="105" t="s">
-        <v>728</v>
-      </c>
-      <c r="M60" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N60" s="109" t="s">
-        <v>806</v>
       </c>
       <c r="AD60" s="115"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B61" s="95" t="s">
+        <v>806</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>730</v>
+      </c>
+      <c r="D61" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="E61" s="98" t="s">
+        <v>902</v>
+      </c>
+      <c r="F61" s="100" t="s">
         <v>807</v>
       </c>
-      <c r="C61" s="95" t="s">
-        <v>731</v>
-      </c>
-      <c r="D61" s="95" t="s">
-        <v>562</v>
-      </c>
-      <c r="E61" s="98" t="s">
-        <v>903</v>
-      </c>
-      <c r="F61" s="100" t="s">
+      <c r="G61" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="H61" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="I61" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="J61" s="105" t="s">
+        <v>734</v>
+      </c>
+      <c r="K61" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="L61" s="105" t="s">
+        <v>736</v>
+      </c>
+      <c r="M61" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N61" s="109" t="s">
         <v>808</v>
-      </c>
-      <c r="G61" s="98" t="s">
-        <v>510</v>
-      </c>
-      <c r="H61" s="98" t="s">
-        <v>733</v>
-      </c>
-      <c r="I61" s="98" t="s">
-        <v>734</v>
-      </c>
-      <c r="J61" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="K61" s="105" t="s">
-        <v>736</v>
-      </c>
-      <c r="L61" s="105" t="s">
-        <v>737</v>
-      </c>
-      <c r="M61" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N61" s="109" t="s">
-        <v>809</v>
       </c>
       <c r="AD61" s="115"/>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B62" s="95" t="s">
+        <v>809</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D62" s="95" t="s">
+        <v>575</v>
+      </c>
+      <c r="E62" s="98" t="s">
+        <v>903</v>
+      </c>
+      <c r="F62" s="100" t="s">
         <v>810</v>
       </c>
-      <c r="C62" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="D62" s="95" t="s">
-        <v>576</v>
-      </c>
-      <c r="E62" s="98" t="s">
-        <v>904</v>
-      </c>
-      <c r="F62" s="100" t="s">
+      <c r="G62" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="H62" s="98" t="s">
+        <v>740</v>
+      </c>
+      <c r="I62" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="J62" s="105" t="s">
+        <v>742</v>
+      </c>
+      <c r="K62" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="L62" s="105" t="s">
+        <v>744</v>
+      </c>
+      <c r="M62" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N62" s="109" t="s">
         <v>811</v>
-      </c>
-      <c r="G62" s="98" t="s">
-        <v>589</v>
-      </c>
-      <c r="H62" s="98" t="s">
-        <v>741</v>
-      </c>
-      <c r="I62" s="98" t="s">
-        <v>742</v>
-      </c>
-      <c r="J62" s="105" t="s">
-        <v>743</v>
-      </c>
-      <c r="K62" s="105" t="s">
-        <v>744</v>
-      </c>
-      <c r="L62" s="105" t="s">
-        <v>745</v>
-      </c>
-      <c r="M62" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N62" s="109" t="s">
-        <v>812</v>
       </c>
       <c r="AD62" s="115"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B63" s="95" t="s">
+        <v>812</v>
+      </c>
+      <c r="C63" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="D63" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="E63" s="98" t="s">
+        <v>904</v>
+      </c>
+      <c r="F63" s="100" t="s">
         <v>813</v>
       </c>
-      <c r="C63" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="D63" s="95" t="s">
-        <v>555</v>
-      </c>
-      <c r="E63" s="98" t="s">
-        <v>905</v>
-      </c>
-      <c r="F63" s="100" t="s">
+      <c r="G63" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="H63" s="98" t="s">
+        <v>749</v>
+      </c>
+      <c r="I63" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="J63" s="105" t="s">
+        <v>751</v>
+      </c>
+      <c r="K63" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="L63" s="105" t="s">
+        <v>753</v>
+      </c>
+      <c r="M63" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N63" s="109" t="s">
         <v>814</v>
-      </c>
-      <c r="G63" s="98" t="s">
-        <v>518</v>
-      </c>
-      <c r="H63" s="98" t="s">
-        <v>750</v>
-      </c>
-      <c r="I63" s="98" t="s">
-        <v>751</v>
-      </c>
-      <c r="J63" s="105" t="s">
-        <v>752</v>
-      </c>
-      <c r="K63" s="105" t="s">
-        <v>753</v>
-      </c>
-      <c r="L63" s="105" t="s">
-        <v>754</v>
-      </c>
-      <c r="M63" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N63" s="109" t="s">
-        <v>815</v>
       </c>
       <c r="AD63" s="115"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B64" s="95" t="s">
+        <v>815</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>663</v>
+      </c>
+      <c r="D64" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="E64" s="98" t="s">
+        <v>905</v>
+      </c>
+      <c r="F64" s="100" t="s">
         <v>816</v>
       </c>
-      <c r="C64" s="95" t="s">
-        <v>664</v>
-      </c>
-      <c r="D64" s="95" t="s">
-        <v>665</v>
-      </c>
-      <c r="E64" s="98" t="s">
-        <v>906</v>
-      </c>
-      <c r="F64" s="100" t="s">
+      <c r="G64" s="98" t="s">
+        <v>666</v>
+      </c>
+      <c r="H64" s="98" t="s">
+        <v>667</v>
+      </c>
+      <c r="I64" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J64" s="105" t="s">
+        <v>633</v>
+      </c>
+      <c r="K64" s="105" t="s">
+        <v>668</v>
+      </c>
+      <c r="L64" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="M64" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N64" s="109" t="s">
         <v>817</v>
-      </c>
-      <c r="G64" s="98" t="s">
-        <v>667</v>
-      </c>
-      <c r="H64" s="98" t="s">
-        <v>668</v>
-      </c>
-      <c r="I64" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="J64" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K64" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="L64" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="M64" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N64" s="109" t="s">
-        <v>818</v>
       </c>
       <c r="AD64" s="115"/>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B65" s="95" t="s">
+        <v>818</v>
+      </c>
+      <c r="C65" s="95" t="s">
+        <v>671</v>
+      </c>
+      <c r="D65" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E65" s="98" t="s">
+        <v>906</v>
+      </c>
+      <c r="F65" s="100" t="s">
         <v>819</v>
       </c>
-      <c r="C65" s="95" t="s">
-        <v>672</v>
-      </c>
-      <c r="D65" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="E65" s="98" t="s">
-        <v>907</v>
-      </c>
-      <c r="F65" s="100" t="s">
+      <c r="G65" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="H65" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="I65" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J65" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="K65" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="L65" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="M65" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N65" s="109" t="s">
         <v>820</v>
-      </c>
-      <c r="G65" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="H65" s="98" t="s">
-        <v>675</v>
-      </c>
-      <c r="I65" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J65" s="105" t="s">
-        <v>676</v>
-      </c>
-      <c r="K65" s="105" t="s">
-        <v>677</v>
-      </c>
-      <c r="L65" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="M65" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N65" s="109" t="s">
-        <v>821</v>
       </c>
       <c r="AD65" s="115"/>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B66" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C66" s="95" t="s">
+        <v>680</v>
+      </c>
+      <c r="D66" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="E66" s="98" t="s">
+        <v>907</v>
+      </c>
+      <c r="F66" s="100" t="s">
         <v>822</v>
       </c>
-      <c r="C66" s="95" t="s">
-        <v>681</v>
-      </c>
-      <c r="D66" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E66" s="98" t="s">
-        <v>908</v>
-      </c>
-      <c r="F66" s="100" t="s">
+      <c r="G66" s="98" t="s">
+        <v>682</v>
+      </c>
+      <c r="H66" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="I66" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="J66" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="K66" s="105" t="s">
+        <v>686</v>
+      </c>
+      <c r="L66" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="M66" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N66" s="109" t="s">
         <v>823</v>
-      </c>
-      <c r="G66" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="H66" s="98" t="s">
-        <v>684</v>
-      </c>
-      <c r="I66" s="98" t="s">
-        <v>685</v>
-      </c>
-      <c r="J66" s="105" t="s">
-        <v>686</v>
-      </c>
-      <c r="K66" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="L66" s="105" t="s">
-        <v>568</v>
-      </c>
-      <c r="M66" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N66" s="109" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B67" s="95" t="s">
+        <v>824</v>
+      </c>
+      <c r="C67" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="D67" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E67" s="98" t="s">
+        <v>908</v>
+      </c>
+      <c r="F67" s="100" t="s">
         <v>825</v>
       </c>
-      <c r="C67" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="D67" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E67" s="98" t="s">
-        <v>909</v>
-      </c>
-      <c r="F67" s="100" t="s">
+      <c r="G67" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H67" s="98" t="s">
+        <v>692</v>
+      </c>
+      <c r="I67" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J67" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="K67" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="L67" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="M67" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N67" s="109" t="s">
         <v>826</v>
-      </c>
-      <c r="G67" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="H67" s="98" t="s">
-        <v>693</v>
-      </c>
-      <c r="I67" s="98" t="s">
-        <v>694</v>
-      </c>
-      <c r="J67" s="105" t="s">
-        <v>695</v>
-      </c>
-      <c r="K67" s="105" t="s">
-        <v>696</v>
-      </c>
-      <c r="L67" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="M67" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N67" s="109" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B68" s="95" t="s">
+        <v>827</v>
+      </c>
+      <c r="C68" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="D68" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="E68" s="98" t="s">
+        <v>909</v>
+      </c>
+      <c r="F68" s="100" t="s">
         <v>828</v>
       </c>
-      <c r="C68" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="D68" s="95" t="s">
-        <v>701</v>
-      </c>
-      <c r="E68" s="98" t="s">
-        <v>910</v>
-      </c>
-      <c r="F68" s="100" t="s">
+      <c r="G68" s="98" t="s">
+        <v>702</v>
+      </c>
+      <c r="H68" s="98" t="s">
+        <v>703</v>
+      </c>
+      <c r="I68" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="J68" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="K68" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="L68" s="105" t="s">
+        <v>706</v>
+      </c>
+      <c r="M68" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N68" s="109" t="s">
         <v>829</v>
-      </c>
-      <c r="G68" s="98" t="s">
-        <v>703</v>
-      </c>
-      <c r="H68" s="98" t="s">
-        <v>704</v>
-      </c>
-      <c r="I68" s="98" t="s">
-        <v>705</v>
-      </c>
-      <c r="J68" s="105" t="s">
-        <v>631</v>
-      </c>
-      <c r="K68" s="105" t="s">
-        <v>706</v>
-      </c>
-      <c r="L68" s="105" t="s">
-        <v>707</v>
-      </c>
-      <c r="M68" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N68" s="109" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B69" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="C69" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="E69" s="98" t="s">
+        <v>910</v>
+      </c>
+      <c r="F69" s="100" t="s">
         <v>831</v>
       </c>
-      <c r="C69" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="D69" s="95" t="s">
-        <v>711</v>
-      </c>
-      <c r="E69" s="98" t="s">
-        <v>911</v>
-      </c>
-      <c r="F69" s="100" t="s">
+      <c r="G69" s="98" t="s">
+        <v>712</v>
+      </c>
+      <c r="H69" s="98" t="s">
+        <v>713</v>
+      </c>
+      <c r="I69" s="98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J69" s="105" t="s">
+        <v>715</v>
+      </c>
+      <c r="K69" s="105" t="s">
+        <v>716</v>
+      </c>
+      <c r="L69" s="105" t="s">
+        <v>717</v>
+      </c>
+      <c r="M69" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N69" s="109" t="s">
         <v>832</v>
-      </c>
-      <c r="G69" s="98" t="s">
-        <v>713</v>
-      </c>
-      <c r="H69" s="98" t="s">
-        <v>714</v>
-      </c>
-      <c r="I69" s="98" t="s">
-        <v>715</v>
-      </c>
-      <c r="J69" s="105" t="s">
-        <v>716</v>
-      </c>
-      <c r="K69" s="105" t="s">
-        <v>717</v>
-      </c>
-      <c r="L69" s="105" t="s">
-        <v>718</v>
-      </c>
-      <c r="M69" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N69" s="109" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B70" s="95" t="s">
+        <v>833</v>
+      </c>
+      <c r="C70" s="95" t="s">
+        <v>720</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="E70" s="98" t="s">
+        <v>911</v>
+      </c>
+      <c r="F70" s="100" t="s">
         <v>834</v>
       </c>
-      <c r="C70" s="95" t="s">
-        <v>721</v>
-      </c>
-      <c r="D70" s="95" t="s">
-        <v>525</v>
-      </c>
-      <c r="E70" s="98" t="s">
-        <v>912</v>
-      </c>
-      <c r="F70" s="100" t="s">
+      <c r="G70" s="98" t="s">
+        <v>722</v>
+      </c>
+      <c r="H70" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="I70" s="98" t="s">
+        <v>724</v>
+      </c>
+      <c r="J70" s="105" t="s">
+        <v>725</v>
+      </c>
+      <c r="K70" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="L70" s="105" t="s">
+        <v>727</v>
+      </c>
+      <c r="M70" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N70" s="109" t="s">
         <v>835</v>
-      </c>
-      <c r="G70" s="98" t="s">
-        <v>723</v>
-      </c>
-      <c r="H70" s="98" t="s">
-        <v>724</v>
-      </c>
-      <c r="I70" s="98" t="s">
-        <v>725</v>
-      </c>
-      <c r="J70" s="105" t="s">
-        <v>726</v>
-      </c>
-      <c r="K70" s="105" t="s">
-        <v>727</v>
-      </c>
-      <c r="L70" s="105" t="s">
-        <v>728</v>
-      </c>
-      <c r="M70" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N70" s="109" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B71" s="95" t="s">
+        <v>836</v>
+      </c>
+      <c r="C71" s="95" t="s">
+        <v>730</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="E71" s="98" t="s">
+        <v>912</v>
+      </c>
+      <c r="F71" s="100" t="s">
         <v>837</v>
       </c>
-      <c r="C71" s="95" t="s">
-        <v>731</v>
-      </c>
-      <c r="D71" s="95" t="s">
-        <v>562</v>
-      </c>
-      <c r="E71" s="98" t="s">
-        <v>913</v>
-      </c>
-      <c r="F71" s="100" t="s">
+      <c r="G71" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="H71" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="I71" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="J71" s="105" t="s">
+        <v>734</v>
+      </c>
+      <c r="K71" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="L71" s="105" t="s">
+        <v>736</v>
+      </c>
+      <c r="M71" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N71" s="109" t="s">
         <v>838</v>
-      </c>
-      <c r="G71" s="98" t="s">
-        <v>510</v>
-      </c>
-      <c r="H71" s="98" t="s">
-        <v>733</v>
-      </c>
-      <c r="I71" s="98" t="s">
-        <v>734</v>
-      </c>
-      <c r="J71" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="K71" s="105" t="s">
-        <v>736</v>
-      </c>
-      <c r="L71" s="105" t="s">
-        <v>737</v>
-      </c>
-      <c r="M71" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N71" s="109" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B72" s="95" t="s">
+        <v>839</v>
+      </c>
+      <c r="C72" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D72" s="95" t="s">
+        <v>575</v>
+      </c>
+      <c r="E72" s="98" t="s">
+        <v>913</v>
+      </c>
+      <c r="F72" s="100" t="s">
         <v>840</v>
       </c>
-      <c r="C72" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="D72" s="95" t="s">
-        <v>576</v>
-      </c>
-      <c r="E72" s="98" t="s">
-        <v>914</v>
-      </c>
-      <c r="F72" s="100" t="s">
+      <c r="G72" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="H72" s="98" t="s">
+        <v>740</v>
+      </c>
+      <c r="I72" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="J72" s="105" t="s">
+        <v>742</v>
+      </c>
+      <c r="K72" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="L72" s="105" t="s">
+        <v>744</v>
+      </c>
+      <c r="M72" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N72" s="109" t="s">
         <v>841</v>
-      </c>
-      <c r="G72" s="98" t="s">
-        <v>589</v>
-      </c>
-      <c r="H72" s="98" t="s">
-        <v>741</v>
-      </c>
-      <c r="I72" s="98" t="s">
-        <v>742</v>
-      </c>
-      <c r="J72" s="105" t="s">
-        <v>743</v>
-      </c>
-      <c r="K72" s="105" t="s">
-        <v>744</v>
-      </c>
-      <c r="L72" s="105" t="s">
-        <v>745</v>
-      </c>
-      <c r="M72" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N72" s="109" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B73" s="95" t="s">
+        <v>842</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="E73" s="98" t="s">
+        <v>914</v>
+      </c>
+      <c r="F73" s="100" t="s">
         <v>843</v>
       </c>
-      <c r="C73" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="D73" s="95" t="s">
-        <v>555</v>
-      </c>
-      <c r="E73" s="98" t="s">
-        <v>915</v>
-      </c>
-      <c r="F73" s="100" t="s">
+      <c r="G73" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="H73" s="98" t="s">
+        <v>749</v>
+      </c>
+      <c r="I73" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="J73" s="105" t="s">
+        <v>751</v>
+      </c>
+      <c r="K73" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="L73" s="105" t="s">
+        <v>753</v>
+      </c>
+      <c r="M73" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N73" s="109" t="s">
         <v>844</v>
-      </c>
-      <c r="G73" s="98" t="s">
-        <v>518</v>
-      </c>
-      <c r="H73" s="98" t="s">
-        <v>750</v>
-      </c>
-      <c r="I73" s="98" t="s">
-        <v>751</v>
-      </c>
-      <c r="J73" s="105" t="s">
-        <v>752</v>
-      </c>
-      <c r="K73" s="105" t="s">
-        <v>753</v>
-      </c>
-      <c r="L73" s="105" t="s">
-        <v>754</v>
-      </c>
-      <c r="M73" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N73" s="109" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B74" s="95" t="s">
+        <v>845</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>663</v>
+      </c>
+      <c r="D74" s="95" t="s">
+        <v>664</v>
+      </c>
+      <c r="E74" s="98" t="s">
+        <v>915</v>
+      </c>
+      <c r="F74" s="100" t="s">
         <v>846</v>
       </c>
-      <c r="C74" s="95" t="s">
-        <v>664</v>
-      </c>
-      <c r="D74" s="95" t="s">
-        <v>665</v>
-      </c>
-      <c r="E74" s="98" t="s">
-        <v>916</v>
-      </c>
-      <c r="F74" s="100" t="s">
+      <c r="G74" s="98" t="s">
+        <v>666</v>
+      </c>
+      <c r="H74" s="98" t="s">
+        <v>667</v>
+      </c>
+      <c r="I74" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J74" s="105" t="s">
+        <v>633</v>
+      </c>
+      <c r="K74" s="105" t="s">
+        <v>668</v>
+      </c>
+      <c r="L74" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="M74" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N74" s="109" t="s">
         <v>847</v>
-      </c>
-      <c r="G74" s="98" t="s">
-        <v>667</v>
-      </c>
-      <c r="H74" s="98" t="s">
-        <v>668</v>
-      </c>
-      <c r="I74" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="J74" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="K74" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="L74" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="M74" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N74" s="109" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B75" s="95" t="s">
+        <v>848</v>
+      </c>
+      <c r="C75" s="95" t="s">
+        <v>671</v>
+      </c>
+      <c r="D75" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E75" s="98" t="s">
+        <v>916</v>
+      </c>
+      <c r="F75" s="100" t="s">
         <v>849</v>
       </c>
-      <c r="C75" s="95" t="s">
-        <v>672</v>
-      </c>
-      <c r="D75" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="E75" s="98" t="s">
-        <v>917</v>
-      </c>
-      <c r="F75" s="100" t="s">
+      <c r="G75" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="H75" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="I75" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" s="105" t="s">
+        <v>675</v>
+      </c>
+      <c r="K75" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="L75" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="M75" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N75" s="109" t="s">
         <v>850</v>
-      </c>
-      <c r="G75" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="H75" s="98" t="s">
-        <v>675</v>
-      </c>
-      <c r="I75" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="J75" s="105" t="s">
-        <v>676</v>
-      </c>
-      <c r="K75" s="105" t="s">
-        <v>677</v>
-      </c>
-      <c r="L75" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="M75" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N75" s="109" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B76" s="95" t="s">
+        <v>851</v>
+      </c>
+      <c r="C76" s="95" t="s">
+        <v>680</v>
+      </c>
+      <c r="D76" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="E76" s="98" t="s">
+        <v>917</v>
+      </c>
+      <c r="F76" s="100" t="s">
         <v>852</v>
       </c>
-      <c r="C76" s="95" t="s">
-        <v>681</v>
-      </c>
-      <c r="D76" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E76" s="98" t="s">
-        <v>918</v>
-      </c>
-      <c r="F76" s="100" t="s">
+      <c r="G76" s="98" t="s">
+        <v>682</v>
+      </c>
+      <c r="H76" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="I76" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="J76" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="K76" s="105" t="s">
+        <v>686</v>
+      </c>
+      <c r="L76" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="M76" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N76" s="109" t="s">
         <v>853</v>
-      </c>
-      <c r="G76" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="H76" s="98" t="s">
-        <v>684</v>
-      </c>
-      <c r="I76" s="98" t="s">
-        <v>685</v>
-      </c>
-      <c r="J76" s="105" t="s">
-        <v>686</v>
-      </c>
-      <c r="K76" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="L76" s="105" t="s">
-        <v>568</v>
-      </c>
-      <c r="M76" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N76" s="109" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B77" s="95" t="s">
+        <v>854</v>
+      </c>
+      <c r="C77" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="D77" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" s="98" t="s">
+        <v>918</v>
+      </c>
+      <c r="F77" s="100" t="s">
         <v>855</v>
       </c>
-      <c r="C77" s="95" t="s">
-        <v>691</v>
-      </c>
-      <c r="D77" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E77" s="98" t="s">
-        <v>919</v>
-      </c>
-      <c r="F77" s="100" t="s">
+      <c r="G77" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H77" s="98" t="s">
+        <v>692</v>
+      </c>
+      <c r="I77" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J77" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="K77" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="L77" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="M77" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N77" s="109" t="s">
         <v>856</v>
-      </c>
-      <c r="G77" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="H77" s="98" t="s">
-        <v>693</v>
-      </c>
-      <c r="I77" s="98" t="s">
-        <v>694</v>
-      </c>
-      <c r="J77" s="105" t="s">
-        <v>695</v>
-      </c>
-      <c r="K77" s="105" t="s">
-        <v>696</v>
-      </c>
-      <c r="L77" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="M77" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N77" s="109" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B78" s="95" t="s">
+        <v>857</v>
+      </c>
+      <c r="C78" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="D78" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="E78" s="98" t="s">
+        <v>919</v>
+      </c>
+      <c r="F78" s="100" t="s">
         <v>858</v>
       </c>
-      <c r="C78" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="D78" s="95" t="s">
-        <v>701</v>
-      </c>
-      <c r="E78" s="98" t="s">
-        <v>920</v>
-      </c>
-      <c r="F78" s="100" t="s">
+      <c r="G78" s="98" t="s">
+        <v>702</v>
+      </c>
+      <c r="H78" s="98" t="s">
+        <v>703</v>
+      </c>
+      <c r="I78" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="J78" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="K78" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="L78" s="105" t="s">
+        <v>706</v>
+      </c>
+      <c r="M78" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N78" s="109" t="s">
         <v>859</v>
-      </c>
-      <c r="G78" s="98" t="s">
-        <v>703</v>
-      </c>
-      <c r="H78" s="98" t="s">
-        <v>704</v>
-      </c>
-      <c r="I78" s="98" t="s">
-        <v>705</v>
-      </c>
-      <c r="J78" s="105" t="s">
-        <v>631</v>
-      </c>
-      <c r="K78" s="105" t="s">
-        <v>706</v>
-      </c>
-      <c r="L78" s="105" t="s">
-        <v>707</v>
-      </c>
-      <c r="M78" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N78" s="109" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B79" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C79" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="D79" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="E79" s="98" t="s">
+        <v>920</v>
+      </c>
+      <c r="F79" s="100" t="s">
         <v>861</v>
       </c>
-      <c r="C79" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="D79" s="95" t="s">
-        <v>711</v>
-      </c>
-      <c r="E79" s="98" t="s">
-        <v>921</v>
-      </c>
-      <c r="F79" s="100" t="s">
+      <c r="G79" s="98" t="s">
+        <v>712</v>
+      </c>
+      <c r="H79" s="98" t="s">
+        <v>713</v>
+      </c>
+      <c r="I79" s="98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J79" s="105" t="s">
+        <v>715</v>
+      </c>
+      <c r="K79" s="105" t="s">
+        <v>716</v>
+      </c>
+      <c r="L79" s="105" t="s">
+        <v>717</v>
+      </c>
+      <c r="M79" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N79" s="109" t="s">
         <v>862</v>
-      </c>
-      <c r="G79" s="98" t="s">
-        <v>713</v>
-      </c>
-      <c r="H79" s="98" t="s">
-        <v>714</v>
-      </c>
-      <c r="I79" s="98" t="s">
-        <v>715</v>
-      </c>
-      <c r="J79" s="105" t="s">
-        <v>716</v>
-      </c>
-      <c r="K79" s="105" t="s">
-        <v>717</v>
-      </c>
-      <c r="L79" s="105" t="s">
-        <v>718</v>
-      </c>
-      <c r="M79" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N79" s="109" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B80" s="95" t="s">
+        <v>863</v>
+      </c>
+      <c r="C80" s="95" t="s">
+        <v>720</v>
+      </c>
+      <c r="D80" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="E80" s="98" t="s">
+        <v>921</v>
+      </c>
+      <c r="F80" s="100" t="s">
         <v>864</v>
       </c>
-      <c r="C80" s="95" t="s">
-        <v>721</v>
-      </c>
-      <c r="D80" s="95" t="s">
-        <v>525</v>
-      </c>
-      <c r="E80" s="98" t="s">
-        <v>922</v>
-      </c>
-      <c r="F80" s="100" t="s">
+      <c r="G80" s="98" t="s">
+        <v>722</v>
+      </c>
+      <c r="H80" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="I80" s="98" t="s">
+        <v>724</v>
+      </c>
+      <c r="J80" s="105" t="s">
+        <v>725</v>
+      </c>
+      <c r="K80" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="L80" s="105" t="s">
+        <v>727</v>
+      </c>
+      <c r="M80" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N80" s="109" t="s">
         <v>865</v>
-      </c>
-      <c r="G80" s="98" t="s">
-        <v>723</v>
-      </c>
-      <c r="H80" s="98" t="s">
-        <v>724</v>
-      </c>
-      <c r="I80" s="98" t="s">
-        <v>725</v>
-      </c>
-      <c r="J80" s="105" t="s">
-        <v>726</v>
-      </c>
-      <c r="K80" s="105" t="s">
-        <v>727</v>
-      </c>
-      <c r="L80" s="105" t="s">
-        <v>728</v>
-      </c>
-      <c r="M80" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N80" s="109" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B81" s="95" t="s">
+        <v>866</v>
+      </c>
+      <c r="C81" s="95" t="s">
+        <v>730</v>
+      </c>
+      <c r="D81" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="E81" s="98" t="s">
+        <v>922</v>
+      </c>
+      <c r="F81" s="100" t="s">
         <v>867</v>
       </c>
-      <c r="C81" s="95" t="s">
-        <v>731</v>
-      </c>
-      <c r="D81" s="95" t="s">
-        <v>562</v>
-      </c>
-      <c r="E81" s="98" t="s">
-        <v>923</v>
-      </c>
-      <c r="F81" s="100" t="s">
+      <c r="G81" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="H81" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="I81" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="J81" s="105" t="s">
+        <v>734</v>
+      </c>
+      <c r="K81" s="105" t="s">
+        <v>735</v>
+      </c>
+      <c r="L81" s="105" t="s">
+        <v>736</v>
+      </c>
+      <c r="M81" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="N81" s="109" t="s">
         <v>868</v>
-      </c>
-      <c r="G81" s="98" t="s">
-        <v>510</v>
-      </c>
-      <c r="H81" s="98" t="s">
-        <v>733</v>
-      </c>
-      <c r="I81" s="98" t="s">
-        <v>734</v>
-      </c>
-      <c r="J81" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="K81" s="105" t="s">
-        <v>736</v>
-      </c>
-      <c r="L81" s="105" t="s">
-        <v>737</v>
-      </c>
-      <c r="M81" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="N81" s="109" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B82" s="95" t="s">
+        <v>869</v>
+      </c>
+      <c r="C82" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D82" s="95" t="s">
+        <v>575</v>
+      </c>
+      <c r="E82" s="98" t="s">
+        <v>923</v>
+      </c>
+      <c r="F82" s="100" t="s">
         <v>870</v>
       </c>
-      <c r="C82" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="D82" s="95" t="s">
-        <v>576</v>
-      </c>
-      <c r="E82" s="98" t="s">
-        <v>924</v>
-      </c>
-      <c r="F82" s="100" t="s">
+      <c r="G82" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="H82" s="98" t="s">
+        <v>740</v>
+      </c>
+      <c r="I82" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="J82" s="105" t="s">
+        <v>742</v>
+      </c>
+      <c r="K82" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="L82" s="105" t="s">
+        <v>744</v>
+      </c>
+      <c r="M82" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="N82" s="109" t="s">
         <v>871</v>
-      </c>
-      <c r="G82" s="98" t="s">
-        <v>589</v>
-      </c>
-      <c r="H82" s="98" t="s">
-        <v>741</v>
-      </c>
-      <c r="I82" s="98" t="s">
-        <v>742</v>
-      </c>
-      <c r="J82" s="105" t="s">
-        <v>743</v>
-      </c>
-      <c r="K82" s="105" t="s">
-        <v>744</v>
-      </c>
-      <c r="L82" s="105" t="s">
-        <v>745</v>
-      </c>
-      <c r="M82" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N82" s="109" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B83" s="95" t="s">
+        <v>872</v>
+      </c>
+      <c r="C83" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="D83" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="E83" s="98" t="s">
+        <v>924</v>
+      </c>
+      <c r="F83" s="100" t="s">
         <v>873</v>
       </c>
-      <c r="C83" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="D83" s="95" t="s">
-        <v>555</v>
-      </c>
-      <c r="E83" s="98" t="s">
-        <v>925</v>
-      </c>
-      <c r="F83" s="100" t="s">
+      <c r="G83" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="H83" s="98" t="s">
+        <v>749</v>
+      </c>
+      <c r="I83" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="J83" s="105" t="s">
+        <v>751</v>
+      </c>
+      <c r="K83" s="105" t="s">
+        <v>752</v>
+      </c>
+      <c r="L83" s="105" t="s">
+        <v>753</v>
+      </c>
+      <c r="M83" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="N83" s="109" t="s">
         <v>874</v>
-      </c>
-      <c r="G83" s="98" t="s">
-        <v>518</v>
-      </c>
-      <c r="H83" s="98" t="s">
-        <v>750</v>
-      </c>
-      <c r="I83" s="98" t="s">
-        <v>751</v>
-      </c>
-      <c r="J83" s="105" t="s">
-        <v>752</v>
-      </c>
-      <c r="K83" s="105" t="s">
-        <v>753</v>
-      </c>
-      <c r="L83" s="105" t="s">
-        <v>754</v>
-      </c>
-      <c r="M83" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N83" s="109" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.4">
@@ -14144,49 +14109,6 @@
       <c r="L86" s="107"/>
       <c r="M86" s="106"/>
       <c r="N86" s="110"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C1839-B0ED-4817-93E9-7CB3B8D277A4}">
-  <dimension ref="L4:S5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="L4:Q4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="12:19" x14ac:dyDescent="0.4">
-      <c r="L4" s="115">
-        <v>45604</v>
-      </c>
-      <c r="M4">
-        <v>10030</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O4">
-        <v>1700</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="5" spans="12:19" x14ac:dyDescent="0.4">
-      <c r="S5" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -14202,8 +14124,8 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16371,8 +16293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16609,7 +16531,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -16935,14 +16857,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39"/>
@@ -17020,7 +16942,7 @@
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B3" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>219</v>
@@ -17028,7 +16950,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -17199,7 +17121,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
@@ -17212,17 +17134,17 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B35" s="92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C36" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C37" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
@@ -17230,12 +17152,12 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C40" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
@@ -17243,27 +17165,27 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C45" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C46" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C47" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -17366,7 +17288,7 @@
         <v>282</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G6" s="64"/>
       <c r="N6" s="1" t="s">
@@ -17468,11 +17390,11 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="56" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="56" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G10" s="60"/>
       <c r="N10" s="1" t="s">
@@ -17498,7 +17420,7 @@
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="56" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G11" s="64"/>
       <c r="N11" s="1" t="s">
@@ -17602,7 +17524,7 @@
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="55" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G15" s="60"/>
       <c r="N15" s="1" t="s">
@@ -18060,7 +17982,7 @@
         <v>244</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
@@ -18068,12 +17990,12 @@
         <v>65</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D21" s="53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>67</v>
